--- a/QuantLibXL/Data2/XLS/SEK_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="9585" yWindow="105" windowWidth="9615" windowHeight="11490" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="12195" tabRatio="726" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -221,10 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="135">
-  <si>
-    <t>60Y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="120">
   <si>
     <t>50Y</t>
   </si>
@@ -238,61 +235,19 @@
     <t>30Y</t>
   </si>
   <si>
-    <t>29Y</t>
-  </si>
-  <si>
-    <t>28Y</t>
-  </si>
-  <si>
     <t>27Y</t>
-  </si>
-  <si>
-    <t>26Y</t>
   </si>
   <si>
     <t>25Y</t>
   </si>
   <si>
-    <t>24Y</t>
-  </si>
-  <si>
-    <t>23Y</t>
-  </si>
-  <si>
-    <t>22Y</t>
-  </si>
-  <si>
-    <t>21Y</t>
-  </si>
-  <si>
     <t>20Y</t>
-  </si>
-  <si>
-    <t>19Y</t>
-  </si>
-  <si>
-    <t>18Y</t>
-  </si>
-  <si>
-    <t>17Y</t>
-  </si>
-  <si>
-    <t>16Y</t>
   </si>
   <si>
     <t>15Y</t>
   </si>
   <si>
-    <t>14Y</t>
-  </si>
-  <si>
-    <t>13Y</t>
-  </si>
-  <si>
     <t>12Y</t>
-  </si>
-  <si>
-    <t>11Y</t>
   </si>
   <si>
     <t>10Y</t>
@@ -637,16 +592,16 @@
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="169" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="170" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yy"/>
-    <numFmt numFmtId="172" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="173" formatCode="General_)"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0;#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="169" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yy"/>
+    <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="172" formatCode="General_)"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0;#,##0.0"/>
+    <numFmt numFmtId="174" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -854,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -875,17 +830,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1248,26 +1192,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1276,13 +1200,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="11" fillId="9" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -1291,113 +1215,113 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="4" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="8" fillId="4" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="8" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="8" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="8" fillId="4" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="8" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1408,17 +1332,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1426,76 +1347,79 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,47 +1431,47 @@
     <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1555,77 +1479,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="175" fontId="17" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="11" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1660,33 +1567,35 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="11" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,10 +1604,10 @@
     <xf numFmtId="10" fontId="16" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="175" fontId="17" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,33 +1619,51 @@
     <xf numFmtId="10" fontId="16" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="17" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="17" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1778,11 +1705,9 @@
       <sheetName val="StiborSwapForBasisCalc"/>
       <sheetName val="Deposits"/>
       <sheetName val="FRA3M"/>
-      <sheetName val="Futures3M"/>
       <sheetName val="OIS"/>
-      <sheetName val="Swap3M"/>
+      <sheetName val="Swaps3M"/>
       <sheetName val="BasisSwap3M6M"/>
-      <sheetName val="Sekibor TN Time Series"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1799,8 +1724,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2121,7 +2044,7 @@
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="89" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -2129,7 +2052,7 @@
       <c r="F2" s="90"/>
       <c r="G2" s="27"/>
       <c r="I2" s="83" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="J2" s="84"/>
       <c r="K2" s="84"/>
@@ -2172,10 +2095,10 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="28" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2183,7 +2106,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="40"/>
       <c r="J4" s="39" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K4" s="34" t="b">
         <v>0</v>
@@ -2213,7 +2136,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -2224,7 +2147,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="40"/>
       <c r="J5" s="39" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="38"/>
@@ -2252,10 +2175,10 @@
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="26" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2263,7 +2186,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="40"/>
       <c r="J6" s="39" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K6" s="31" t="b">
         <v>1</v>
@@ -2293,7 +2216,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="26" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>Months&amp;IF(UPPER(Currency)="EUR","E","L")</f>
@@ -2331,7 +2254,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="26" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
@@ -2366,7 +2289,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="26" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>Currency&amp;"_"&amp;$E$16&amp;"RH"</f>
@@ -2377,7 +2300,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="3"/>
       <c r="I9" s="83" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J9" s="84"/>
       <c r="K9" s="84"/>
@@ -2406,7 +2329,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="25" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6" t="b">
         <v>1</v>
@@ -2443,21 +2366,19 @@
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="24">
-        <v>41991.609351851854</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D11" s="24"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="27"/>
       <c r="H11" s="3"/>
       <c r="I11" s="33"/>
       <c r="J11" s="32" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="3"/>
@@ -2484,7 +2405,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="23" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D12" s="22" t="b">
         <v>1</v>
@@ -2495,10 +2416,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="33"/>
       <c r="J12" s="32" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="3"/>
@@ -2532,10 +2453,10 @@
       <c r="H13" s="3"/>
       <c r="I13" s="33"/>
       <c r="J13" s="32" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="3"/>
@@ -2562,11 +2483,11 @@
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="19" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_SEKYCSTD#0018</v>
+        <v>_SEKYCSTD#0024</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2574,10 +2495,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="58"/>
       <c r="J14" s="32" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L14" s="57"/>
       <c r="M14" s="3"/>
@@ -2604,14 +2525,14 @@
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D15" s="20" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
       <c r="E15" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="27"/>
@@ -2644,14 +2565,14 @@
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="19" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D16" s="18" t="str">
         <f>"_"&amp;Currency&amp;$E$16</f>
         <v>_SEKYCSTD</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="27"/>
@@ -2684,7 +2605,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="14" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D17" s="16">
         <v>2</v>
@@ -2721,10 +2642,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="14" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2758,7 +2679,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D19" s="15" t="e">
         <f>NA()</f>
@@ -2796,10 +2717,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2833,10 +2754,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2904,11 +2825,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.9895634594246724E-2</v>
+        <v>2.0099702144105676E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2943,11 +2864,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>52953</v>
+        <v>52954</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>7.6041587455006655E-4</v>
+        <v>7.2999562004162578E-4</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2981,7 +2902,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
       <c r="C25" s="59" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D25" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
@@ -4313,7 +4234,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4335,41 +4256,41 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>106</v>
+        <v>31</v>
+      </c>
+      <c r="B1" s="188" t="s">
+        <v>91</v>
       </c>
       <c r="C1" s="95" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D1" s="95" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E1" s="95" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F1" s="95" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G1" s="95" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I1" s="95" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96">
+      <c r="A2" s="186" t="str">
         <f>Deposits!J3</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="96" t="e">
+        <v>obj_002b1#0002</v>
+      </c>
+      <c r="B2" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A2),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
+        <v>SEKOND_Quote</v>
       </c>
       <c r="C2" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
@@ -4385,25 +4306,25 @@
       <c r="G2" s="54">
         <v>1</v>
       </c>
-      <c r="H2" s="98" t="e">
+      <c r="H2" s="98">
         <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="99" t="e">
+        <v>41996</v>
+      </c>
+      <c r="I2" s="99">
         <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42002</v>
       </c>
       <c r="J2" s="52">
         <v>10</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="str">
+      <c r="A3" s="186" t="str">
         <f>Deposits!J4</f>
-        <v>obj_00153#0006</v>
+        <v>obj_0017f#0004</v>
       </c>
       <c r="B3" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A3),"LastFixing","D"),"Libor","")</f>
@@ -4411,7 +4332,7 @@
       </c>
       <c r="C3" s="97">
         <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="D3" s="97"/>
       <c r="E3" s="54" t="b">
@@ -4425,17 +4346,17 @@
       </c>
       <c r="H3" s="98">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I3" s="99">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>41996</v>
+        <v>42002</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96" t="str">
+      <c r="A4" s="186" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00154#0005</v>
+        <v>obj_00180#0004</v>
       </c>
       <c r="B4" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A4),"LastFixing","D"),"Libor","")</f>
@@ -4457,29 +4378,29 @@
       </c>
       <c r="H4" s="98">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I4" s="99">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>42002</v>
+        <v>42003</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="str">
+      <c r="A5" s="186" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0015f#0005</v>
+        <v>obj_00189#0004</v>
       </c>
       <c r="B5" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A5),"LastFixing","D"),"Libor","")</f>
         <v>SEKSWD_Quote</v>
       </c>
-      <c r="C5" s="97" t="e">
+      <c r="C5" s="97">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="D5" s="97"/>
       <c r="E5" s="54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="54">
         <v>10</v>
@@ -4489,23 +4410,23 @@
       </c>
       <c r="H5" s="98">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I5" s="99">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
-        <v>42002</v>
+        <v>42003</v>
       </c>
       <c r="J5" s="52">
         <v>60</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="186" t="str">
         <f>Deposits!J7</f>
-        <v>obj_0016c#0005</v>
+        <v>obj_00197#0004</v>
       </c>
       <c r="B6" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A6),"LastFixing","D"),"Libor","")</f>
@@ -4527,17 +4448,17 @@
       </c>
       <c r="H6" s="98">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I6" s="99">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
-        <v>42009</v>
+        <v>42011</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="str">
+      <c r="A7" s="186" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00171#0005</v>
+        <v>obj_00192#0004</v>
       </c>
       <c r="B7" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A7),"LastFixing","D"),"Libor","")</f>
@@ -4559,17 +4480,17 @@
       </c>
       <c r="H7" s="98">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I7" s="99">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>42016</v>
+        <v>42017</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="str">
+      <c r="A8" s="186" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00170#0006</v>
+        <v>obj_0019e#0004</v>
       </c>
       <c r="B8" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A8),"LastFixing","D"),"Libor","")</f>
@@ -4577,7 +4498,7 @@
       </c>
       <c r="C8" s="97">
         <f>_xll.qlRateHelperQuoteValue($A8,Trigger)</f>
-        <v>1.6699999999999998E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="D8" s="97"/>
       <c r="E8" s="54" t="b">
@@ -4591,17 +4512,17 @@
       </c>
       <c r="H8" s="98">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I8" s="99">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>42026</v>
+        <v>42027</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="str">
+      <c r="A9" s="186" t="str">
         <f>Deposits!J10</f>
-        <v>obj_0016d#0005</v>
+        <v>obj_00198#0004</v>
       </c>
       <c r="B9" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A9),"LastFixing","D"),"Libor","")</f>
@@ -4609,7 +4530,7 @@
       </c>
       <c r="C9" s="97">
         <f>_xll.qlRateHelperQuoteValue($A9,Trigger)</f>
-        <v>2.0699999999999998E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="54" t="b">
@@ -4623,7 +4544,7 @@
       </c>
       <c r="H9" s="98">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I9" s="99">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
@@ -4631,9 +4552,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="str">
+      <c r="A10" s="186" t="str">
         <f>Deposits!J11</f>
-        <v>obj_0016b#0005</v>
+        <v>obj_00195#0004</v>
       </c>
       <c r="B10" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A10),"LastFixing","D"),"Libor","")</f>
@@ -4641,7 +4562,7 @@
       </c>
       <c r="C10" s="97">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
-        <v>2.5800000000000003E-3</v>
+        <v>2.5900000000000003E-3</v>
       </c>
       <c r="D10" s="97"/>
       <c r="E10" s="54" t="b">
@@ -4655,7 +4576,7 @@
       </c>
       <c r="H10" s="98">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I10" s="99">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
@@ -4663,9 +4584,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96" t="str">
+      <c r="A11" s="186" t="str">
         <f>Deposits!J12</f>
-        <v>obj_00173#0005</v>
+        <v>obj_00199#0004</v>
       </c>
       <c r="B11" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A11),"LastFixing","D"),"Libor","")</f>
@@ -4687,17 +4608,17 @@
       </c>
       <c r="H11" s="98">
         <f>_xll.qlRateHelperEarliestDate($A11,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I11" s="99">
         <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
-        <v>42116</v>
+        <v>42117</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="96" t="str">
+      <c r="A12" s="186" t="str">
         <f>Deposits!J13</f>
-        <v>obj_0016f#0005</v>
+        <v>obj_0019c#0004</v>
       </c>
       <c r="B12" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A12),"LastFixing","D"),"Libor","")</f>
@@ -4719,17 +4640,17 @@
       </c>
       <c r="H12" s="98">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I12" s="99">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
-        <v>42146</v>
+        <v>42150</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96" t="str">
+      <c r="A13" s="186" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00167#0005</v>
+        <v>obj_0019b#0004</v>
       </c>
       <c r="B13" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A13),"LastFixing","D"),"Libor","")</f>
@@ -4737,7 +4658,7 @@
       </c>
       <c r="C13" s="97">
         <f>_xll.qlRateHelperQuoteValue($A13,Trigger)</f>
-        <v>3.4100000000000003E-3</v>
+        <v>3.4599999999999995E-3</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="54" t="b">
@@ -4751,17 +4672,17 @@
       </c>
       <c r="H13" s="98">
         <f>_xll.qlRateHelperEarliestDate($A13,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I13" s="99">
         <f>_xll.qlRateHelperLatestDate($A13,Trigger)</f>
-        <v>42177</v>
+        <v>42178</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96" t="str">
+      <c r="A14" s="186" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00169#0005</v>
+        <v>obj_00191#0004</v>
       </c>
       <c r="B14" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A14),"LastFixing","D"),"Libor","")</f>
@@ -4783,17 +4704,17 @@
       </c>
       <c r="H14" s="98">
         <f>_xll.qlRateHelperEarliestDate($A14,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I14" s="99">
         <f>_xll.qlRateHelperLatestDate($A14,Trigger)</f>
-        <v>42207</v>
+        <v>42208</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="96" t="str">
+      <c r="A15" s="186" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00168#0005</v>
+        <v>obj_0019d#0004</v>
       </c>
       <c r="B15" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A15),"LastFixing","D"),"Libor","")</f>
@@ -4815,7 +4736,7 @@
       </c>
       <c r="H15" s="98">
         <f>_xll.qlRateHelperEarliestDate($A15,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I15" s="99">
         <f>_xll.qlRateHelperLatestDate($A15,Trigger)</f>
@@ -4823,9 +4744,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="96" t="str">
+      <c r="A16" s="186" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0016e#0005</v>
+        <v>obj_0019a#0004</v>
       </c>
       <c r="B16" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A16),"LastFixing","D"),"Libor","")</f>
@@ -4847,17 +4768,17 @@
       </c>
       <c r="H16" s="98">
         <f>_xll.qlRateHelperEarliestDate($A16,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I16" s="99">
         <f>_xll.qlRateHelperLatestDate($A16,Trigger)</f>
-        <v>42269</v>
+        <v>42270</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="96" t="str">
+      <c r="A17" s="186" t="str">
         <f>Deposits!J18</f>
-        <v>obj_00166#0005</v>
+        <v>obj_00196#0004</v>
       </c>
       <c r="B17" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A17),"LastFixing","D"),"Libor","")</f>
@@ -4879,17 +4800,17 @@
       </c>
       <c r="H17" s="98">
         <f>_xll.qlRateHelperEarliestDate($A17,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I17" s="99">
         <f>_xll.qlRateHelperLatestDate($A17,Trigger)</f>
-        <v>42299</v>
+        <v>42300</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="96" t="str">
+      <c r="A18" s="186" t="str">
         <f>Deposits!J19</f>
-        <v>obj_0016a#0005</v>
+        <v>obj_00193#0004</v>
       </c>
       <c r="B18" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A18),"LastFixing","D"),"Libor","")</f>
@@ -4911,7 +4832,7 @@
       </c>
       <c r="H18" s="98">
         <f>_xll.qlRateHelperEarliestDate($A18,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I18" s="99">
         <f>_xll.qlRateHelperLatestDate($A18,Trigger)</f>
@@ -4919,9 +4840,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="96" t="str">
+      <c r="A19" s="186" t="str">
         <f>Deposits!J20</f>
-        <v>obj_00172#0005</v>
+        <v>obj_00194#0004</v>
       </c>
       <c r="B19" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A19),"LastFixing","D"),"Libor","")</f>
@@ -4943,17 +4864,17 @@
       </c>
       <c r="H19" s="98">
         <f>_xll.qlRateHelperEarliestDate($A19,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I19" s="99">
         <f>_xll.qlRateHelperLatestDate($A19,Trigger)</f>
-        <v>42360</v>
+        <v>42361</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="106" t="str">
+      <c r="A20" s="185" t="str">
         <f>'IMM FRA'!H3</f>
-        <v>obj_002f2#0007</v>
+        <v>obj_00171#0004</v>
       </c>
       <c r="B20" s="106" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A20),"LastFixing","D"),"Libor","")</f>
@@ -4974,7 +4895,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="108">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H20" s="109">
         <f>_xll.qlRateHelperEarliestDate($A20,Trigger)</f>
@@ -4986,9 +4907,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="str">
+      <c r="A21" s="186" t="str">
         <f>'IMM FRA'!H4</f>
-        <v>obj_002f3#0009</v>
+        <v>obj_00176#0004</v>
       </c>
       <c r="B21" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A21),"LastFixing","D"),"Libor","")</f>
@@ -4996,7 +4917,7 @@
       </c>
       <c r="C21" s="105">
         <f>_xll.qlRateHelperQuoteValue(A21,Trigger)</f>
-        <v>99.775000000000006</v>
+        <v>99.77000000000001</v>
       </c>
       <c r="D21" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A21,Trigger)</f>
@@ -5009,7 +4930,7 @@
         <v>60</v>
       </c>
       <c r="G21" s="54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H21" s="98">
         <f>_xll.qlRateHelperEarliestDate($A21,Trigger)</f>
@@ -5021,9 +4942,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="96" t="str">
+      <c r="A22" s="186" t="str">
         <f>'IMM FRA'!H5</f>
-        <v>obj_002f5#0009</v>
+        <v>obj_00178#0004</v>
       </c>
       <c r="B22" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A22),"LastFixing","D"),"Libor","")</f>
@@ -5031,7 +4952,7 @@
       </c>
       <c r="C22" s="105">
         <f>_xll.qlRateHelperQuoteValue(A22,Trigger)</f>
-        <v>99.775000000000006</v>
+        <v>99.77000000000001</v>
       </c>
       <c r="D22" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A22,Trigger)</f>
@@ -5044,7 +4965,7 @@
         <v>60</v>
       </c>
       <c r="G22" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H22" s="98">
         <f>_xll.qlRateHelperEarliestDate($A22,Trigger)</f>
@@ -5056,9 +4977,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="96" t="str">
+      <c r="A23" s="186" t="str">
         <f>'IMM FRA'!H6</f>
-        <v>obj_002f7#0009</v>
+        <v>obj_00172#0004</v>
       </c>
       <c r="B23" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A23),"LastFixing","D"),"Libor","")</f>
@@ -5079,7 +5000,7 @@
         <v>60</v>
       </c>
       <c r="G23" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H23" s="98">
         <f>_xll.qlRateHelperEarliestDate($A23,Trigger)</f>
@@ -5091,9 +5012,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="96" t="str">
+      <c r="A24" s="186" t="str">
         <f>'IMM FRA'!H7</f>
-        <v>obj_002f9#0009</v>
+        <v>obj_00175#0004</v>
       </c>
       <c r="B24" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A24),"LastFixing","D"),"Libor","")</f>
@@ -5101,7 +5022,7 @@
       </c>
       <c r="C24" s="105">
         <f>_xll.qlRateHelperQuoteValue(A24,Trigger)</f>
-        <v>99.724999999999994</v>
+        <v>99.72</v>
       </c>
       <c r="D24" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A24,Trigger)</f>
@@ -5114,7 +5035,7 @@
         <v>60</v>
       </c>
       <c r="G24" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H24" s="98">
         <f>_xll.qlRateHelperEarliestDate($A24,Trigger)</f>
@@ -5126,9 +5047,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="96" t="str">
+      <c r="A25" s="186" t="str">
         <f>'IMM FRA'!H8</f>
-        <v>obj_002fb#0009</v>
+        <v>obj_00173#0004</v>
       </c>
       <c r="B25" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A25),"LastFixing","D"),"Libor","")</f>
@@ -5136,7 +5057,7 @@
       </c>
       <c r="C25" s="105">
         <f>_xll.qlRateHelperQuoteValue(A25,Trigger)</f>
-        <v>99.685000000000002</v>
+        <v>99.674999999999997</v>
       </c>
       <c r="D25" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A25,Trigger)</f>
@@ -5149,7 +5070,7 @@
         <v>60</v>
       </c>
       <c r="G25" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H25" s="98">
         <f>_xll.qlRateHelperEarliestDate($A25,Trigger)</f>
@@ -5161,9 +5082,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="str">
+      <c r="A26" s="186" t="str">
         <f>'IMM FRA'!H9</f>
-        <v>obj_002fd#0009</v>
+        <v>obj_0017b#0004</v>
       </c>
       <c r="B26" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A26),"LastFixing","D"),"Libor","")</f>
@@ -5171,7 +5092,7 @@
       </c>
       <c r="C26" s="105">
         <f>_xll.qlRateHelperQuoteValue(A26,Trigger)</f>
-        <v>99.63</v>
+        <v>99.625</v>
       </c>
       <c r="D26" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A26,Trigger)</f>
@@ -5184,7 +5105,7 @@
         <v>60</v>
       </c>
       <c r="G26" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H26" s="98">
         <f>_xll.qlRateHelperEarliestDate($A26,Trigger)</f>
@@ -5196,9 +5117,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="96" t="str">
+      <c r="A27" s="186" t="str">
         <f>'IMM FRA'!H10</f>
-        <v>obj_002ff#0009</v>
+        <v>obj_00179#0004</v>
       </c>
       <c r="B27" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A27),"LastFixing","D"),"Libor","")</f>
@@ -5206,7 +5127,7 @@
       </c>
       <c r="C27" s="105">
         <f>_xll.qlRateHelperQuoteValue(A27,Trigger)</f>
-        <v>99.570000000000007</v>
+        <v>99.555000000000007</v>
       </c>
       <c r="D27" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A27,Trigger)</f>
@@ -5219,7 +5140,7 @@
         <v>60</v>
       </c>
       <c r="G27" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H27" s="98">
         <f>_xll.qlRateHelperEarliestDate($A27,Trigger)</f>
@@ -5231,9 +5152,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="96" t="str">
+      <c r="A28" s="186" t="str">
         <f>'IMM FRA'!H11</f>
-        <v>obj_00300#0009</v>
+        <v>obj_00174#0004</v>
       </c>
       <c r="B28" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A28),"LastFixing","D"),"Libor","")</f>
@@ -5241,7 +5162,7 @@
       </c>
       <c r="C28" s="105">
         <f>_xll.qlRateHelperQuoteValue(A28,Trigger)</f>
-        <v>99.5</v>
+        <v>99.475999999999999</v>
       </c>
       <c r="D28" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A28,Trigger)</f>
@@ -5254,7 +5175,7 @@
         <v>60</v>
       </c>
       <c r="G28" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H28" s="98">
         <f>_xll.qlRateHelperEarliestDate($A28,Trigger)</f>
@@ -5266,9 +5187,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="96" t="str">
+      <c r="A29" s="186" t="str">
         <f>'IMM FRA'!H12</f>
-        <v>obj_002f4#0009</v>
+        <v>obj_0016f#0004</v>
       </c>
       <c r="B29" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A29),"LastFixing","D"),"Libor","")</f>
@@ -5276,7 +5197,7 @@
       </c>
       <c r="C29" s="105">
         <f>_xll.qlRateHelperQuoteValue(A29,Trigger)</f>
-        <v>99.424999999999997</v>
+        <v>99.397000000000006</v>
       </c>
       <c r="D29" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A29,Trigger)</f>
@@ -5286,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G29" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H29" s="98">
         <f>_xll.qlRateHelperEarliestDate($A29,Trigger)</f>
@@ -5301,9 +5222,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="96" t="str">
+      <c r="A30" s="186" t="str">
         <f>'IMM FRA'!H13</f>
-        <v>obj_002f6#0009</v>
+        <v>obj_00177#0004</v>
       </c>
       <c r="B30" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A30),"LastFixing","D"),"Libor","")</f>
@@ -5311,7 +5232,7 @@
       </c>
       <c r="C30" s="105">
         <f>_xll.qlRateHelperQuoteValue(A30,Trigger)</f>
-        <v>99.344999999999999</v>
+        <v>99.316999999999993</v>
       </c>
       <c r="D30" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A30,Trigger)</f>
@@ -5321,10 +5242,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G30" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H30" s="98">
         <f>_xll.qlRateHelperEarliestDate($A30,Trigger)</f>
@@ -5336,9 +5257,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="96" t="str">
+      <c r="A31" s="186" t="str">
         <f>'IMM FRA'!H14</f>
-        <v>obj_002f8#0009</v>
+        <v>obj_0017c#0004</v>
       </c>
       <c r="B31" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A31),"LastFixing","D"),"Libor","")</f>
@@ -5346,7 +5267,7 @@
       </c>
       <c r="C31" s="105">
         <f>_xll.qlRateHelperQuoteValue(A31,Trigger)</f>
-        <v>99.26</v>
+        <v>99.231999999999999</v>
       </c>
       <c r="D31" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A31,Trigger)</f>
@@ -5356,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G31" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H31" s="98">
         <f>_xll.qlRateHelperEarliestDate($A31,Trigger)</f>
@@ -5371,112 +5292,112 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="96" t="e">
+      <c r="A32" s="186" t="str">
         <f>'IMM FRA'!H15</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="B32" s="96" t="e">
+        <v>obj_0016e#0004</v>
+      </c>
+      <c r="B32" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A32),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>FUTSEK3F13_Quote</v>
       </c>
       <c r="C32" s="105" t="e">
         <f>_xll.qlRateHelperQuoteValue(A32,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="97" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D32" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A32,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E32" s="54" t="b">
         <v>0</v>
       </c>
       <c r="F32" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G32" s="54">
-        <v>1</v>
-      </c>
-      <c r="H32" s="98" t="e">
+        <v>21</v>
+      </c>
+      <c r="H32" s="98">
         <f>_xll.qlRateHelperEarliestDate($A32,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="99" t="e">
+        <v>43180</v>
+      </c>
+      <c r="I32" s="99">
         <f>_xll.qlRateHelperLatestDate($A32,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96" t="e">
+      <c r="A33" s="186" t="str">
         <f>'IMM FRA'!H16</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="B33" s="96" t="e">
+        <v>obj_0017a#0004</v>
+      </c>
+      <c r="B33" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A33),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>FUTSEK3F14_Quote</v>
       </c>
       <c r="C33" s="105" t="e">
         <f>_xll.qlRateHelperQuoteValue(A33,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="97" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D33" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A33,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E33" s="54" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G33" s="54">
-        <v>1</v>
-      </c>
-      <c r="H33" s="98" t="e">
+        <v>21</v>
+      </c>
+      <c r="H33" s="98">
         <f>_xll.qlRateHelperEarliestDate($A33,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="99" t="e">
+        <v>43271</v>
+      </c>
+      <c r="I33" s="99">
         <f>_xll.qlRateHelperLatestDate($A33,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="96" t="e">
+      <c r="A34" s="186" t="str">
         <f>'IMM FRA'!H17</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="B34" s="96" t="e">
+        <v>obj_00170#0004</v>
+      </c>
+      <c r="B34" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A34),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>FUTSEK3F15_Quote</v>
       </c>
       <c r="C34" s="105" t="e">
         <f>_xll.qlRateHelperQuoteValue(A34,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="97" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D34" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A34,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E34" s="54" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G34" s="54">
-        <v>1</v>
-      </c>
-      <c r="H34" s="98" t="e">
+        <v>21</v>
+      </c>
+      <c r="H34" s="98">
         <f>_xll.qlRateHelperEarliestDate($A34,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="99" t="e">
+        <v>43362</v>
+      </c>
+      <c r="I34" s="99">
         <f>_xll.qlRateHelperLatestDate($A34,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="96" t="e">
+      <c r="A35" s="186" t="e">
         <f>'IMM FRA'!H18</f>
         <v>#NUM!</v>
       </c>
@@ -5496,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G35" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H35" s="98" t="e">
         <f>_xll.qlRateHelperEarliestDate($A35,Trigger)</f>
@@ -5511,7 +5432,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="96" t="e">
+      <c r="A36" s="186" t="e">
         <f>'IMM FRA'!H19</f>
         <v>#NUM!</v>
       </c>
@@ -5531,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G36" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H36" s="98" t="e">
         <f>_xll.qlRateHelperEarliestDate($A36,Trigger)</f>
@@ -5546,7 +5467,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="96" t="e">
+      <c r="A37" s="186" t="e">
         <f>'IMM FRA'!H20</f>
         <v>#NUM!</v>
       </c>
@@ -5566,10 +5487,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G37" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H37" s="98" t="e">
         <f>_xll.qlRateHelperEarliestDate($A37,Trigger)</f>
@@ -5581,7 +5502,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="96" t="e">
+      <c r="A38" s="186" t="e">
         <f>'IMM FRA'!H21</f>
         <v>#NUM!</v>
       </c>
@@ -5601,10 +5522,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G38" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H38" s="98" t="e">
         <f>_xll.qlRateHelperEarliestDate($A38,Trigger)</f>
@@ -5616,7 +5537,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="100" t="e">
+      <c r="A39" s="187" t="e">
         <f>'IMM FRA'!H22</f>
         <v>#NUM!</v>
       </c>
@@ -5636,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G39" s="54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H39" s="98" t="e">
         <f>_xll.qlRateHelperEarliestDate($A39,Trigger)</f>
@@ -5651,9 +5572,9 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="179" t="str">
+      <c r="A40" s="185" t="str">
         <f>Swaps!K5</f>
-        <v>obj_002c5#0006</v>
+        <v>obj_0015b#0011</v>
       </c>
       <c r="B40" s="106" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A40),"LastFixing","D"),"Libor","")</f>
@@ -5674,22 +5595,22 @@
         <v>50</v>
       </c>
       <c r="G40" s="108">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H40" s="109">
         <f>_xll.qlRateHelperEarliestDate($A40,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I40" s="110">
         <f>_xll.qlRateHelperLatestDate($A40,Trigger)</f>
-        <v>42360</v>
+        <v>42361</v>
       </c>
       <c r="K40" s="111"/>
     </row>
     <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="180" t="str">
+      <c r="A41" s="186" t="str">
         <f>Swaps!K6</f>
-        <v>obj_002be#0006</v>
+        <v>obj_00164#0011</v>
       </c>
       <c r="B41" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A41),"LastFixing","D"),"Libor","")</f>
@@ -5714,18 +5635,18 @@
       </c>
       <c r="H41" s="98">
         <f>_xll.qlRateHelperEarliestDate($A41,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I41" s="99">
         <f>_xll.qlRateHelperLatestDate($A41,Trigger)</f>
-        <v>42451</v>
+        <v>42452</v>
       </c>
       <c r="K41" s="111"/>
     </row>
     <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="180" t="str">
+      <c r="A42" s="186" t="str">
         <f>Swaps!K7</f>
-        <v>obj_002d5#0006</v>
+        <v>obj_0015a#0011</v>
       </c>
       <c r="B42" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A42),"LastFixing","D"),"Libor","")</f>
@@ -5750,18 +5671,18 @@
       </c>
       <c r="H42" s="98">
         <f>_xll.qlRateHelperEarliestDate($A42,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I42" s="99">
         <f>_xll.qlRateHelperLatestDate($A42,Trigger)</f>
-        <v>42543</v>
+        <v>42544</v>
       </c>
       <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="180" t="str">
+      <c r="A43" s="186" t="str">
         <f>Swaps!K8</f>
-        <v>obj_002ca#0006</v>
+        <v>obj_00160#0011</v>
       </c>
       <c r="B43" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A43),"LastFixing","D"),"Libor","")</f>
@@ -5786,18 +5707,18 @@
       </c>
       <c r="H43" s="98">
         <f>_xll.qlRateHelperEarliestDate($A43,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I43" s="99">
         <f>_xll.qlRateHelperLatestDate($A43,Trigger)</f>
-        <v>42635</v>
+        <v>42636</v>
       </c>
       <c r="K43" s="111"/>
     </row>
     <row r="44" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="180" t="str">
+      <c r="A44" s="186" t="str">
         <f>Swaps!K9</f>
-        <v>obj_002b9#0006</v>
+        <v>obj_00158#0011</v>
       </c>
       <c r="B44" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A44),"LastFixing","D"),"Libor","")</f>
@@ -5815,25 +5736,25 @@
         <v>1</v>
       </c>
       <c r="F44" s="54">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G44" s="54">
         <v>1</v>
       </c>
       <c r="H44" s="98">
         <f>_xll.qlRateHelperEarliestDate($A44,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I44" s="99">
         <f>_xll.qlRateHelperLatestDate($A44,Trigger)</f>
-        <v>42726</v>
+        <v>42727</v>
       </c>
       <c r="K44" s="111"/>
     </row>
     <row r="45" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="180" t="str">
+      <c r="A45" s="186" t="str">
         <f>Swaps!K10</f>
-        <v>obj_002d1#0006</v>
+        <v>obj_0015c#0011</v>
       </c>
       <c r="B45" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A45),"LastFixing","D"),"Libor","")</f>
@@ -5841,7 +5762,7 @@
       </c>
       <c r="C45" s="97">
         <f>_xll.qlRateHelperQuoteValue($A45,Trigger)</f>
-        <v>3.7750000000000001E-3</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="D45" s="97">
         <f>_xll.qlSwapRateHelperSpread($A45,Trigger)</f>
@@ -5858,18 +5779,18 @@
       </c>
       <c r="H45" s="98">
         <f>_xll.qlRateHelperEarliestDate($A45,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I45" s="99">
         <f>_xll.qlRateHelperLatestDate($A45,Trigger)</f>
-        <v>43091</v>
+        <v>43096</v>
       </c>
       <c r="K45" s="111"/>
     </row>
     <row r="46" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="180" t="str">
+      <c r="A46" s="186" t="str">
         <f>Swaps!K11</f>
-        <v>obj_002c2#0006</v>
+        <v>obj_00166#0011</v>
       </c>
       <c r="B46" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A46),"LastFixing","D"),"Libor","")</f>
@@ -5877,7 +5798,7 @@
       </c>
       <c r="C46" s="97">
         <f>_xll.qlRateHelperQuoteValue($A46,Trigger)</f>
-        <v>5.0750000000000005E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="D46" s="97">
         <f>_xll.qlSwapRateHelperSpread($A46,Trigger)</f>
@@ -5894,7 +5815,7 @@
       </c>
       <c r="H46" s="98">
         <f>_xll.qlRateHelperEarliestDate($A46,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I46" s="99">
         <f>_xll.qlRateHelperLatestDate($A46,Trigger)</f>
@@ -5903,9 +5824,9 @@
       <c r="K46" s="111"/>
     </row>
     <row r="47" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="180" t="str">
+      <c r="A47" s="186" t="str">
         <f>Swaps!K12</f>
-        <v>obj_002d6#0006</v>
+        <v>obj_0016b#0011</v>
       </c>
       <c r="B47" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A47),"LastFixing","D"),"Libor","")</f>
@@ -5913,7 +5834,7 @@
       </c>
       <c r="C47" s="97">
         <f>_xll.qlRateHelperQuoteValue($A47,Trigger)</f>
-        <v>6.5999999999999991E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D47" s="97">
         <f>_xll.qlSwapRateHelperSpread($A47,Trigger)</f>
@@ -5930,7 +5851,7 @@
       </c>
       <c r="H47" s="98">
         <f>_xll.qlRateHelperEarliestDate($A47,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I47" s="99">
         <f>_xll.qlRateHelperLatestDate($A47,Trigger)</f>
@@ -5939,9 +5860,9 @@
       <c r="K47" s="111"/>
     </row>
     <row r="48" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="180" t="str">
+      <c r="A48" s="186" t="str">
         <f>Swaps!K13</f>
-        <v>obj_002cd#0006</v>
+        <v>obj_00162#0011</v>
       </c>
       <c r="B48" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A48),"LastFixing","D"),"Libor","")</f>
@@ -5949,7 +5870,7 @@
       </c>
       <c r="C48" s="97">
         <f>_xll.qlRateHelperQuoteValue($A48,Trigger)</f>
-        <v>8.0999999999999996E-3</v>
+        <v>8.3499999999999998E-3</v>
       </c>
       <c r="D48" s="97">
         <f>_xll.qlSwapRateHelperSpread($A48,Trigger)</f>
@@ -5966,18 +5887,18 @@
       </c>
       <c r="H48" s="98">
         <f>_xll.qlRateHelperEarliestDate($A48,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I48" s="99">
         <f>_xll.qlRateHelperLatestDate($A48,Trigger)</f>
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="K48" s="111"/>
     </row>
     <row r="49" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="180" t="str">
+      <c r="A49" s="186" t="str">
         <f>Swaps!K14</f>
-        <v>obj_002bd#0006</v>
+        <v>obj_00161#0011</v>
       </c>
       <c r="B49" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A49),"LastFixing","D"),"Libor","")</f>
@@ -5985,7 +5906,7 @@
       </c>
       <c r="C49" s="97">
         <f>_xll.qlRateHelperQuoteValue($A49,Trigger)</f>
-        <v>9.4999999999999998E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="D49" s="97">
         <f>_xll.qlSwapRateHelperSpread($A49,Trigger)</f>
@@ -6002,18 +5923,18 @@
       </c>
       <c r="H49" s="98">
         <f>_xll.qlRateHelperEarliestDate($A49,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I49" s="99">
         <f>_xll.qlRateHelperLatestDate($A49,Trigger)</f>
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="K49" s="111"/>
     </row>
     <row r="50" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="180" t="str">
+      <c r="A50" s="186" t="str">
         <f>Swaps!K15</f>
-        <v>obj_002c6#0006</v>
+        <v>obj_0016c#0011</v>
       </c>
       <c r="B50" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A50),"LastFixing","D"),"Libor","")</f>
@@ -6021,7 +5942,7 @@
       </c>
       <c r="C50" s="97">
         <f>_xll.qlRateHelperQuoteValue($A50,Trigger)</f>
-        <v>1.0825E-2</v>
+        <v>1.1099999999999999E-2</v>
       </c>
       <c r="D50" s="97">
         <f>_xll.qlSwapRateHelperSpread($A50,Trigger)</f>
@@ -6038,18 +5959,18 @@
       </c>
       <c r="H50" s="98">
         <f>_xll.qlRateHelperEarliestDate($A50,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I50" s="99">
         <f>_xll.qlRateHelperLatestDate($A50,Trigger)</f>
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="K50" s="111"/>
     </row>
     <row r="51" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="180" t="str">
+      <c r="A51" s="186" t="str">
         <f>Swaps!K16</f>
-        <v>obj_002c9#0006</v>
+        <v>obj_0015f#0011</v>
       </c>
       <c r="B51" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A51),"LastFixing","D"),"Libor","")</f>
@@ -6057,7 +5978,7 @@
       </c>
       <c r="C51" s="97">
         <f>_xll.qlRateHelperQuoteValue($A51,Trigger)</f>
-        <v>1.2000000000000002E-2</v>
+        <v>1.2200000000000003E-2</v>
       </c>
       <c r="D51" s="97">
         <f>_xll.qlSwapRateHelperSpread($A51,Trigger)</f>
@@ -6074,17 +5995,17 @@
       </c>
       <c r="H51" s="98">
         <f>_xll.qlRateHelperEarliestDate($A51,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I51" s="99">
         <f>_xll.qlRateHelperLatestDate($A51,Trigger)</f>
-        <v>45282</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="180" t="str">
+      <c r="A52" s="186" t="str">
         <f>Swaps!K17</f>
-        <v>obj_002b8#0006</v>
+        <v>obj_00163#0011</v>
       </c>
       <c r="B52" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A52),"LastFixing","D"),"Libor","")</f>
@@ -6092,7 +6013,7 @@
       </c>
       <c r="C52" s="97">
         <f>_xll.qlRateHelperQuoteValue($A52,Trigger)</f>
-        <v>1.2999999999999998E-2</v>
+        <v>1.3199999999999998E-2</v>
       </c>
       <c r="D52" s="97">
         <f>_xll.qlSwapRateHelperSpread($A52,Trigger)</f>
@@ -6109,7 +6030,7 @@
       </c>
       <c r="H52" s="98">
         <f>_xll.qlRateHelperEarliestDate($A52,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I52" s="99">
         <f>_xll.qlRateHelperLatestDate($A52,Trigger)</f>
@@ -6117,24 +6038,24 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="180" t="str">
+      <c r="A53" s="186" t="str">
         <f>Swaps!K18</f>
-        <v>obj_002d0#0006</v>
+        <v>obj_00168#0011</v>
       </c>
       <c r="B53" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A53),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S11Y_Quote</v>
-      </c>
-      <c r="C53" s="97" t="e">
+        <v>SEKAB3S12Y_Quote</v>
+      </c>
+      <c r="C53" s="97">
         <f>_xll.qlRateHelperQuoteValue($A53,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.49E-2</v>
       </c>
       <c r="D53" s="97">
         <f>_xll.qlSwapRateHelperSpread($A53,Trigger)</f>
         <v>0</v>
       </c>
       <c r="E53" s="54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="54">
         <v>50</v>
@@ -6144,25 +6065,25 @@
       </c>
       <c r="H53" s="98">
         <f>_xll.qlRateHelperEarliestDate($A53,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I53" s="99">
         <f>_xll.qlRateHelperLatestDate($A53,Trigger)</f>
-        <v>46013</v>
+        <v>46379</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="180" t="str">
+      <c r="A54" s="186" t="str">
         <f>Swaps!K19</f>
-        <v>obj_002c1#0006</v>
+        <v>obj_00169#0011</v>
       </c>
       <c r="B54" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A54),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S12Y_Quote</v>
+        <v>SEKAB3S15Y_Quote</v>
       </c>
       <c r="C54" s="97">
         <f>_xll.qlRateHelperQuoteValue($A54,Trigger)</f>
-        <v>1.47E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="D54" s="97">
         <f>_xll.qlSwapRateHelperSpread($A54,Trigger)</f>
@@ -6179,32 +6100,32 @@
       </c>
       <c r="H54" s="98">
         <f>_xll.qlRateHelperEarliestDate($A54,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I54" s="99">
         <f>_xll.qlRateHelperLatestDate($A54,Trigger)</f>
-        <v>46378</v>
+        <v>47479</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="180" t="str">
+      <c r="A55" s="186" t="str">
         <f>Swaps!K20</f>
-        <v>obj_002d7#0006</v>
+        <v>obj_0016a#0011</v>
       </c>
       <c r="B55" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A55),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S13Y_Quote</v>
-      </c>
-      <c r="C55" s="97" t="e">
+        <v>SEKAB3S20Y_Quote</v>
+      </c>
+      <c r="C55" s="97">
         <f>_xll.qlRateHelperQuoteValue($A55,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="D55" s="97">
         <f>_xll.qlSwapRateHelperSpread($A55,Trigger)</f>
         <v>0</v>
       </c>
       <c r="E55" s="54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="54">
         <v>50</v>
@@ -6214,32 +6135,32 @@
       </c>
       <c r="H55" s="98">
         <f>_xll.qlRateHelperEarliestDate($A55,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I55" s="99">
         <f>_xll.qlRateHelperLatestDate($A55,Trigger)</f>
-        <v>46743</v>
+        <v>49305</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="180" t="str">
+      <c r="A56" s="186" t="str">
         <f>Swaps!K21</f>
-        <v>obj_002cc#0006</v>
+        <v>obj_00159#0011</v>
       </c>
       <c r="B56" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A56),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S14Y_Quote</v>
-      </c>
-      <c r="C56" s="97" t="e">
+        <v>SEKAB3S25Y_Quote</v>
+      </c>
+      <c r="C56" s="97">
         <f>_xll.qlRateHelperQuoteValue($A56,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.9349999999999999E-2</v>
       </c>
       <c r="D56" s="97">
         <f>_xll.qlSwapRateHelperSpread($A56,Trigger)</f>
         <v>0</v>
       </c>
       <c r="E56" s="54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="54">
         <v>50</v>
@@ -6249,32 +6170,32 @@
       </c>
       <c r="H56" s="98">
         <f>_xll.qlRateHelperEarliestDate($A56,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I56" s="99">
         <f>_xll.qlRateHelperLatestDate($A56,Trigger)</f>
-        <v>47109</v>
+        <v>51127</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="180" t="str">
+      <c r="A57" s="186" t="str">
         <f>Swaps!K22</f>
-        <v>obj_002bc#0006</v>
+        <v>obj_00165#0011</v>
       </c>
       <c r="B57" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A57),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S15Y_Quote</v>
-      </c>
-      <c r="C57" s="97">
+        <v>SEKAB3S27Y_Quote</v>
+      </c>
+      <c r="C57" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($A57,Trigger)</f>
-        <v>1.66E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="D57" s="97">
         <f>_xll.qlSwapRateHelperSpread($A57,Trigger)</f>
         <v>0</v>
       </c>
       <c r="E57" s="54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="54">
         <v>50</v>
@@ -6284,32 +6205,32 @@
       </c>
       <c r="H57" s="98">
         <f>_xll.qlRateHelperEarliestDate($A57,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I57" s="99">
         <f>_xll.qlRateHelperLatestDate($A57,Trigger)</f>
-        <v>47479</v>
+        <v>51858</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="180" t="str">
+      <c r="A58" s="186" t="str">
         <f>Swaps!K23</f>
-        <v>obj_002d4#0006</v>
+        <v>obj_0015e#0011</v>
       </c>
       <c r="B58" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A58),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S16Y_Quote</v>
-      </c>
-      <c r="C58" s="97" t="e">
+        <v>SEKAB3S30Y_Quote</v>
+      </c>
+      <c r="C58" s="97">
         <f>_xll.qlRateHelperQuoteValue($A58,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.9550000000000001E-2</v>
       </c>
       <c r="D58" s="97">
         <f>_xll.qlSwapRateHelperSpread($A58,Trigger)</f>
         <v>0</v>
       </c>
       <c r="E58" s="54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="54">
         <v>50</v>
@@ -6319,21 +6240,21 @@
       </c>
       <c r="H58" s="98">
         <f>_xll.qlRateHelperEarliestDate($A58,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I58" s="99">
         <f>_xll.qlRateHelperLatestDate($A58,Trigger)</f>
-        <v>47840</v>
+        <v>52954</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="180" t="str">
+      <c r="A59" s="186" t="str">
         <f>Swaps!K24</f>
-        <v>obj_002c8#0006</v>
+        <v>obj_0015d#0011</v>
       </c>
       <c r="B59" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A59),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S17Y_Quote</v>
+        <v>SEKAB3S35Y_Quote</v>
       </c>
       <c r="C59" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($A59,Trigger)</f>
@@ -6354,21 +6275,21 @@
       </c>
       <c r="H59" s="98">
         <f>_xll.qlRateHelperEarliestDate($A59,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I59" s="99">
         <f>_xll.qlRateHelperLatestDate($A59,Trigger)</f>
-        <v>48204</v>
+        <v>54780</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="180" t="str">
+      <c r="A60" s="186" t="str">
         <f>Swaps!K25</f>
-        <v>obj_002b7#0006</v>
+        <v>obj_00167#0011</v>
       </c>
       <c r="B60" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A60),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S18Y_Quote</v>
+        <v>SEKAB3S40Y_Quote</v>
       </c>
       <c r="C60" s="97" t="e">
         <f>_xll.qlRateHelperQuoteValue($A60,Trigger)</f>
@@ -6389,573 +6310,57 @@
       </c>
       <c r="H60" s="98">
         <f>_xll.qlRateHelperEarliestDate($A60,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I60" s="99">
         <f>_xll.qlRateHelperLatestDate($A60,Trigger)</f>
-        <v>48570</v>
+        <v>56606</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="180" t="str">
+      <c r="A61" s="187" t="str">
         <f>Swaps!K26</f>
-        <v>obj_002cf#0006</v>
-      </c>
-      <c r="B61" s="96" t="str">
+        <v>obj_0016d#0011</v>
+      </c>
+      <c r="B61" s="100" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A61),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S19Y_Quote</v>
-      </c>
-      <c r="C61" s="97" t="e">
+        <v>SEKAB3S50Y_Quote</v>
+      </c>
+      <c r="C61" s="101" t="e">
         <f>_xll.qlRateHelperQuoteValue($A61,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D61" s="97">
+      <c r="D61" s="101">
         <f>_xll.qlSwapRateHelperSpread($A61,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="54">
+      <c r="E61" s="102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="102">
         <v>50</v>
       </c>
-      <c r="G61" s="54">
+      <c r="G61" s="102">
         <v>1</v>
       </c>
-      <c r="H61" s="98">
+      <c r="H61" s="103">
         <f>_xll.qlRateHelperEarliestDate($A61,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I61" s="99">
+        <v>41996</v>
+      </c>
+      <c r="I61" s="104">
         <f>_xll.qlRateHelperLatestDate($A61,Trigger)</f>
-        <v>48935</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="180" t="str">
-        <f>Swaps!K27</f>
-        <v>obj_002c0#0006</v>
-      </c>
-      <c r="B62" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A62),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S20Y_Quote</v>
-      </c>
-      <c r="C62" s="97">
-        <f>_xll.qlRateHelperQuoteValue($A62,Trigger)</f>
-        <v>1.8500000000000003E-2</v>
-      </c>
-      <c r="D62" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A62,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="54">
-        <v>50</v>
-      </c>
-      <c r="G62" s="54">
-        <v>1</v>
-      </c>
-      <c r="H62" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A62,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I62" s="99">
-        <f>_xll.qlRateHelperLatestDate($A62,Trigger)</f>
-        <v>49300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="180" t="str">
-        <f>Swaps!K28</f>
-        <v>obj_002d8#0006</v>
-      </c>
-      <c r="B63" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A63),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S21Y_Quote</v>
-      </c>
-      <c r="C63" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A63,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D63" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A63,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="54">
-        <v>50</v>
-      </c>
-      <c r="G63" s="54">
-        <v>1</v>
-      </c>
-      <c r="H63" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A63,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I63" s="99">
-        <f>_xll.qlRateHelperLatestDate($A63,Trigger)</f>
-        <v>49670</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="180" t="str">
-        <f>Swaps!K29</f>
-        <v>obj_002cb#0006</v>
-      </c>
-      <c r="B64" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A64),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S22Y_Quote</v>
-      </c>
-      <c r="C64" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A64,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D64" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A64,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="54">
-        <v>50</v>
-      </c>
-      <c r="G64" s="54">
-        <v>1</v>
-      </c>
-      <c r="H64" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A64,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I64" s="99">
-        <f>_xll.qlRateHelperLatestDate($A64,Trigger)</f>
-        <v>50031</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="180" t="str">
-        <f>Swaps!K30</f>
-        <v>obj_002bb#0006</v>
-      </c>
-      <c r="B65" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A65),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S23Y_Quote</v>
-      </c>
-      <c r="C65" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A65,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D65" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A65,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="54">
-        <v>50</v>
-      </c>
-      <c r="G65" s="54">
-        <v>1</v>
-      </c>
-      <c r="H65" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A65,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I65" s="99">
-        <f>_xll.qlRateHelperLatestDate($A65,Trigger)</f>
-        <v>50396</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="180" t="str">
-        <f>Swaps!K31</f>
-        <v>obj_002d3#0006</v>
-      </c>
-      <c r="B66" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A66),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S24Y_Quote</v>
-      </c>
-      <c r="C66" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A66,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D66" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A66,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="54">
-        <v>50</v>
-      </c>
-      <c r="G66" s="54">
-        <v>1</v>
-      </c>
-      <c r="H66" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A66,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I66" s="99">
-        <f>_xll.qlRateHelperLatestDate($A66,Trigger)</f>
-        <v>50761</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="180" t="str">
-        <f>Swaps!K32</f>
-        <v>obj_002c3#0006</v>
-      </c>
-      <c r="B67" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A67),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S25Y_Quote</v>
-      </c>
-      <c r="C67" s="97">
-        <f>_xll.qlRateHelperQuoteValue($A67,Trigger)</f>
-        <v>1.915E-2</v>
-      </c>
-      <c r="D67" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A67,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="54">
-        <v>50</v>
-      </c>
-      <c r="G67" s="54">
-        <v>1</v>
-      </c>
-      <c r="H67" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A67,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I67" s="99">
-        <f>_xll.qlRateHelperLatestDate($A67,Trigger)</f>
-        <v>51126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="180" t="str">
-        <f>Swaps!K33</f>
-        <v>obj_002b6#0006</v>
-      </c>
-      <c r="B68" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A68),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S26Y_Quote</v>
-      </c>
-      <c r="C68" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A68,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D68" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A68,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="54">
-        <v>50</v>
-      </c>
-      <c r="G68" s="54">
-        <v>1</v>
-      </c>
-      <c r="H68" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A68,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I68" s="99">
-        <f>_xll.qlRateHelperLatestDate($A68,Trigger)</f>
-        <v>51497</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="180" t="str">
-        <f>Swaps!K34</f>
-        <v>obj_002ce#0006</v>
-      </c>
-      <c r="B69" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A69),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S27Y_Quote</v>
-      </c>
-      <c r="C69" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A69,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D69" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A69,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="54">
-        <v>50</v>
-      </c>
-      <c r="G69" s="54">
-        <v>1</v>
-      </c>
-      <c r="H69" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A69,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I69" s="99">
-        <f>_xll.qlRateHelperLatestDate($A69,Trigger)</f>
-        <v>51858</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="180" t="str">
-        <f>Swaps!K35</f>
-        <v>obj_002bf#0006</v>
-      </c>
-      <c r="B70" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A70),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S28Y_Quote</v>
-      </c>
-      <c r="C70" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A70,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D70" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A70,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="54">
-        <v>50</v>
-      </c>
-      <c r="G70" s="54">
-        <v>1</v>
-      </c>
-      <c r="H70" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A70,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I70" s="99">
-        <f>_xll.qlRateHelperLatestDate($A70,Trigger)</f>
-        <v>52222</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="180" t="str">
-        <f>Swaps!K36</f>
-        <v>obj_002d9#0006</v>
-      </c>
-      <c r="B71" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A71),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S29Y_Quote</v>
-      </c>
-      <c r="C71" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A71,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D71" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A71,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="54">
-        <v>50</v>
-      </c>
-      <c r="G71" s="54">
-        <v>1</v>
-      </c>
-      <c r="H71" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A71,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I71" s="99">
-        <f>_xll.qlRateHelperLatestDate($A71,Trigger)</f>
-        <v>52587</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="180" t="str">
-        <f>Swaps!K37</f>
-        <v>obj_002c4#0006</v>
-      </c>
-      <c r="B72" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A72),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S30Y_Quote</v>
-      </c>
-      <c r="C72" s="97">
-        <f>_xll.qlRateHelperQuoteValue($A72,Trigger)</f>
-        <v>1.9349999999999999E-2</v>
-      </c>
-      <c r="D72" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A72,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" s="54">
-        <v>50</v>
-      </c>
-      <c r="G72" s="54">
-        <v>1</v>
-      </c>
-      <c r="H72" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A72,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I72" s="99">
-        <f>_xll.qlRateHelperLatestDate($A72,Trigger)</f>
-        <v>52953</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="180" t="str">
-        <f>Swaps!K38</f>
-        <v>obj_002ba#0006</v>
-      </c>
-      <c r="B73" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A73),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S35Y_Quote</v>
-      </c>
-      <c r="C73" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A73,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D73" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A73,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="54">
-        <v>50</v>
-      </c>
-      <c r="G73" s="54">
-        <v>1</v>
-      </c>
-      <c r="H73" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A73,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I73" s="99">
-        <f>_xll.qlRateHelperLatestDate($A73,Trigger)</f>
-        <v>54779</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="180" t="str">
-        <f>Swaps!K39</f>
-        <v>obj_002d2#0006</v>
-      </c>
-      <c r="B74" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A74),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S40Y_Quote</v>
-      </c>
-      <c r="C74" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A74,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D74" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A74,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="54">
-        <v>50</v>
-      </c>
-      <c r="G74" s="54">
-        <v>1</v>
-      </c>
-      <c r="H74" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A74,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I74" s="99">
-        <f>_xll.qlRateHelperLatestDate($A74,Trigger)</f>
-        <v>56605</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="180" t="str">
-        <f>Swaps!K40</f>
-        <v>obj_002c7#0006</v>
-      </c>
-      <c r="B75" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A75),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S50Y_Quote</v>
-      </c>
-      <c r="C75" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A75,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D75" s="97">
-        <f>_xll.qlSwapRateHelperSpread($A75,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="54">
-        <v>50</v>
-      </c>
-      <c r="G75" s="54">
-        <v>1</v>
-      </c>
-      <c r="H75" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A75,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I75" s="99">
-        <f>_xll.qlRateHelperLatestDate($A75,Trigger)</f>
-        <v>60258</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="181" t="str">
-        <f>Swaps!K41</f>
-        <v>obj_002b5#0006</v>
-      </c>
-      <c r="B76" s="100" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A76),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S60Y_Quote</v>
-      </c>
-      <c r="C76" s="101" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D76" s="101">
-        <f>_xll.qlSwapRateHelperSpread($A76,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="102" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="102">
-        <v>50</v>
-      </c>
-      <c r="G76" s="102">
-        <v>1</v>
-      </c>
-      <c r="H76" s="103">
-        <f>_xll.qlRateHelperEarliestDate($A76,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="I76" s="104">
-        <f>_xll.qlRateHelperLatestDate($A76,Trigger)</f>
-        <v>63915</v>
-      </c>
-    </row>
+        <v>60259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6975,7 +6380,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="52" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="73" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -6989,41 +6394,41 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B1" s="135"/>
       <c r="D1" s="128" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G1" s="62"/>
       <c r="H1" s="62" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I1" s="63" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J1" s="111">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>7.6041587455006655E-4</v>
+        <v>7.2999562004162578E-4</v>
       </c>
       <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B2" s="66">
         <v>6</v>
       </c>
       <c r="D2" s="67" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00153</v>
+        <v>obj_0017f</v>
       </c>
       <c r="E2" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
@@ -7031,7 +6436,7 @@
       </c>
       <c r="F2" s="68">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="G2" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -7039,34 +6444,34 @@
       </c>
       <c r="H2" s="74">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I2" s="75">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41996</v>
+        <v>42002</v>
       </c>
       <c r="J2" s="111">
-        <v>7.6041587455006655E-4</v>
+        <v>7.2999562004162578E-4</v>
       </c>
       <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B3" s="70">
         <v>0</v>
       </c>
       <c r="D3" s="67" t="str">
-        <v>obj_00170</v>
+        <v>obj_00189</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
-        <v>SEK1MD_Quote</v>
+        <v>SEKSWD_Quote</v>
       </c>
       <c r="F3" s="68">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.6699999999999998E-3</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="G3" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -7074,34 +6479,34 @@
       </c>
       <c r="H3" s="74">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I3" s="75">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42026</v>
+        <v>42003</v>
       </c>
       <c r="J3" s="111">
-        <v>1.6930727107316711E-3</v>
+        <v>1.0341564114240743E-3</v>
       </c>
       <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="69" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B4" s="70">
         <v>2</v>
       </c>
       <c r="D4" s="67" t="str">
-        <v>obj_0016d</v>
+        <v>obj_0019e</v>
       </c>
       <c r="E4" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
-        <v>SEK2MD_Quote</v>
+        <v>SEK1MD_Quote</v>
       </c>
       <c r="F4" s="68">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.0699999999999998E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="G4" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -7109,34 +6514,34 @@
       </c>
       <c r="H4" s="74">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I4" s="75">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42058</v>
+        <v>42027</v>
       </c>
       <c r="J4" s="111">
-        <v>2.0983699556833746E-3</v>
+        <v>1.7133475554156113E-3</v>
       </c>
       <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="136" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D5" s="67" t="str">
-        <v>obj_0016b</v>
+        <v>obj_00198</v>
       </c>
       <c r="E5" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
-        <v>SEK3MD_Quote</v>
+        <v>SEK2MD_Quote</v>
       </c>
       <c r="F5" s="68">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.5800000000000003E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="G5" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -7144,28 +6549,28 @@
       </c>
       <c r="H5" s="74">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I5" s="75">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42086</v>
+        <v>42058</v>
       </c>
       <c r="J5" s="111">
-        <v>2.6149807243556608E-3</v>
+        <v>2.1287817351695153E-3</v>
       </c>
       <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" s="67" t="str">
-        <v>obj_002f2</v>
+        <v>obj_00195</v>
       </c>
       <c r="E6" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F1_Quote</v>
+        <v>SEK3MD_Quote</v>
       </c>
       <c r="F6" s="68">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.3499999999999632E-3</v>
+        <v>2.5900000000000003E-3</v>
       </c>
       <c r="G6" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -7173,28 +6578,28 @@
       </c>
       <c r="H6" s="74">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42081</v>
+        <v>41996</v>
       </c>
       <c r="I6" s="75">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42173</v>
+        <v>42086</v>
       </c>
       <c r="J6" s="111">
-        <v>2.4499531422297505E-3</v>
+        <v>2.6251224305220218E-3</v>
       </c>
       <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="67" t="str">
-        <v>obj_002f3</v>
+        <v>obj_00171</v>
       </c>
       <c r="E7" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F2_Quote</v>
+        <v>FUTSEK3F1_Quote</v>
       </c>
       <c r="F7" s="68">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.2499999999999742E-3</v>
+        <v>2.3499999999999632E-3</v>
       </c>
       <c r="G7" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -7202,28 +6607,28 @@
       </c>
       <c r="H7" s="74">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42172</v>
+        <v>42081</v>
       </c>
       <c r="I7" s="75">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42264</v>
+        <v>42173</v>
       </c>
       <c r="J7" s="111">
-        <v>2.3932793159861629E-3</v>
+        <v>2.4561505440395918E-3</v>
       </c>
       <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="67" t="str">
-        <v>obj_002f5</v>
+        <v>obj_00176</v>
       </c>
       <c r="E8" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F3_Quote</v>
+        <v>FUTSEK3F2_Quote</v>
       </c>
       <c r="F8" s="68">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.2499999999999742E-3</v>
+        <v>2.2999999999998577E-3</v>
       </c>
       <c r="G8" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -7231,28 +6636,28 @@
       </c>
       <c r="H8" s="74">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42263</v>
+        <v>42172</v>
       </c>
       <c r="I8" s="75">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42354</v>
+        <v>42264</v>
       </c>
       <c r="J8" s="111">
-        <v>2.3651824571532254E-3</v>
+        <v>2.4145529362693892E-3</v>
       </c>
       <c r="K8" s="64"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="67" t="str">
-        <v>obj_002f7</v>
+        <v>obj_00178</v>
       </c>
       <c r="E9" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F4_Quote</v>
+        <v>FUTSEK3F3_Quote</v>
       </c>
       <c r="F9" s="68">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.4499999999999522E-3</v>
+        <v>2.2999999999998577E-3</v>
       </c>
       <c r="G9" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -7260,28 +6665,28 @@
       </c>
       <c r="H9" s="74">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42354</v>
+        <v>42263</v>
       </c>
       <c r="I9" s="75">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="J9" s="111">
-        <v>2.3890601396507234E-3</v>
+        <v>2.3937233661214122E-3</v>
       </c>
       <c r="K9" s="64"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="67" t="str">
-        <v>obj_002f9</v>
+        <v>obj_00172</v>
       </c>
       <c r="E10" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F5_Quote</v>
+        <v>FUTSEK3F4_Quote</v>
       </c>
       <c r="F10" s="68">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.7500000000000302E-3</v>
+        <v>2.4499999999999522E-3</v>
       </c>
       <c r="G10" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -7289,28 +6694,28 @@
       </c>
       <c r="H10" s="74">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="I10" s="75">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42537</v>
+        <v>42445</v>
       </c>
       <c r="J10" s="111">
-        <v>2.4566436490854305E-3</v>
+        <v>2.4118697679251701E-3</v>
       </c>
       <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="67" t="str">
-        <v>obj_002fb</v>
+        <v>obj_00175</v>
       </c>
       <c r="E11" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F6_Quote</v>
+        <v>FUTSEK3F5_Quote</v>
       </c>
       <c r="F11" s="68">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>3.1499999999999861E-3</v>
+        <v>2.8000000000000247E-3</v>
       </c>
       <c r="G11" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -7318,28 +6723,28 @@
       </c>
       <c r="H11" s="74">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42536</v>
+        <v>42445</v>
       </c>
       <c r="I11" s="75">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42628</v>
+        <v>42537</v>
       </c>
       <c r="J11" s="111">
-        <v>2.5629598619195636E-3</v>
+        <v>2.4843140564018789E-3</v>
       </c>
       <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="67" t="str">
-        <v>obj_002b9</v>
+        <v>obj_00173</v>
       </c>
       <c r="E12" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S2Y_Quote</v>
+        <v>FUTSEK3F6_Quote</v>
       </c>
       <c r="F12" s="68">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.8500000000000001E-3</v>
+        <v>3.2499999999999751E-3</v>
       </c>
       <c r="G12" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -7347,28 +6752,28 @@
       </c>
       <c r="H12" s="74">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41995</v>
+        <v>42536</v>
       </c>
       <c r="I12" s="75">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42726</v>
+        <v>42628</v>
       </c>
       <c r="J12" s="111">
-        <v>2.8427353013075656E-3</v>
+        <v>2.6014736215160916E-3</v>
       </c>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="67" t="str">
-        <v>obj_002d1</v>
+        <v>obj_00158</v>
       </c>
       <c r="E13" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S3Y_Quote</v>
+        <v>SEKAB3S2Y_Quote</v>
       </c>
       <c r="F13" s="68">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.7750000000000001E-3</v>
+        <v>2.8500000000000001E-3</v>
       </c>
       <c r="G13" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -7376,28 +6781,28 @@
       </c>
       <c r="H13" s="74">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I13" s="75">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>43091</v>
+        <v>42727</v>
       </c>
       <c r="J13" s="111">
-        <v>3.7685426439444379E-3</v>
+        <v>2.8426949213032683E-3</v>
       </c>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="67" t="str">
-        <v>obj_002c2</v>
+        <v>obj_0015c</v>
       </c>
       <c r="E14" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S4Y_Quote</v>
+        <v>SEKAB3S3Y_Quote</v>
       </c>
       <c r="F14" s="68">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>5.0750000000000005E-3</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="G14" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -7405,28 +6810,28 @@
       </c>
       <c r="H14" s="74">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I14" s="75">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43461</v>
+        <v>43096</v>
       </c>
       <c r="J14" s="111">
-        <v>5.0728929358854142E-3</v>
+        <v>3.8937008432696758E-3</v>
       </c>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="67" t="str">
-        <v>obj_002d6</v>
+        <v>obj_00166</v>
       </c>
       <c r="E15" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S5Y_Quote</v>
+        <v>SEKAB3S4Y_Quote</v>
       </c>
       <c r="F15" s="68">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>6.5999999999999991E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="G15" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -7434,28 +6839,28 @@
       </c>
       <c r="H15" s="74">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I15" s="75">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43822</v>
+        <v>43461</v>
       </c>
       <c r="J15" s="111">
-        <v>6.6097473773654904E-3</v>
+        <v>5.2482577913195265E-3</v>
       </c>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="67" t="str">
-        <v>obj_002cd</v>
+        <v>obj_0016b</v>
       </c>
       <c r="E16" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S6Y_Quote</v>
+        <v>SEKAB3S5Y_Quote</v>
       </c>
       <c r="F16" s="68">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>8.0999999999999996E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="G16" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -7463,28 +6868,28 @@
       </c>
       <c r="H16" s="74">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I16" s="75">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>44187</v>
+        <v>43822</v>
       </c>
       <c r="J16" s="111">
-        <v>8.1266548624235723E-3</v>
+        <v>6.8106341105637529E-3</v>
       </c>
       <c r="K16" s="64"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" s="67" t="str">
-        <v>obj_002bd</v>
+        <v>obj_00162</v>
       </c>
       <c r="E17" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S7Y_Quote</v>
+        <v>SEKAB3S6Y_Quote</v>
       </c>
       <c r="F17" s="68">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>9.4999999999999998E-3</v>
+        <v>8.3499999999999998E-3</v>
       </c>
       <c r="G17" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -7492,28 +6897,28 @@
       </c>
       <c r="H17" s="74">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I17" s="75">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44552</v>
+        <v>44188</v>
       </c>
       <c r="J17" s="111">
-        <v>9.5556297872939674E-3</v>
+        <v>8.3788029742511306E-3</v>
       </c>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18" s="67" t="str">
-        <v>obj_002c6</v>
+        <v>obj_00161</v>
       </c>
       <c r="E18" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S8Y_Quote</v>
+        <v>SEKAB3S7Y_Quote</v>
       </c>
       <c r="F18" s="68">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.0825E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="G18" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -7521,28 +6926,28 @@
       </c>
       <c r="H18" s="74">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I18" s="75">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44917</v>
+        <v>44553</v>
       </c>
       <c r="J18" s="111">
-        <v>1.0918987745353192E-2</v>
+        <v>9.8598499286413899E-3</v>
       </c>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" s="67" t="str">
-        <v>obj_002c9</v>
+        <v>obj_0016c</v>
       </c>
       <c r="E19" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S9Y_Quote</v>
+        <v>SEKAB3S8Y_Quote</v>
       </c>
       <c r="F19" s="68">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.2000000000000002E-2</v>
+        <v>1.1099999999999999E-2</v>
       </c>
       <c r="G19" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -7550,28 +6955,28 @@
       </c>
       <c r="H19" s="74">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I19" s="75">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>45282</v>
+        <v>44918</v>
       </c>
       <c r="J19" s="111">
-        <v>1.2137602774794537E-2</v>
+        <v>1.119779426389925E-2</v>
       </c>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="67" t="str">
-        <v>obj_002b8</v>
+        <v>obj_0015f</v>
       </c>
       <c r="E20" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S10Y_Quote</v>
+        <v>SEKAB3S9Y_Quote</v>
       </c>
       <c r="F20" s="68">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.2999999999999998E-2</v>
+        <v>1.2200000000000003E-2</v>
       </c>
       <c r="G20" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -7579,28 +6984,28 @@
       </c>
       <c r="H20" s="74">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I20" s="75">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45649</v>
+        <v>45287</v>
       </c>
       <c r="J20" s="111">
-        <v>1.3178420961202846E-2</v>
+        <v>1.2337601500711393E-2</v>
       </c>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="67" t="str">
-        <v>obj_002c1</v>
+        <v>obj_00163</v>
       </c>
       <c r="E21" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S12Y_Quote</v>
+        <v>SEKAB3S10Y_Quote</v>
       </c>
       <c r="F21" s="68">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.47E-2</v>
+        <v>1.3199999999999998E-2</v>
       </c>
       <c r="G21" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -7608,28 +7013,28 @@
       </c>
       <c r="H21" s="74">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I21" s="75">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>46378</v>
+        <v>45649</v>
       </c>
       <c r="J21" s="111">
-        <v>1.4976241896150946E-2</v>
+        <v>1.3379157076345793E-2</v>
       </c>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="67" t="str">
-        <v>obj_002bc</v>
+        <v>obj_00168</v>
       </c>
       <c r="E22" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S15Y_Quote</v>
+        <v>SEKAB3S12Y_Quote</v>
       </c>
       <c r="F22" s="68">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.66E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="G22" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -7637,28 +7042,28 @@
       </c>
       <c r="H22" s="74">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I22" s="75">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>47479</v>
+        <v>46379</v>
       </c>
       <c r="J22" s="111">
-        <v>1.7020558957472412E-2</v>
+        <v>1.5177824877847428E-2</v>
       </c>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="67" t="str">
-        <v>obj_002c0</v>
+        <v>obj_00169</v>
       </c>
       <c r="E23" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S20Y_Quote</v>
+        <v>SEKAB3S15Y_Quote</v>
       </c>
       <c r="F23" s="68">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.8500000000000003E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="G23" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7666,28 +7071,28 @@
       </c>
       <c r="H23" s="74">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I23" s="75">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>49300</v>
+        <v>47479</v>
       </c>
       <c r="J23" s="111">
-        <v>1.9110519461245978E-2</v>
+        <v>1.7223528646633676E-2</v>
       </c>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="67" t="str">
-        <v>obj_002c3</v>
+        <v>obj_0016a</v>
       </c>
       <c r="E24" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S25Y_Quote</v>
+        <v>SEKAB3S20Y_Quote</v>
       </c>
       <c r="F24" s="68">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.915E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="G24" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7695,24 +7100,24 @@
       </c>
       <c r="H24" s="74">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I24" s="75">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>51126</v>
+        <v>49305</v>
       </c>
       <c r="J24" s="111">
-        <v>1.976725474827851E-2</v>
+        <v>1.9314859253361408E-2</v>
       </c>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25" s="67" t="str">
-        <v>obj_002c4</v>
+        <v>obj_00159</v>
       </c>
       <c r="E25" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S30Y_Quote</v>
+        <v>SEKAB3S25Y_Quote</v>
       </c>
       <c r="F25" s="68">
         <f>_xll.qlRateHelperRate($D25)</f>
@@ -7724,43 +7129,43 @@
       </c>
       <c r="H25" s="74">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I25" s="75">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>52953</v>
+        <v>51127</v>
       </c>
       <c r="J25" s="111">
-        <v>1.9895634594246724E-2</v>
+        <v>1.9972080251221082E-2</v>
       </c>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D26" s="67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="67" t="e">
+      <c r="D26" s="67" t="str">
+        <v>obj_0015e</v>
+      </c>
+      <c r="E26" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D26),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="68" t="e">
+        <v>SEKAB3S30Y_Quote</v>
+      </c>
+      <c r="F26" s="68">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>#VALUE!</v>
+        <v>1.9550000000000001E-2</v>
       </c>
       <c r="G26" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
         <v>0</v>
       </c>
-      <c r="H26" s="74" t="e">
+      <c r="H26" s="74">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="75" t="e">
+        <v>41996</v>
+      </c>
+      <c r="I26" s="75">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" s="111" t="e">
-        <v>#N/A</v>
+        <v>52954</v>
+      </c>
+      <c r="J26" s="111">
+        <v>2.0099702144105676E-2</v>
       </c>
       <c r="K26" s="64"/>
     </row>
@@ -10612,7 +10017,7 @@
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
       <c r="H1" s="54" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I1" s="53" t="str">
         <f>Currency&amp;"_YC"&amp;$H$1&amp;"RH"</f>
@@ -10628,28 +10033,28 @@
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="51" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J2" s="49" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(J3:J15,SerializationPath&amp;J1,FileOverwrite,Serialize),"---")</f>
@@ -10664,50 +10069,69 @@
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="184"/>
+        <v>80</v>
+      </c>
+      <c r="C3" s="163">
+        <v>2</v>
+      </c>
+      <c r="D3" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="163" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="179" t="str">
+        <f>_xll.qlIborIndex(,,"1D",C3,Currency,D3,E3,F3,G3,,,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b0#0002</v>
+      </c>
+      <c r="I3" s="180" t="str">
+        <f t="shared" ref="I3:I20" si="0">Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
+        <v>SEKOND_Quote</v>
+      </c>
+      <c r="J3" s="181" t="str">
+        <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b1#0002</v>
+      </c>
       <c r="K3" s="169"/>
       <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="170" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C4" s="170">
         <v>2</v>
       </c>
       <c r="D4" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F4" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H4" s="182" t="str">
         <f>_xll.qlIborIndex(,,"1D",C4,Currency,D4,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00152#0006</v>
-      </c>
-      <c r="I4" s="185" t="str">
-        <f t="shared" ref="I3:I20" si="0">Currency&amp;$B4&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_0017e#0004</v>
+      </c>
+      <c r="I4" s="182" t="str">
+        <f t="shared" si="0"/>
         <v>SEKTND_Quote</v>
       </c>
-      <c r="J4" s="186" t="str">
+      <c r="J4" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00153#0006</v>
+        <v>obj_0017f#0004</v>
       </c>
       <c r="K4" s="174"/>
       <c r="L4" s="45"/>
@@ -10715,34 +10139,34 @@
     <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="170" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C5" s="170">
         <v>2</v>
       </c>
       <c r="D5" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F5" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H5" s="182" t="str">
         <f>_xll.qlIborIndex(,,"2D",C5,Currency,D5,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00151#0005</v>
-      </c>
-      <c r="I5" s="185" t="str">
+        <v>obj_0017d#0004</v>
+      </c>
+      <c r="I5" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEKSND_Quote</v>
       </c>
-      <c r="J5" s="186" t="str">
+      <c r="J5" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00154#0005</v>
+        <v>obj_00180#0004</v>
       </c>
       <c r="K5" s="174"/>
       <c r="L5" s="45"/>
@@ -10750,34 +10174,34 @@
     <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="170" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C6" s="170">
         <v>2</v>
       </c>
       <c r="D6" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F6" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H6" s="182" t="str">
         <f>_xll.qlIborIndex(,,"1W",C6,Currency,D6,E6,F6,G6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015a#0005</v>
-      </c>
-      <c r="I6" s="185" t="str">
+        <v>obj_00188#0004</v>
+      </c>
+      <c r="I6" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEKSWD_Quote</v>
       </c>
-      <c r="J6" s="186" t="str">
+      <c r="J6" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015f#0005</v>
+        <v>obj_00189#0004</v>
       </c>
       <c r="K6" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10788,34 +10212,34 @@
     <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="170" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C7" s="170">
         <v>2</v>
       </c>
       <c r="D7" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F7" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H7" s="182" t="str">
         <f>_xll.qlIborIndex(,,B7,C7,Currency,D7,E7,F7,G7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00161#0005</v>
-      </c>
-      <c r="I7" s="185" t="str">
+        <v>obj_00187#0004</v>
+      </c>
+      <c r="I7" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK2WD_Quote</v>
       </c>
-      <c r="J7" s="186" t="str">
+      <c r="J7" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016c#0005</v>
+        <v>obj_00197#0004</v>
       </c>
       <c r="K7" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10826,34 +10250,34 @@
     <row r="8" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="170" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C8" s="170">
         <v>2</v>
       </c>
       <c r="D8" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F8" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H8" s="182" t="str">
         <f>_xll.qlIborIndex(,,B8,C8,Currency,D8,E8,F8,G8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00158#0005</v>
-      </c>
-      <c r="I8" s="185" t="str">
+        <v>obj_00184#0004</v>
+      </c>
+      <c r="I8" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK3WD_Quote</v>
       </c>
-      <c r="J8" s="186" t="str">
+      <c r="J8" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00171#0005</v>
+        <v>obj_00192#0004</v>
       </c>
       <c r="K8" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10864,34 +10288,34 @@
     <row r="9" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="170" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C9" s="170">
         <v>2</v>
       </c>
       <c r="D9" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F9" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H9" s="182" t="str">
         <f>_xll.qlIborIndex(,,B9,C9,Currency,D9,E9,F9,G9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015b#0006</v>
-      </c>
-      <c r="I9" s="185" t="str">
+        <v>obj_0018b#0004</v>
+      </c>
+      <c r="I9" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK1MD_Quote</v>
       </c>
-      <c r="J9" s="186" t="str">
+      <c r="J9" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00170#0006</v>
+        <v>obj_0019e#0004</v>
       </c>
       <c r="K9" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10902,34 +10326,34 @@
     <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="170" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C10" s="170">
         <v>2</v>
       </c>
       <c r="D10" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E10" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F10" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H10" s="182" t="str">
         <f>_xll.qlIborIndex(,,B10,C10,Currency,D10,E10,F10,G10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00165#0005</v>
-      </c>
-      <c r="I10" s="185" t="str">
+        <v>obj_0018e#0004</v>
+      </c>
+      <c r="I10" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK2MD_Quote</v>
       </c>
-      <c r="J10" s="186" t="str">
+      <c r="J10" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016d#0005</v>
+        <v>obj_00198#0004</v>
       </c>
       <c r="K10" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10940,34 +10364,34 @@
     <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="170" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C11" s="170">
         <v>2</v>
       </c>
       <c r="D11" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E11" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F11" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H11" s="182" t="str">
         <f>_xll.qlIborIndex(,,B11,C11,Currency,D11,E11,F11,G11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00155#0005</v>
-      </c>
-      <c r="I11" s="185" t="str">
+        <v>obj_0018f#0004</v>
+      </c>
+      <c r="I11" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK3MD_Quote</v>
       </c>
-      <c r="J11" s="186" t="str">
+      <c r="J11" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016b#0005</v>
+        <v>obj_00195#0004</v>
       </c>
       <c r="K11" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10978,34 +10402,34 @@
     <row r="12" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="170" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C12" s="170">
         <v>2</v>
       </c>
       <c r="D12" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F12" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H12" s="182" t="str">
         <f>_xll.qlIborIndex(,,B12,C12,Currency,D12,E12,F12,G12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015c#0005</v>
-      </c>
-      <c r="I12" s="185" t="str">
+        <v>obj_0018d#0004</v>
+      </c>
+      <c r="I12" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK4MD_Quote</v>
       </c>
-      <c r="J12" s="186" t="str">
+      <c r="J12" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00173#0005</v>
+        <v>obj_00199#0004</v>
       </c>
       <c r="K12" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -11016,34 +10440,34 @@
     <row r="13" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="170" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C13" s="170">
         <v>2</v>
       </c>
       <c r="D13" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E13" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F13" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H13" s="182" t="str">
         <f>_xll.qlIborIndex(,,B13,C13,Currency,D13,E13,F13,G13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015e#0005</v>
-      </c>
-      <c r="I13" s="185" t="str">
+        <v>obj_00182#0004</v>
+      </c>
+      <c r="I13" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK5MD_Quote</v>
       </c>
-      <c r="J13" s="186" t="str">
+      <c r="J13" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016f#0005</v>
+        <v>obj_0019c#0004</v>
       </c>
       <c r="K13" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -11054,34 +10478,34 @@
     <row r="14" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="170" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C14" s="170">
         <v>2</v>
       </c>
       <c r="D14" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E14" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F14" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G14" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H14" s="182" t="str">
         <f>_xll.qlIborIndex(,,B14,C14,Currency,D14,E14,F14,G14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00159#0005</v>
-      </c>
-      <c r="I14" s="185" t="str">
+        <v>obj_00186#0004</v>
+      </c>
+      <c r="I14" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK6MD_Quote</v>
       </c>
-      <c r="J14" s="186" t="str">
+      <c r="J14" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00167#0005</v>
+        <v>obj_0019b#0004</v>
       </c>
       <c r="K14" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -11092,34 +10516,34 @@
     <row r="15" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="170" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C15" s="170">
         <v>2</v>
       </c>
       <c r="D15" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E15" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F15" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G15" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H15" s="182" t="str">
         <f>_xll.qlIborIndex(,,B15,C15,Currency,D15,E15,F15,G15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00160#0005</v>
-      </c>
-      <c r="I15" s="185" t="str">
+        <v>obj_00185#0004</v>
+      </c>
+      <c r="I15" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK7MD_Quote</v>
       </c>
-      <c r="J15" s="186" t="str">
+      <c r="J15" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00169#0005</v>
+        <v>obj_00191#0004</v>
       </c>
       <c r="K15" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -11130,34 +10554,34 @@
     <row r="16" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="170" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C16" s="170">
         <v>2</v>
       </c>
       <c r="D16" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E16" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F16" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H16" s="182" t="str">
         <f>_xll.qlIborIndex(,,B16,C16,Currency,D16,E16,F16,G16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00156#0005</v>
-      </c>
-      <c r="I16" s="185" t="str">
+        <v>obj_00181#0004</v>
+      </c>
+      <c r="I16" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK8MD_Quote</v>
       </c>
-      <c r="J16" s="186" t="str">
+      <c r="J16" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00168#0005</v>
+        <v>obj_0019d#0004</v>
       </c>
       <c r="K16" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -11168,34 +10592,34 @@
     <row r="17" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="170" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C17" s="170">
         <v>2</v>
       </c>
       <c r="D17" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E17" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F17" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G17" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H17" s="182" t="str">
         <f>_xll.qlIborIndex(,,B17,C17,Currency,D17,E17,F17,G17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015d#0005</v>
-      </c>
-      <c r="I17" s="185" t="str">
+        <v>obj_00190#0004</v>
+      </c>
+      <c r="I17" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK9MD_Quote</v>
       </c>
-      <c r="J17" s="186" t="str">
+      <c r="J17" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016e#0005</v>
+        <v>obj_0019a#0004</v>
       </c>
       <c r="K17" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -11206,34 +10630,34 @@
     <row r="18" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="170" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C18" s="170">
         <v>2</v>
       </c>
       <c r="D18" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E18" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F18" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G18" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H18" s="182" t="str">
         <f>_xll.qlIborIndex(,,B18,C18,Currency,D18,E18,F18,G18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00162#0005</v>
-      </c>
-      <c r="I18" s="185" t="str">
+        <v>obj_0018a#0004</v>
+      </c>
+      <c r="I18" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK10MD_Quote</v>
       </c>
-      <c r="J18" s="186" t="str">
+      <c r="J18" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00166#0005</v>
+        <v>obj_00196#0004</v>
       </c>
       <c r="K18" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -11244,34 +10668,34 @@
     <row r="19" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="170" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C19" s="170">
         <v>2</v>
       </c>
       <c r="D19" s="170" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E19" s="170" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F19" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="185" t="str">
+        <v>87</v>
+      </c>
+      <c r="H19" s="182" t="str">
         <f>_xll.qlIborIndex(,,B19,C19,Currency,D19,E19,F19,G19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00164#0005</v>
-      </c>
-      <c r="I19" s="185" t="str">
+        <v>obj_0018c#0004</v>
+      </c>
+      <c r="I19" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEK11MD_Quote</v>
       </c>
-      <c r="J19" s="186" t="str">
+      <c r="J19" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016a#0005</v>
+        <v>obj_00193#0004</v>
       </c>
       <c r="K19" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -11282,34 +10706,34 @@
     <row r="20" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="175" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C20" s="175">
         <v>2</v>
       </c>
       <c r="D20" s="175" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E20" s="175" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F20" s="175" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="175" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H20" s="46" t="str">
         <f>_xll.qlIborIndex(,,B20,C20,Currency,D20,E20,F20,G20,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00157#0005</v>
+        <v>obj_00183#0004</v>
       </c>
       <c r="I20" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SEK1YD_Quote</v>
       </c>
-      <c r="J20" s="187" t="str">
+      <c r="J20" s="184" t="str">
         <f>_xll.qlDepositRateHelper(,I20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00172#0005</v>
+        <v>obj_00194#0004</v>
       </c>
       <c r="K20" s="178"/>
       <c r="L20" s="45"/>
@@ -11397,22 +10821,22 @@
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
       <c r="B2" s="112" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H2" s="49" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H22,SerializationPath&amp;H1,FileOverwrite,Serialize),"---")</f>
@@ -11441,7 +10865,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F3" s="166" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B3&amp;QuoteSuffix</f>
+        <f t="shared" ref="F3:F22" si="1">"FUT"&amp;Currency&amp;"3F"&amp;B3&amp;QuoteSuffix</f>
         <v>FUTSEK3F1_Quote</v>
       </c>
       <c r="G3" s="167">
@@ -11449,14 +10873,14 @@
       </c>
       <c r="H3" s="168" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f2#0007</v>
+        <v>obj_00171#0004</v>
       </c>
       <c r="I3" s="169" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
         <v/>
       </c>
       <c r="J3" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K3" s="121"/>
     </row>
@@ -11476,7 +10900,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F4" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B4&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F2_Quote</v>
       </c>
       <c r="G4" s="172">
@@ -11484,14 +10908,14 @@
       </c>
       <c r="H4" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f3#0009</v>
+        <v>obj_00176#0004</v>
       </c>
       <c r="I4" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
         <v/>
       </c>
       <c r="J4" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K4" s="121"/>
     </row>
@@ -11511,7 +10935,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F5" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B5&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F3_Quote</v>
       </c>
       <c r="G5" s="172">
@@ -11519,14 +10943,14 @@
       </c>
       <c r="H5" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f5#0009</v>
+        <v>obj_00178#0004</v>
       </c>
       <c r="I5" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
         <v/>
       </c>
       <c r="J5" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K5" s="121"/>
     </row>
@@ -11546,7 +10970,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F6" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B6&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F4_Quote</v>
       </c>
       <c r="G6" s="172">
@@ -11554,14 +10978,14 @@
       </c>
       <c r="H6" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f7#0009</v>
+        <v>obj_00172#0004</v>
       </c>
       <c r="I6" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
         <v/>
       </c>
       <c r="J6" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K6" s="121"/>
     </row>
@@ -11581,7 +11005,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F7" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B7&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F5_Quote</v>
       </c>
       <c r="G7" s="172">
@@ -11589,14 +11013,14 @@
       </c>
       <c r="H7" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f9#0009</v>
+        <v>obj_00175#0004</v>
       </c>
       <c r="I7" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
         <v/>
       </c>
       <c r="J7" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K7" s="121"/>
     </row>
@@ -11616,7 +11040,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F8" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B8&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F6_Quote</v>
       </c>
       <c r="G8" s="172">
@@ -11624,14 +11048,14 @@
       </c>
       <c r="H8" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002fb#0009</v>
+        <v>obj_00173#0004</v>
       </c>
       <c r="I8" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
         <v/>
       </c>
       <c r="J8" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K8" s="121"/>
     </row>
@@ -11651,7 +11075,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F9" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B9&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F7_Quote</v>
       </c>
       <c r="G9" s="172">
@@ -11659,14 +11083,14 @@
       </c>
       <c r="H9" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002fd#0009</v>
+        <v>obj_0017b#0004</v>
       </c>
       <c r="I9" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
         <v/>
       </c>
       <c r="J9" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K9" s="121"/>
     </row>
@@ -11686,7 +11110,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F10" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B10&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F8_Quote</v>
       </c>
       <c r="G10" s="172">
@@ -11694,14 +11118,14 @@
       </c>
       <c r="H10" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ff#0009</v>
+        <v>obj_00179#0004</v>
       </c>
       <c r="I10" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
         <v/>
       </c>
       <c r="J10" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K10" s="121"/>
     </row>
@@ -11721,7 +11145,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F11" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B11&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F9_Quote</v>
       </c>
       <c r="G11" s="172">
@@ -11729,14 +11153,14 @@
       </c>
       <c r="H11" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00300#0009</v>
+        <v>obj_00174#0004</v>
       </c>
       <c r="I11" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
         <v/>
       </c>
       <c r="J11" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K11" s="121"/>
     </row>
@@ -11756,7 +11180,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F12" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B12&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F10_Quote</v>
       </c>
       <c r="G12" s="172">
@@ -11764,14 +11188,14 @@
       </c>
       <c r="H12" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f4#0009</v>
+        <v>obj_0016f#0004</v>
       </c>
       <c r="I12" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
         <v/>
       </c>
       <c r="J12" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K12" s="121"/>
     </row>
@@ -11791,7 +11215,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F13" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B13&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F11_Quote</v>
       </c>
       <c r="G13" s="172">
@@ -11799,14 +11223,14 @@
       </c>
       <c r="H13" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f6#0009</v>
+        <v>obj_00177#0004</v>
       </c>
       <c r="I13" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
         <v/>
       </c>
       <c r="J13" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K13" s="121"/>
     </row>
@@ -11826,7 +11250,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F14" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B14&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F12_Quote</v>
       </c>
       <c r="G14" s="172">
@@ -11834,14 +11258,14 @@
       </c>
       <c r="H14" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f8#0009</v>
+        <v>obj_0017c#0004</v>
       </c>
       <c r="I14" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
         <v/>
       </c>
       <c r="J14" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K14" s="121"/>
     </row>
@@ -11861,22 +11285,22 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F15" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B15&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F13_Quote</v>
       </c>
       <c r="G15" s="172">
         <v>0</v>
       </c>
-      <c r="H15" s="173" t="e">
+      <c r="H15" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_0016e#0004</v>
       </c>
       <c r="I15" s="174" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H15)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F13_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(H15)</f>
+        <v/>
       </c>
       <c r="J15" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K15" s="121"/>
     </row>
@@ -11896,22 +11320,22 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F16" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B16&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F14_Quote</v>
       </c>
       <c r="G16" s="172">
         <v>0</v>
       </c>
-      <c r="H16" s="173" t="e">
+      <c r="H16" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_0017a#0004</v>
       </c>
       <c r="I16" s="174" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H16)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F14_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(H16)</f>
+        <v/>
       </c>
       <c r="J16" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K16" s="121"/>
     </row>
@@ -11931,22 +11355,22 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F17" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B17&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F15_Quote</v>
       </c>
       <c r="G17" s="172">
         <v>0</v>
       </c>
-      <c r="H17" s="173" t="e">
+      <c r="H17" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00170#0004</v>
       </c>
       <c r="I17" s="174" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H17)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F15_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(H17)</f>
+        <v/>
       </c>
       <c r="J17" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K17" s="121"/>
     </row>
@@ -11966,7 +11390,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F18" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B18&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F16_Quote</v>
       </c>
       <c r="G18" s="172">
@@ -11981,7 +11405,7 @@
         <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F16_Quote'</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K18" s="121"/>
     </row>
@@ -12001,7 +11425,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F19" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B19&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F17_Quote</v>
       </c>
       <c r="G19" s="172">
@@ -12016,7 +11440,7 @@
         <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F17_Quote'</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K19" s="121"/>
     </row>
@@ -12036,7 +11460,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F20" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B20&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F18_Quote</v>
       </c>
       <c r="G20" s="172">
@@ -12051,7 +11475,7 @@
         <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F18_Quote'</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K20" s="121"/>
     </row>
@@ -12071,7 +11495,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F21" s="171" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B21&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F19_Quote</v>
       </c>
       <c r="G21" s="172">
@@ -12086,7 +11510,7 @@
         <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F19_Quote'</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K21" s="121"/>
     </row>
@@ -12106,7 +11530,7 @@
         <v>Sekibor3M</v>
       </c>
       <c r="F22" s="176" t="str">
-        <f>"FUT"&amp;Currency&amp;"3F"&amp;B22&amp;QuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>FUTSEK3F20_Quote</v>
       </c>
       <c r="G22" s="177">
@@ -12121,7 +11545,7 @@
         <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F20_Quote'</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K22" s="121"/>
     </row>
@@ -12136,7 +11560,7 @@
       <c r="H23" s="123"/>
       <c r="I23" s="123"/>
       <c r="J23" s="43" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -12149,7 +11573,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -12201,28 +11625,28 @@
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
       <c r="B2" s="51" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K2" s="113" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K42,SerializationPath&amp;K1,FileOverwrite,Serialize),"---")</f>
+        <f>IF(Serialize,_xll.ohObjectSave(K3:K27,SerializationPath&amp;K1,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
       <c r="L2" s="126" t="str">
@@ -12244,7 +11668,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="138" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IndexTenor,NDays,Currency,Calendar,"mf",TRUE,"Actual/360",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b4#0006</v>
+        <v>obj_00157#0011</v>
       </c>
       <c r="L3" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -12270,36 +11694,36 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="139" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G5" s="141" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H5" s="142" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I5" s="142">
         <v>0</v>
       </c>
       <c r="J5" s="143" t="str">
-        <f t="shared" ref="J5:J41" si="0">Currency&amp;$D5&amp;$E5&amp;$C5&amp;"_Quote"</f>
+        <f t="shared" ref="J5:J26" si="0">Currency&amp;$D5&amp;$E5&amp;$C5&amp;"_Quote"</f>
         <v>SEKAB3S1Y_Quote</v>
       </c>
       <c r="K5" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c5#0006</v>
+        <v>obj_0015b#0011</v>
       </c>
       <c r="L5" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -12310,25 +11734,25 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C6" s="147" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D6" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E6" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F6" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G6" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H6" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I6" s="149">
         <v>0</v>
@@ -12339,7 +11763,7 @@
       </c>
       <c r="K6" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002be#0006</v>
+        <v>obj_00164#0011</v>
       </c>
       <c r="L6" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12350,25 +11774,25 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C7" s="147" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D7" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E7" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G7" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H7" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I7" s="149">
         <v>0</v>
@@ -12379,7 +11803,7 @@
       </c>
       <c r="K7" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d5#0006</v>
+        <v>obj_0015a#0011</v>
       </c>
       <c r="L7" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12390,25 +11814,25 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C8" s="147" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D8" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E8" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F8" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G8" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H8" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I8" s="149">
         <v>0</v>
@@ -12419,7 +11843,7 @@
       </c>
       <c r="K8" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002ca#0006</v>
+        <v>obj_00160#0011</v>
       </c>
       <c r="L8" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12430,25 +11854,25 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="47"/>
       <c r="B9" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C9" s="147" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D9" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E9" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F9" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G9" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H9" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I9" s="149">
         <v>0</v>
@@ -12459,7 +11883,7 @@
       </c>
       <c r="K9" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002b9#0006</v>
+        <v>obj_00158#0011</v>
       </c>
       <c r="L9" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12470,25 +11894,25 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C10" s="147" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D10" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E10" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F10" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G10" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H10" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I10" s="149">
         <v>0</v>
@@ -12499,7 +11923,7 @@
       </c>
       <c r="K10" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d1#0006</v>
+        <v>obj_0015c#0011</v>
       </c>
       <c r="L10" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12510,25 +11934,25 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C11" s="147" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D11" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E11" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F11" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G11" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H11" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I11" s="149">
         <v>0</v>
@@ -12539,7 +11963,7 @@
       </c>
       <c r="K11" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c2#0006</v>
+        <v>obj_00166#0011</v>
       </c>
       <c r="L11" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12550,25 +11974,25 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C12" s="147" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D12" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E12" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F12" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G12" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H12" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I12" s="149">
         <v>0</v>
@@ -12579,7 +12003,7 @@
       </c>
       <c r="K12" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d6#0006</v>
+        <v>obj_0016b#0011</v>
       </c>
       <c r="L12" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12590,25 +12014,25 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C13" s="147" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D13" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E13" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F13" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G13" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H13" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I13" s="149">
         <v>0</v>
@@ -12619,7 +12043,7 @@
       </c>
       <c r="K13" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002cd#0006</v>
+        <v>obj_00162#0011</v>
       </c>
       <c r="L13" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -12630,25 +12054,25 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C14" s="147" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E14" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F14" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G14" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H14" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I14" s="149">
         <v>0</v>
@@ -12659,7 +12083,7 @@
       </c>
       <c r="K14" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002bd#0006</v>
+        <v>obj_00161#0011</v>
       </c>
       <c r="L14" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -12670,25 +12094,25 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C15" s="147" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D15" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E15" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F15" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H15" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I15" s="149">
         <v>0</v>
@@ -12699,7 +12123,7 @@
       </c>
       <c r="K15" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c6#0006</v>
+        <v>obj_0016c#0011</v>
       </c>
       <c r="L15" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -12710,25 +12134,25 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="47"/>
       <c r="B16" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C16" s="147" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D16" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E16" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F16" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G16" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H16" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I16" s="149">
         <v>0</v>
@@ -12739,7 +12163,7 @@
       </c>
       <c r="K16" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c9#0006</v>
+        <v>obj_0015f#0011</v>
       </c>
       <c r="L16" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -12750,25 +12174,25 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C17" s="147" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D17" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E17" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F17" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G17" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H17" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I17" s="149">
         <v>0</v>
@@ -12779,7 +12203,7 @@
       </c>
       <c r="K17" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002b8#0006</v>
+        <v>obj_00163#0011</v>
       </c>
       <c r="L17" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -12790,36 +12214,36 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C18" s="147" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D18" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E18" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F18" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G18" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H18" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I18" s="149">
         <v>0</v>
       </c>
       <c r="J18" s="150" t="str">
         <f t="shared" si="0"/>
-        <v>SEKAB3S11Y_Quote</v>
+        <v>SEKAB3S12Y_Quote</v>
       </c>
       <c r="K18" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d0#0006</v>
+        <v>obj_00168#0011</v>
       </c>
       <c r="L18" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -12830,36 +12254,36 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C19" s="147" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D19" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E19" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F19" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G19" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H19" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I19" s="149">
         <v>0</v>
       </c>
       <c r="J19" s="150" t="str">
         <f t="shared" si="0"/>
-        <v>SEKAB3S12Y_Quote</v>
+        <v>SEKAB3S15Y_Quote</v>
       </c>
       <c r="K19" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c1#0006</v>
+        <v>obj_00169#0011</v>
       </c>
       <c r="L19" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -12870,36 +12294,36 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C20" s="147" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D20" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E20" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F20" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G20" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H20" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I20" s="149">
         <v>0</v>
       </c>
       <c r="J20" s="150" t="str">
         <f t="shared" si="0"/>
-        <v>SEKAB3S13Y_Quote</v>
+        <v>SEKAB3S20Y_Quote</v>
       </c>
       <c r="K20" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d7#0006</v>
+        <v>obj_0016a#0011</v>
       </c>
       <c r="L20" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -12910,36 +12334,36 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C21" s="147" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D21" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E21" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F21" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G21" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H21" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I21" s="149">
         <v>0</v>
       </c>
       <c r="J21" s="150" t="str">
         <f t="shared" si="0"/>
-        <v>SEKAB3S14Y_Quote</v>
+        <v>SEKAB3S25Y_Quote</v>
       </c>
       <c r="K21" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002cc#0006</v>
+        <v>obj_00159#0011</v>
       </c>
       <c r="L21" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -12950,36 +12374,36 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="47"/>
       <c r="B22" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C22" s="147" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D22" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E22" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F22" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G22" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H22" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I22" s="149">
         <v>0</v>
       </c>
       <c r="J22" s="150" t="str">
         <f t="shared" si="0"/>
-        <v>SEKAB3S15Y_Quote</v>
+        <v>SEKAB3S27Y_Quote</v>
       </c>
       <c r="K22" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002bc#0006</v>
+        <v>obj_00165#0011</v>
       </c>
       <c r="L22" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -12990,36 +12414,36 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="47"/>
       <c r="B23" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C23" s="147" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D23" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E23" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F23" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G23" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H23" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I23" s="149">
         <v>0</v>
       </c>
       <c r="J23" s="150" t="str">
         <f t="shared" si="0"/>
-        <v>SEKAB3S16Y_Quote</v>
+        <v>SEKAB3S30Y_Quote</v>
       </c>
       <c r="K23" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d4#0006</v>
+        <v>obj_0015e#0011</v>
       </c>
       <c r="L23" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13030,36 +12454,36 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="47"/>
       <c r="B24" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C24" s="147" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D24" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E24" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F24" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G24" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H24" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I24" s="149">
         <v>0</v>
       </c>
       <c r="J24" s="150" t="str">
         <f t="shared" si="0"/>
-        <v>SEKAB3S17Y_Quote</v>
+        <v>SEKAB3S35Y_Quote</v>
       </c>
       <c r="K24" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c8#0006</v>
+        <v>obj_0015d#0011</v>
       </c>
       <c r="L24" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13070,36 +12494,36 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="47"/>
       <c r="B25" s="146" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C25" s="147" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D25" s="146" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E25" s="146" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F25" s="146" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G25" s="148" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H25" s="149" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I25" s="149">
         <v>0</v>
       </c>
       <c r="J25" s="150" t="str">
         <f t="shared" si="0"/>
-        <v>SEKAB3S18Y_Quote</v>
+        <v>SEKAB3S40Y_Quote</v>
       </c>
       <c r="K25" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002b7#0006</v>
+        <v>obj_00167#0011</v>
       </c>
       <c r="L25" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13109,683 +12533,83 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="149">
-        <v>0</v>
-      </c>
-      <c r="J26" s="150" t="str">
+      <c r="B26" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="153" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="155" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="156" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="156">
+        <v>0</v>
+      </c>
+      <c r="J26" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>SEKAB3S19Y_Quote</v>
-      </c>
-      <c r="K26" s="151" t="str">
+        <v>SEKAB3S50Y_Quote</v>
+      </c>
+      <c r="K26" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002cf#0006</v>
-      </c>
-      <c r="L26" s="152" t="str">
+        <v>obj_0016d#0011</v>
+      </c>
+      <c r="L26" s="159" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
         <v/>
       </c>
       <c r="M26" s="124"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="149">
-        <v>0</v>
-      </c>
-      <c r="J27" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S20Y_Quote</v>
-      </c>
-      <c r="K27" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c0#0006</v>
-      </c>
-      <c r="L27" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K27)</f>
-        <v/>
-      </c>
+    <row r="27" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
       <c r="M27" s="124"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="149">
-        <v>0</v>
-      </c>
-      <c r="J28" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S21Y_Quote</v>
-      </c>
-      <c r="K28" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d8#0006</v>
-      </c>
-      <c r="L28" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K28)</f>
-        <v/>
-      </c>
-      <c r="M28" s="124"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="149">
-        <v>0</v>
-      </c>
-      <c r="J29" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S22Y_Quote</v>
-      </c>
-      <c r="K29" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002cb#0006</v>
-      </c>
-      <c r="L29" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K29)</f>
-        <v/>
-      </c>
-      <c r="M29" s="124"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="147" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" s="149">
-        <v>0</v>
-      </c>
-      <c r="J30" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S23Y_Quote</v>
-      </c>
-      <c r="K30" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002bb#0006</v>
-      </c>
-      <c r="L30" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K30)</f>
-        <v/>
-      </c>
-      <c r="M30" s="124"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="147" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="149">
-        <v>0</v>
-      </c>
-      <c r="J31" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S24Y_Quote</v>
-      </c>
-      <c r="K31" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d3#0006</v>
-      </c>
-      <c r="L31" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K31)</f>
-        <v/>
-      </c>
-      <c r="M31" s="124"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" s="149">
-        <v>0</v>
-      </c>
-      <c r="J32" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S25Y_Quote</v>
-      </c>
-      <c r="K32" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c3#0006</v>
-      </c>
-      <c r="L32" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K32)</f>
-        <v/>
-      </c>
-      <c r="M32" s="124"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="149">
-        <v>0</v>
-      </c>
-      <c r="J33" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S26Y_Quote</v>
-      </c>
-      <c r="K33" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002b6#0006</v>
-      </c>
-      <c r="L33" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K33)</f>
-        <v/>
-      </c>
-      <c r="M33" s="124"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="147" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="149">
-        <v>0</v>
-      </c>
-      <c r="J34" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S27Y_Quote</v>
-      </c>
-      <c r="K34" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002ce#0006</v>
-      </c>
-      <c r="L34" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K34)</f>
-        <v/>
-      </c>
-      <c r="M34" s="124"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35" s="149">
-        <v>0</v>
-      </c>
-      <c r="J35" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S28Y_Quote</v>
-      </c>
-      <c r="K35" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002bf#0006</v>
-      </c>
-      <c r="L35" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K35)</f>
-        <v/>
-      </c>
-      <c r="M35" s="124"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="147" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="149">
-        <v>0</v>
-      </c>
-      <c r="J36" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S29Y_Quote</v>
-      </c>
-      <c r="K36" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d9#0006</v>
-      </c>
-      <c r="L36" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K36)</f>
-        <v/>
-      </c>
-      <c r="M36" s="124"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="147" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="149">
-        <v>0</v>
-      </c>
-      <c r="J37" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S30Y_Quote</v>
-      </c>
-      <c r="K37" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c4#0006</v>
-      </c>
-      <c r="L37" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K37)</f>
-        <v/>
-      </c>
-      <c r="M37" s="124"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="147" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" s="149">
-        <v>0</v>
-      </c>
-      <c r="J38" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S35Y_Quote</v>
-      </c>
-      <c r="K38" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002ba#0006</v>
-      </c>
-      <c r="L38" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K38)</f>
-        <v/>
-      </c>
-      <c r="M38" s="124"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" s="149">
-        <v>0</v>
-      </c>
-      <c r="J39" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S40Y_Quote</v>
-      </c>
-      <c r="K39" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002d2#0006</v>
-      </c>
-      <c r="L39" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K39)</f>
-        <v/>
-      </c>
-      <c r="M39" s="124"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I40" s="149">
-        <v>0</v>
-      </c>
-      <c r="J40" s="150" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S50Y_Quote</v>
-      </c>
-      <c r="K40" s="151" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002c7#0006</v>
-      </c>
-      <c r="L40" s="152" t="str">
-        <f>_xll.ohRangeRetrieveError(K40)</f>
-        <v/>
-      </c>
-      <c r="M40" s="124"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="153" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="153" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="153" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="153" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="155" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="156" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41" s="156">
-        <v>0</v>
-      </c>
-      <c r="J41" s="157" t="str">
-        <f t="shared" si="0"/>
-        <v>SEKAB3S60Y_Quote</v>
-      </c>
-      <c r="K41" s="158" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_002b5#0006</v>
-      </c>
-      <c r="L41" s="159" t="str">
-        <f>_xll.ohRangeRetrieveError(K41)</f>
-        <v/>
-      </c>
-      <c r="M41" s="124"/>
-    </row>
-    <row r="42" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="124"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="160"/>
-      <c r="B43" s="160"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="160"/>
-      <c r="J43" s="160"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="160"/>
-      <c r="M43" s="160"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F26">
       <formula1>"Annual,Semiannual,EveryFourthMonth,Quarterly,Bimonthly,Monthly,Biweekly,Weekly,Daily,Once,NoFrequency"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H26">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G26">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Month End Reference,Unadjusted Month End,Unadjusted"</formula1>
     </dataValidation>
   </dataValidations>

--- a/QuantLibXL/Data2/XLS/SEK_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK_YCSTDBootstrapping.xlsx
@@ -1714,7 +1714,7 @@
       <sheetData sheetId="1">
         <row r="11">
           <cell r="J11" t="str">
-            <v>SEKSTD#0000</v>
+            <v>SEKSTD#0057</v>
           </cell>
         </row>
       </sheetData>
@@ -2485,9 +2485,9 @@
       <c r="C14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="21" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_SEKYCSTD#0024</v>
+      <c r="D14" s="21" t="e">
+        <f ca="1">_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2527,9 +2527,9 @@
       <c r="C15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="20" t="str">
-        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
-        <v/>
+      <c r="D15" s="20" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>90</v>
@@ -2823,13 +2823,13 @@
     <row r="23" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="9">
-        <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41996</v>
-      </c>
-      <c r="D23" s="8">
-        <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.0099702144105676E-2</v>
+      <c r="C23" s="9" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(YieldCurve)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D23" s="8" t="e">
+        <f ca="1">MAX(_xll.ohPack(Selected!J1:J126))</f>
+        <v>#NAME?</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2862,13 +2862,13 @@
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="7">
-        <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>52954</v>
-      </c>
-      <c r="D24" s="6">
-        <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>7.2999562004162578E-4</v>
+      <c r="C24" s="7" t="e">
+        <f ca="1">MAX(_xll.ohPack(Selected!I2:I126))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D24" s="6" t="e">
+        <f ca="1">MIN(_xll.ohPack(Selected!J1:J126))</f>
+        <v>#NAME?</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2904,9 +2904,9 @@
       <c r="C25" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="60" t="str">
-        <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
-        <v/>
+      <c r="D25" s="60" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(Selected!J1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2941,11 +2941,11 @@
       <c r="B26" s="5"/>
       <c r="C26" s="7" t="str">
         <f>[1]Stibor!$J$11</f>
-        <v>SEKSTD#0000</v>
-      </c>
-      <c r="D26" s="6" t="b">
-        <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
-        <v>1</v>
+        <v>SEKSTD#0057</v>
+      </c>
+      <c r="D26" s="6" t="e">
+        <f ca="1">_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4284,17 +4284,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="186" t="str">
-        <f>Deposits!J3</f>
-        <v>obj_002b1#0002</v>
-      </c>
-      <c r="B2" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A2),"LastFixing","D"),"Libor","")</f>
-        <v>SEKOND_Quote</v>
+      <c r="A2" s="186" t="e">
+        <f ca="1">Deposits!J3</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B2" s="96" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A2),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C2" s="97" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D2" s="97"/>
       <c r="E2" s="54" t="b">
@@ -4306,13 +4306,13 @@
       <c r="G2" s="54">
         <v>1</v>
       </c>
-      <c r="H2" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>41996</v>
-      </c>
-      <c r="I2" s="99">
-        <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>42002</v>
+      <c r="H2" s="98" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="99" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($A2,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="52">
         <v>10</v>
@@ -4322,17 +4322,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="186" t="str">
-        <f>Deposits!J4</f>
-        <v>obj_0017f#0004</v>
-      </c>
-      <c r="B3" s="96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A3),"LastFixing","D"),"Libor","")</f>
-        <v>SEKTND_Quote</v>
-      </c>
-      <c r="C3" s="97">
-        <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
-        <v>7.1999999999999994E-4</v>
+      <c r="A3" s="186" t="e">
+        <f ca="1">Deposits!J4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B3" s="96" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A3),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="97" t="e">
+        <f ca="1">_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D3" s="97"/>
       <c r="E3" s="54" t="b">
@@ -4344,13 +4344,13 @@
       <c r="G3" s="54">
         <v>1</v>
       </c>
-      <c r="H3" s="98">
-        <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>41996</v>
-      </c>
-      <c r="I3" s="99">
-        <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>42002</v>
+      <c r="H3" s="98" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I3" s="99" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($A3,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6413,9 +6413,9 @@
       <c r="I1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="111">
-        <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>7.2999562004162578E-4</v>
+      <c r="J1" s="111" t="e">
+        <f t="array" aca="1" ref="J1:J126" ca="1">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K1" s="64"/>
     </row>
@@ -6426,32 +6426,33 @@
       <c r="B2" s="66">
         <v>6</v>
       </c>
-      <c r="D2" s="67" t="str">
-        <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0017f</v>
-      </c>
-      <c r="E2" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
-        <v>SEKTND_Quote</v>
-      </c>
-      <c r="F2" s="68">
-        <f>_xll.qlRateHelperRate($D2)</f>
-        <v>7.1999999999999994E-4</v>
+      <c r="D2" s="67" t="e">
+        <f t="array" aca="1" ref="D2:D126" ca="1">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41996</v>
-      </c>
-      <c r="I2" s="75">
-        <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42002</v>
-      </c>
-      <c r="J2" s="111">
-        <v>7.2999562004162578E-4</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="64"/>
     </row>
@@ -6462,31 +6463,33 @@
       <c r="B3" s="70">
         <v>0</v>
       </c>
-      <c r="D3" s="67" t="str">
-        <v>obj_00189</v>
-      </c>
-      <c r="E3" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
-        <v>SEKSWD_Quote</v>
-      </c>
-      <c r="F3" s="68">
-        <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.0200000000000001E-3</v>
+      <c r="D3" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G3" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41996</v>
-      </c>
-      <c r="I3" s="75">
-        <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42003</v>
-      </c>
-      <c r="J3" s="111">
-        <v>1.0341564114240743E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I3" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J3" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="64"/>
     </row>
@@ -6497,31 +6500,33 @@
       <c r="B4" s="70">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="str">
-        <v>obj_0019e</v>
-      </c>
-      <c r="E4" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
-        <v>SEK1MD_Quote</v>
-      </c>
-      <c r="F4" s="68">
-        <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1.6899999999999999E-3</v>
+      <c r="D4" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G4" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41996</v>
-      </c>
-      <c r="I4" s="75">
-        <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42027</v>
-      </c>
-      <c r="J4" s="111">
-        <v>1.7133475554156113E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I4" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J4" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="64"/>
     </row>
@@ -6532,3441 +6537,3685 @@
       <c r="B5" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="67" t="str">
-        <v>obj_00198</v>
-      </c>
-      <c r="E5" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
-        <v>SEK2MD_Quote</v>
-      </c>
-      <c r="F5" s="68">
-        <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.1000000000000003E-3</v>
+      <c r="D5" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41996</v>
-      </c>
-      <c r="I5" s="75">
-        <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42058</v>
-      </c>
-      <c r="J5" s="111">
-        <v>2.1287817351695153E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="67" t="str">
-        <v>obj_00195</v>
-      </c>
-      <c r="E6" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
-        <v>SEK3MD_Quote</v>
-      </c>
-      <c r="F6" s="68">
-        <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.5900000000000003E-3</v>
+      <c r="D6" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G6" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41996</v>
-      </c>
-      <c r="I6" s="75">
-        <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42086</v>
-      </c>
-      <c r="J6" s="111">
-        <v>2.6251224305220218E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I6" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="67" t="str">
-        <v>obj_00171</v>
-      </c>
-      <c r="E7" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F1_Quote</v>
-      </c>
-      <c r="F7" s="68">
-        <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.3499999999999632E-3</v>
+      <c r="D7" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G7" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42081</v>
-      </c>
-      <c r="I7" s="75">
-        <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42173</v>
-      </c>
-      <c r="J7" s="111">
-        <v>2.4561505440395918E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="67" t="str">
-        <v>obj_00176</v>
-      </c>
-      <c r="E8" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F2_Quote</v>
-      </c>
-      <c r="F8" s="68">
-        <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.2999999999998577E-3</v>
+      <c r="D8" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G8" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42172</v>
-      </c>
-      <c r="I8" s="75">
-        <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42264</v>
-      </c>
-      <c r="J8" s="111">
-        <v>2.4145529362693892E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K8" s="64"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="67" t="str">
-        <v>obj_00178</v>
-      </c>
-      <c r="E9" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F3_Quote</v>
-      </c>
-      <c r="F9" s="68">
-        <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.2999999999998577E-3</v>
+      <c r="D9" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G9" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42263</v>
-      </c>
-      <c r="I9" s="75">
-        <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42354</v>
-      </c>
-      <c r="J9" s="111">
-        <v>2.3937233661214122E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I9" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K9" s="64"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="67" t="str">
-        <v>obj_00172</v>
-      </c>
-      <c r="E10" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F4_Quote</v>
-      </c>
-      <c r="F10" s="68">
-        <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.4499999999999522E-3</v>
+      <c r="D10" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G10" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42354</v>
-      </c>
-      <c r="I10" s="75">
-        <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42445</v>
-      </c>
-      <c r="J10" s="111">
-        <v>2.4118697679251701E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D10)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D10)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="67" t="str">
-        <v>obj_00175</v>
-      </c>
-      <c r="E11" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F5_Quote</v>
-      </c>
-      <c r="F11" s="68">
-        <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.8000000000000247E-3</v>
+      <c r="D11" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F11" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G11" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42445</v>
-      </c>
-      <c r="I11" s="75">
-        <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42537</v>
-      </c>
-      <c r="J11" s="111">
-        <v>2.4843140564018789E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I11" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J11" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="67" t="str">
-        <v>obj_00173</v>
-      </c>
-      <c r="E12" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F6_Quote</v>
-      </c>
-      <c r="F12" s="68">
-        <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.2499999999999751E-3</v>
+      <c r="D12" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G12" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42536</v>
-      </c>
-      <c r="I12" s="75">
-        <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42628</v>
-      </c>
-      <c r="J12" s="111">
-        <v>2.6014736215160916E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="67" t="str">
-        <v>obj_00158</v>
-      </c>
-      <c r="E13" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S2Y_Quote</v>
-      </c>
-      <c r="F13" s="68">
-        <f>_xll.qlRateHelperRate($D13)</f>
-        <v>2.8500000000000001E-3</v>
+      <c r="D13" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F13" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G13" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41996</v>
-      </c>
-      <c r="I13" s="75">
-        <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42727</v>
-      </c>
-      <c r="J13" s="111">
-        <v>2.8426949213032683E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I13" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J13" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="67" t="str">
-        <v>obj_0015c</v>
-      </c>
-      <c r="E14" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S3Y_Quote</v>
-      </c>
-      <c r="F14" s="68">
-        <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.9000000000000003E-3</v>
+      <c r="D14" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G14" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41996</v>
-      </c>
-      <c r="I14" s="75">
-        <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43096</v>
-      </c>
-      <c r="J14" s="111">
-        <v>3.8937008432696758E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I14" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="67" t="str">
-        <v>obj_00166</v>
-      </c>
-      <c r="E15" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S4Y_Quote</v>
-      </c>
-      <c r="F15" s="68">
-        <f>_xll.qlRateHelperRate($D15)</f>
-        <v>5.2500000000000003E-3</v>
+      <c r="D15" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E15" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F15" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G15" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41996</v>
-      </c>
-      <c r="I15" s="75">
-        <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43461</v>
-      </c>
-      <c r="J15" s="111">
-        <v>5.2482577913195265E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D15)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I15" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D15)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J15" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="67" t="str">
-        <v>obj_0016b</v>
-      </c>
-      <c r="E16" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S5Y_Quote</v>
-      </c>
-      <c r="F16" s="68">
-        <f>_xll.qlRateHelperRate($D16)</f>
-        <v>6.7999999999999996E-3</v>
+      <c r="D16" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F16" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G16" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41996</v>
-      </c>
-      <c r="I16" s="75">
-        <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43822</v>
-      </c>
-      <c r="J16" s="111">
-        <v>6.8106341105637529E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D16)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I16" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D16)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J16" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K16" s="64"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D17" s="67" t="str">
-        <v>obj_00162</v>
-      </c>
-      <c r="E17" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S6Y_Quote</v>
-      </c>
-      <c r="F17" s="68">
-        <f>_xll.qlRateHelperRate($D17)</f>
-        <v>8.3499999999999998E-3</v>
+      <c r="D17" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E17" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F17" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G17" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41996</v>
-      </c>
-      <c r="I17" s="75">
-        <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44188</v>
-      </c>
-      <c r="J17" s="111">
-        <v>8.3788029742511306E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D17)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I17" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D17)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J17" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D18" s="67" t="str">
-        <v>obj_00161</v>
-      </c>
-      <c r="E18" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S7Y_Quote</v>
-      </c>
-      <c r="F18" s="68">
-        <f>_xll.qlRateHelperRate($D18)</f>
-        <v>9.7999999999999997E-3</v>
+      <c r="D18" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E18" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F18" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D18)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G18" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41996</v>
-      </c>
-      <c r="I18" s="75">
-        <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44553</v>
-      </c>
-      <c r="J18" s="111">
-        <v>9.8598499286413899E-3</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D18)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I18" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D18)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J18" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D19" s="67" t="str">
-        <v>obj_0016c</v>
-      </c>
-      <c r="E19" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S8Y_Quote</v>
-      </c>
-      <c r="F19" s="68">
-        <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.1099999999999999E-2</v>
+      <c r="D19" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F19" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D19)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G19" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41996</v>
-      </c>
-      <c r="I19" s="75">
-        <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44918</v>
-      </c>
-      <c r="J19" s="111">
-        <v>1.119779426389925E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D19)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I19" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D19)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J19" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D20" s="67" t="str">
-        <v>obj_0015f</v>
-      </c>
-      <c r="E20" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S9Y_Quote</v>
-      </c>
-      <c r="F20" s="68">
-        <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.2200000000000003E-2</v>
+      <c r="D20" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D20)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G20" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41996</v>
-      </c>
-      <c r="I20" s="75">
-        <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45287</v>
-      </c>
-      <c r="J20" s="111">
-        <v>1.2337601500711393E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D20)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D20)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D21" s="67" t="str">
-        <v>obj_00163</v>
-      </c>
-      <c r="E21" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S10Y_Quote</v>
-      </c>
-      <c r="F21" s="68">
-        <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.3199999999999998E-2</v>
+      <c r="D21" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D21)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G21" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41996</v>
-      </c>
-      <c r="I21" s="75">
-        <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45649</v>
-      </c>
-      <c r="J21" s="111">
-        <v>1.3379157076345793E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D22" s="67" t="str">
-        <v>obj_00168</v>
-      </c>
-      <c r="E22" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S12Y_Quote</v>
-      </c>
-      <c r="F22" s="68">
-        <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.49E-2</v>
+      <c r="D22" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D22)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G22" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41996</v>
-      </c>
-      <c r="I22" s="75">
-        <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>46379</v>
-      </c>
-      <c r="J22" s="111">
-        <v>1.5177824877847428E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D23" s="67" t="str">
-        <v>obj_00169</v>
-      </c>
-      <c r="E23" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S15Y_Quote</v>
-      </c>
-      <c r="F23" s="68">
-        <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.6799999999999999E-2</v>
+      <c r="D23" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F23" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G23" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41996</v>
-      </c>
-      <c r="I23" s="75">
-        <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>47479</v>
-      </c>
-      <c r="J23" s="111">
-        <v>1.7223528646633676E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D23)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I23" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D23)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J23" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D24" s="67" t="str">
-        <v>obj_0016a</v>
-      </c>
-      <c r="E24" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S20Y_Quote</v>
-      </c>
-      <c r="F24" s="68">
-        <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.8700000000000001E-2</v>
+      <c r="D24" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F24" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G24" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41996</v>
-      </c>
-      <c r="I24" s="75">
-        <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>49305</v>
-      </c>
-      <c r="J24" s="111">
-        <v>1.9314859253361408E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D24)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I24" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D24)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J24" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D25" s="67" t="str">
-        <v>obj_00159</v>
-      </c>
-      <c r="E25" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S25Y_Quote</v>
-      </c>
-      <c r="F25" s="68">
-        <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.9349999999999999E-2</v>
+      <c r="D25" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F25" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G25" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41996</v>
-      </c>
-      <c r="I25" s="75">
-        <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>51127</v>
-      </c>
-      <c r="J25" s="111">
-        <v>1.9972080251221082E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D25)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I25" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D25)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J25" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D26" s="67" t="str">
-        <v>obj_0015e</v>
-      </c>
-      <c r="E26" s="67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D26),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S30Y_Quote</v>
-      </c>
-      <c r="F26" s="68">
-        <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.9550000000000001E-2</v>
+      <c r="D26" s="67" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" s="67" t="e">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D26),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F26" s="68" t="e">
+        <f ca="1">_xll.qlRateHelperRate($D26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G26" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="74">
-        <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41996</v>
-      </c>
-      <c r="I26" s="75">
-        <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>52954</v>
-      </c>
-      <c r="J26" s="111">
-        <v>2.0099702144105676E-2</v>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="74" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate($D26)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I26" s="75" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D26)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J26" s="111" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D27" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E27" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D27),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D27),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F27" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G27" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
         <v>0</v>
       </c>
       <c r="H27" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I27" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J27" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D28" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E28" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D28),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D28),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F28" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G28" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
         <v>0</v>
       </c>
       <c r="H28" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I28" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J28" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D29" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E29" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D29),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D29),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F29" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G29" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
         <v>0</v>
       </c>
       <c r="H29" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I29" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J29" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D30" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E30" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D30),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D30),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F30" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G30" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
         <v>0</v>
       </c>
       <c r="H30" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I30" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J30" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D31" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E31" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D31),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D31),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F31" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G31" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
         <v>0</v>
       </c>
       <c r="H31" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I31" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J31" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D32" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E32" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D32),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D32),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F32" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G32" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
         <v>0</v>
       </c>
       <c r="H32" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I32" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J32" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E33" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D33),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D33),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F33" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G33" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
         <v>0</v>
       </c>
       <c r="H33" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I33" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J33" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E34" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D34),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D34),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F34" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G34" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
         <v>0</v>
       </c>
       <c r="H34" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I34" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J34" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E35" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D35),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D35),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F35" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G35" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
         <v>0</v>
       </c>
       <c r="H35" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I35" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J35" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E36" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D36),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D36),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F36" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G36" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
         <v>0</v>
       </c>
       <c r="H36" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I36" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J36" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E37" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D37),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D37),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F37" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G37" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
         <v>0</v>
       </c>
       <c r="H37" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I37" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J37" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E38" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D38),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D38),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F38" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G38" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
         <v>0</v>
       </c>
       <c r="H38" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I38" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J38" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E39" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D39),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D39),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F39" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G39" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
         <v>0</v>
       </c>
       <c r="H39" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I39" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J39" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E40" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D40),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D40),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F40" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D40)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D40)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G40" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
         <v>0</v>
       </c>
       <c r="H40" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D40)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I40" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D40)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J40" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E41" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D41),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D41),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F41" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D41)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G41" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
         <v>0</v>
       </c>
       <c r="H41" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I41" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J41" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E42" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D42),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D42),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F42" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D42)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D42)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G42" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
         <v>0</v>
       </c>
       <c r="H42" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D42)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I42" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D42)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J42" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E43" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D43),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D43),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F43" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D43)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D43)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G43" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
         <v>0</v>
       </c>
       <c r="H43" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D43)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I43" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D43)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J43" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E44" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D44),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D44),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F44" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D44)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D44)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G44" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
         <v>0</v>
       </c>
       <c r="H44" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D44)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I44" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D44)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J44" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D45" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E45" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D45),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D45),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F45" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D45)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D45)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G45" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
         <v>0</v>
       </c>
       <c r="H45" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D45)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I45" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D45)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J45" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E46" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D46),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D46),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F46" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D46)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D46)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G46" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
         <v>0</v>
       </c>
       <c r="H46" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D46)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I46" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D46)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J46" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E47" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D47),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D47),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F47" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D47)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D47)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G47" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
         <v>0</v>
       </c>
       <c r="H47" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D47)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I47" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D47)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J47" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D48" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E48" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D48),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D48),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F48" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D48)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D48)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G48" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
         <v>0</v>
       </c>
       <c r="H48" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D48)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I48" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D48)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J48" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E49" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D49),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D49),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F49" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D49)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D49)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G49" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
         <v>0</v>
       </c>
       <c r="H49" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D49)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I49" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D49)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J49" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E50" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D50),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D50),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F50" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D50)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D50)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G50" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
         <v>0</v>
       </c>
       <c r="H50" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D50)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I50" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D50)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J50" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D51" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E51" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D51),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D51),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F51" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D51)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D51)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G51" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
         <v>0</v>
       </c>
       <c r="H51" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D51)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I51" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D51)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J51" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D52" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E52" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D52),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D52),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F52" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D52)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D52)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G52" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
         <v>0</v>
       </c>
       <c r="H52" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D52)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I52" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D52)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J52" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D53" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E53" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D53),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D53),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F53" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D53)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D53)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G53" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
         <v>0</v>
       </c>
       <c r="H53" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D53)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I53" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D53)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J53" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D54" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E54" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D54),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D54),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F54" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D54)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D54)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G54" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
         <v>0</v>
       </c>
       <c r="H54" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D54)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I54" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D54)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J54" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D55" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E55" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D55),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D55),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F55" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D55)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D55)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G55" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
         <v>0</v>
       </c>
       <c r="H55" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D55)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D55)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I55" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D55)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D55)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J55" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D56" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E56" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D56),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D56),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F56" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D56)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D56)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G56" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
         <v>0</v>
       </c>
       <c r="H56" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D56)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D56)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I56" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D56)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D56)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J56" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D57" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E57" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D57),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D57),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F57" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D57)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D57)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G57" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
         <v>0</v>
       </c>
       <c r="H57" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D57)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D57)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I57" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D57)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D57)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J57" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D58" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E58" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D58),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D58),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F58" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D58)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D58)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G58" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
         <v>0</v>
       </c>
       <c r="H58" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D58)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D58)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I58" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D58)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D58)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J58" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E59" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D59),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D59),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F59" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D59)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D59)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G59" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
         <v>0</v>
       </c>
       <c r="H59" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D59)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D59)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I59" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D59)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D59)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J59" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E60" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D60),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D60),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F60" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D60)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G60" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
         <v>0</v>
       </c>
       <c r="H60" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D60)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I60" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D60)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J60" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E61" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D61),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D61),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F61" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D61)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D61)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G61" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
         <v>0</v>
       </c>
       <c r="H61" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D61)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D61)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I61" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D61)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D61)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J61" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D62" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E62" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D62),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D62),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F62" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D62)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D62)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G62" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
         <v>0</v>
       </c>
       <c r="H62" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D62)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D62)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I62" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D62)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D62)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J62" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E63" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D63),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D63),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F63" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D63)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D63)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G63" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
         <v>0</v>
       </c>
       <c r="H63" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D63)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D63)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I63" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D63)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D63)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J63" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E64" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D64),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D64),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F64" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D64)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D64)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G64" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
         <v>0</v>
       </c>
       <c r="H64" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D64)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D64)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I64" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D64)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D64)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J64" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E65" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D65),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D65),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F65" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D65)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D65)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G65" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
         <v>0</v>
       </c>
       <c r="H65" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D65)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D65)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I65" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D65)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D65)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J65" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D66" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E66" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D66),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D66),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F66" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D66)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D66)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G66" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
         <v>0</v>
       </c>
       <c r="H66" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D66)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D66)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I66" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D66)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D66)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J66" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D67" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E67" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D67),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D67),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F67" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D67)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D67)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G67" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
         <v>0</v>
       </c>
       <c r="H67" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D67)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D67)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I67" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D67)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D67)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J67" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D68" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E68" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D68),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D68),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F68" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D68)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D68)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G68" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
         <v>0</v>
       </c>
       <c r="H68" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D68)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D68)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I68" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D68)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D68)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J68" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D69" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E69" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D69),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D69),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F69" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D69)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D69)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G69" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
         <v>0</v>
       </c>
       <c r="H69" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D69)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D69)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I69" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D69)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D69)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J69" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D70" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E70" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D70),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D70),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F70" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D70)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D70)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G70" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
         <v>0</v>
       </c>
       <c r="H70" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D70)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D70)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I70" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D70)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D70)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J70" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E71" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D71),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D71),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F71" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D71)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D71)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G71" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
         <v>0</v>
       </c>
       <c r="H71" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D71)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D71)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I71" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D71)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D71)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J71" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D72" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E72" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D72),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D72),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F72" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D72)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D72)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G72" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
         <v>0</v>
       </c>
       <c r="H72" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D72)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D72)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I72" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D72)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D72)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J72" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D73" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E73" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D73),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D73),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F73" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D73)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D73)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G73" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
         <v>0</v>
       </c>
       <c r="H73" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D73)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D73)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I73" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D73)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D73)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J73" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D74" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E74" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D74),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D74),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F74" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D74)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D74)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G74" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
         <v>0</v>
       </c>
       <c r="H74" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D74)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D74)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I74" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D74)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D74)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J74" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D75" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E75" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D75),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D75),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F75" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D75)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D75)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G75" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
         <v>0</v>
       </c>
       <c r="H75" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D75)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D75)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I75" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D75)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D75)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J75" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D76" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E76" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D76),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D76),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F76" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D76)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D76)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G76" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
         <v>0</v>
       </c>
       <c r="H76" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D76)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D76)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I76" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D76)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D76)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J76" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D77" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E77" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D77),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D77),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F77" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D77)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D77)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G77" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
         <v>0</v>
       </c>
       <c r="H77" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D77)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D77)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I77" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D77)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D77)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J77" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D78" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E78" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D78),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D78),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F78" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D78)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D78)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G78" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
         <v>0</v>
       </c>
       <c r="H78" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D78)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D78)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I78" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D78)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D78)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J78" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D79" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E79" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D79),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D79),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F79" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D79)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D79)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G79" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
         <v>0</v>
       </c>
       <c r="H79" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D79)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D79)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I79" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D79)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D79)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J79" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D80" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E80" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D80),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D80),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F80" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D80)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D80)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G80" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
         <v>0</v>
       </c>
       <c r="H80" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D80)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D80)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I80" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D80)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D80)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J80" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E81" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D81),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D81),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F81" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D81)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D81)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G81" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
         <v>0</v>
       </c>
       <c r="H81" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D81)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D81)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I81" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D81)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D81)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J81" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D82" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E82" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D82),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D82),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F82" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D82)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D82)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G82" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
         <v>0</v>
       </c>
       <c r="H82" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D82)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D82)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I82" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D82)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D82)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J82" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D83" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E83" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D83),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D83),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F83" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D83)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D83)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G83" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
         <v>0</v>
       </c>
       <c r="H83" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D83)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D83)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I83" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D83)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D83)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J83" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D84" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E84" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D84),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D84),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F84" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D84)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D84)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G84" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
         <v>0</v>
       </c>
       <c r="H84" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D84)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D84)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I84" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D84)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D84)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J84" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D85" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E85" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D85),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D85),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F85" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D85)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D85)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G85" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
         <v>0</v>
       </c>
       <c r="H85" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D85)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D85)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I85" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D85)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D85)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J85" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D86" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E86" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D86),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D86),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F86" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D86)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D86)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G86" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
         <v>0</v>
       </c>
       <c r="H86" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D86)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D86)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I86" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D86)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D86)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J86" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D87" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E87" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D87),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D87),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F87" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D87)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D87)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G87" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
         <v>0</v>
       </c>
       <c r="H87" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D87)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D87)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I87" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D87)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D87)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J87" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D88" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E88" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D88),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D88),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F88" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D88)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D88)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G88" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
         <v>0</v>
       </c>
       <c r="H88" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D88)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D88)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I88" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D88)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D88)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J88" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D89" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E89" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D89),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D89),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F89" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D89)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D89)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G89" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
         <v>0</v>
       </c>
       <c r="H89" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D89)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D89)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I89" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D89)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D89)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J89" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D90" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E90" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D90),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D90),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F90" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D90)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D90)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G90" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
         <v>0</v>
       </c>
       <c r="H90" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D90)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D90)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I90" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D90)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D90)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J90" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D91" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E91" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D91),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D91),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F91" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D91)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D91)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G91" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
         <v>0</v>
       </c>
       <c r="H91" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D91)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D91)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I91" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D91)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D91)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J91" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D92" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E92" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D92),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D92),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F92" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D92)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D92)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G92" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
         <v>0</v>
       </c>
       <c r="H92" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D92)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D92)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I92" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D92)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D92)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J92" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D93" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E93" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D93),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D93),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F93" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D93)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D93)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G93" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
         <v>0</v>
       </c>
       <c r="H93" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D93)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D93)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I93" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D93)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D93)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J93" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D94" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E94" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D94),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D94),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F94" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D94)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D94)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G94" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
         <v>0</v>
       </c>
       <c r="H94" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D94)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D94)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I94" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D94)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D94)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J94" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="95" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D95" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E95" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D95),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D95),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F95" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D95)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D95)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G95" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
         <v>0</v>
       </c>
       <c r="H95" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D95)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D95)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I95" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D95)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D95)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J95" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="96" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D96" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E96" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D96),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D96),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F96" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D96)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D96)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G96" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
         <v>0</v>
       </c>
       <c r="H96" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D96)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D96)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I96" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D96)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D96)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J96" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D97" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E97" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D97),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D97),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F97" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D97)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D97)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G97" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
         <v>0</v>
       </c>
       <c r="H97" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D97)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D97)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I97" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D97)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D97)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J97" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D98" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E98" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D98),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D98),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F98" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D98)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D98)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G98" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
         <v>0</v>
       </c>
       <c r="H98" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D98)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D98)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I98" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D98)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D98)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J98" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D99" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E99" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D99),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D99),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F99" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D99)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D99)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G99" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
         <v>0</v>
       </c>
       <c r="H99" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D99)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D99)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I99" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D99)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D99)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J99" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D100" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E100" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D100),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D100),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F100" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D100)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G100" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
         <v>0</v>
       </c>
       <c r="H100" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D100)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I100" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D100)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J100" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D101" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E101" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D101),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D101),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F101" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D101)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D101)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G101" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
         <v>0</v>
       </c>
       <c r="H101" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D101)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D101)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I101" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D101)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D101)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J101" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D102" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E102" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D102),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D102),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F102" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D102)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D102)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G102" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
         <v>0</v>
       </c>
       <c r="H102" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D102)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D102)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I102" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D102)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D102)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J102" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D103" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E103" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D103),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D103),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F103" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D103)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D103)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G103" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
         <v>0</v>
       </c>
       <c r="H103" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D103)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D103)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I103" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D103)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D103)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J103" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D104" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E104" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D104),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D104),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F104" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D104)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D104)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G104" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
         <v>0</v>
       </c>
       <c r="H104" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D104)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D104)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I104" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D104)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D104)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J104" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D105" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E105" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D105),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D105),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F105" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D105)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D105)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G105" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
         <v>0</v>
       </c>
       <c r="H105" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D105)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D105)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I105" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D105)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D105)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J105" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D106" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E106" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D106),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D106),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F106" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D106)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D106)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G106" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
         <v>0</v>
       </c>
       <c r="H106" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D106)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D106)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I106" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D106)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D106)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J106" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D107" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E107" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D107),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D107),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F107" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D107)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D107)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G107" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
         <v>0</v>
       </c>
       <c r="H107" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D107)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D107)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I107" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D107)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D107)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J107" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D108" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E108" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D108),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D108),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F108" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D108)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D108)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G108" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
         <v>0</v>
       </c>
       <c r="H108" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D108)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D108)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I108" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D108)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D108)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J108" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D109" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E109" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D109),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D109),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F109" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D109)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D109)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G109" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
         <v>0</v>
       </c>
       <c r="H109" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D109)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D109)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I109" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D109)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D109)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J109" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D110" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E110" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D110),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D110),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F110" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D110)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D110)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G110" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
         <v>0</v>
       </c>
       <c r="H110" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D110)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D110)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I110" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D110)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D110)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J110" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D111" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E111" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D111),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D111),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F111" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D111)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D111)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G111" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
         <v>0</v>
       </c>
       <c r="H111" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D111)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D111)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I111" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D111)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D111)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J111" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D112" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E112" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D112),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D112),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F112" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D112)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D112)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G112" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
         <v>0</v>
       </c>
       <c r="H112" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D112)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D112)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I112" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D112)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D112)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J112" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D113" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E113" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D113),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D113),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F113" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D113)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D113)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G113" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
         <v>0</v>
       </c>
       <c r="H113" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D113)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D113)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I113" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D113)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D113)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J113" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D114" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E114" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D114),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D114),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F114" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D114)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D114)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G114" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
         <v>0</v>
       </c>
       <c r="H114" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D114)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D114)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I114" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D114)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D114)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J114" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D115" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E115" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D115),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D115),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F115" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D115)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D115)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G115" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
         <v>0</v>
       </c>
       <c r="H115" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D115)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D115)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I115" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D115)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D115)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J115" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D116" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E116" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D116),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D116),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F116" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D116)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D116)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G116" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
         <v>0</v>
       </c>
       <c r="H116" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D116)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D116)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I116" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D116)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D116)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J116" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D117" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E117" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D117),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D117),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F117" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D117)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D117)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G117" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
         <v>0</v>
       </c>
       <c r="H117" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D117)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D117)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I117" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D117)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D117)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J117" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D118" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E118" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D118),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D118),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F118" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D118)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D118)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G118" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
         <v>0</v>
       </c>
       <c r="H118" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D118)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D118)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I118" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D118)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D118)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J118" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D119" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E119" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D119),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D119),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F119" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D119)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D119)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G119" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
         <v>0</v>
       </c>
       <c r="H119" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D119)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D119)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I119" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D119)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D119)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J119" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D120" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E120" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D120),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D120),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F120" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D120)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D120)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G120" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
         <v>0</v>
       </c>
       <c r="H120" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D120)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D120)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I120" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D120)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D120)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J120" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="121" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D121" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E121" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D121),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D121),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F121" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D121)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D121)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G121" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
         <v>0</v>
       </c>
       <c r="H121" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D121)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D121)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I121" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D121)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D121)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J121" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D122" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E122" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D122),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D122),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F122" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D122)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D122)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G122" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
         <v>0</v>
       </c>
       <c r="H122" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D122)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D122)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I122" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D122)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D122)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J122" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="123" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D123" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E123" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D123),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D123),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F123" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D123)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D123)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G123" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
         <v>0</v>
       </c>
       <c r="H123" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D123)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D123)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I123" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D123)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D123)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J123" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D124" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E124" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D124),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D124),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F124" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D124)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D124)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G124" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
         <v>0</v>
       </c>
       <c r="H124" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D124)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D124)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I124" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D124)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D124)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J124" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="125" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D125" s="67" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E125" s="67" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D125),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D125),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F125" s="68" t="e">
-        <f>_xll.qlRateHelperRate($D125)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D125)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G125" s="68">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
         <v>0</v>
       </c>
       <c r="H125" s="74" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D125)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D125)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I125" s="75" t="e">
-        <f>_xll.qlRateHelperLatestDate($D125)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D125)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J125" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="126" spans="4:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D126" s="71" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E126" s="71" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D126),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D126),"LastFixing","D"),"Libor","")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F126" s="72" t="e">
-        <f>_xll.qlRateHelperRate($D126)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperRate($D126)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G126" s="72">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
+        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
         <v>0</v>
       </c>
       <c r="H126" s="76" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D126)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperEarliestDate($D126)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I126" s="77" t="e">
-        <f>_xll.qlRateHelperLatestDate($D126)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D126)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J126" s="111" t="e">
-        <v>#N/A</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -10060,9 +10309,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(J3:J15,SerializationPath&amp;J1,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="K2" s="48" t="str">
-        <f>_xll.ohRangeRetrieveError(J2)</f>
-        <v/>
+      <c r="K2" s="48" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L2" s="45"/>
     </row>
@@ -10072,7 +10321,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="163" t="s">
         <v>113</v>
@@ -10086,17 +10335,17 @@
       <c r="G3" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="179" t="str">
-        <f>_xll.qlIborIndex(,,"1D",C3,Currency,D3,E3,F3,G3,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b0#0002</v>
+      <c r="H3" s="179" t="e">
+        <f ca="1">_xll.qlIborIndex(,,"1D",C3,Currency,D3,E3,F3,G3,,,Trigger,ObjectOverwrite)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I3" s="180" t="str">
         <f t="shared" ref="I3:I20" si="0">Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
         <v>SEKOND_Quote</v>
       </c>
-      <c r="J3" s="181" t="str">
-        <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b1#0002</v>
+      <c r="J3" s="181" t="e">
+        <f ca="1">_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="169"/>
       <c r="L3" s="45"/>
@@ -10107,7 +10356,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="170" t="s">
         <v>113</v>
@@ -10121,17 +10370,17 @@
       <c r="G4" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="182" t="str">
-        <f>_xll.qlIborIndex(,,"1D",C4,Currency,D4,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017e#0004</v>
+      <c r="H4" s="182" t="e">
+        <f ca="1">_xll.qlIborIndex(,,"1D",C4,Currency,D4,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEKTND_Quote</v>
       </c>
-      <c r="J4" s="183" t="str">
-        <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017f#0004</v>
+      <c r="J4" s="183" t="e">
+        <f ca="1">_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="174"/>
       <c r="L4" s="45"/>
@@ -11400,9 +11649,9 @@
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I18" s="174" t="str">
+      <c r="I18" s="174" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H18)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F16_Quote'</v>
+        <v>#NAME?</v>
       </c>
       <c r="J18" s="45" t="s">
         <v>90</v>
@@ -11435,9 +11684,9 @@
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I19" s="174" t="str">
+      <c r="I19" s="174" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H19)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F17_Quote'</v>
+        <v>#NAME?</v>
       </c>
       <c r="J19" s="45" t="s">
         <v>90</v>
@@ -11470,9 +11719,9 @@
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I20" s="174" t="str">
+      <c r="I20" s="174" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H20)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F18_Quote'</v>
+        <v>#NAME?</v>
       </c>
       <c r="J20" s="45" t="s">
         <v>90</v>
@@ -11505,9 +11754,9 @@
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I21" s="174" t="str">
+      <c r="I21" s="174" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H21)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F19_Quote'</v>
+        <v>#NAME?</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>90</v>
@@ -11540,9 +11789,9 @@
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I22" s="178" t="str">
+      <c r="I22" s="178" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H22)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F20_Quote'</v>
+        <v>#NAME?</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>90</v>

--- a/QuantLibXL/Data2/XLS/SEK_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="12195" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="12765" yWindow="-15" windowWidth="6450" windowHeight="12195" tabRatio="726" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="IMMFutSeries">IF(CheckIMMFut=FALSE,IMMFutNull,IMMFutQuotes)</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$21</definedName>
-    <definedName name="MinDistance">RateHelpers!$G$2:$G$76</definedName>
+    <definedName name="MinDistance">RateHelpers!$G$2:$G$61</definedName>
     <definedName name="MoneyMarketDayCounter">'General Settings'!$K$14</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
@@ -44,9 +44,9 @@
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$K$12</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
-    <definedName name="RateHelpers">RateHelpers!$A$2:$A$76</definedName>
-    <definedName name="RateHelpersIncluded">RateHelpers!$E$2:$E$76</definedName>
-    <definedName name="RateHelpersPriority">RateHelpers!$F$2:$F$76</definedName>
+    <definedName name="RateHelpers">RateHelpers!$A$2:$A$61</definedName>
+    <definedName name="RateHelpersIncluded">RateHelpers!$E$2:$E$61</definedName>
+    <definedName name="RateHelpersPriority">RateHelpers!$F$2:$F$61</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$K$5</definedName>
     <definedName name="Serialize">'General Settings'!$K$4</definedName>
@@ -322,9 +322,6 @@
     <t>Error</t>
   </si>
   <si>
-    <t>DeposBeforeFirstFuturesStartDatePlusOne</t>
-  </si>
-  <si>
     <t>DepoFuturesPriority</t>
   </si>
   <si>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t>Instruments Selected</t>
+  </si>
+  <si>
+    <t>DeposBeforeFirstFuturesStartDate</t>
   </si>
 </sst>
 </file>
@@ -1708,13 +1708,14 @@
       <sheetName val="OIS"/>
       <sheetName val="Swaps3M"/>
       <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BasisSwap1M3M"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="11">
           <cell r="J11" t="str">
-            <v>SEKSTD#0057</v>
+            <v>SEKSTD#0000</v>
           </cell>
         </row>
       </sheetData>
@@ -1724,6 +1725,7 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2044,7 +2046,7 @@
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -2052,7 +2054,7 @@
       <c r="F2" s="90"/>
       <c r="G2" s="27"/>
       <c r="I2" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="84"/>
       <c r="K2" s="84"/>
@@ -2095,10 +2097,10 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2106,7 +2108,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="40"/>
       <c r="J4" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="34" t="b">
         <v>0</v>
@@ -2136,7 +2138,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -2147,7 +2149,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="40"/>
       <c r="J5" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="38"/>
@@ -2175,10 +2177,10 @@
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2186,7 +2188,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="40"/>
       <c r="J6" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="31" t="b">
         <v>1</v>
@@ -2216,7 +2218,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>Months&amp;IF(UPPER(Currency)="EUR","E","L")</f>
@@ -2254,7 +2256,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
@@ -2289,7 +2291,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>Currency&amp;"_"&amp;$E$16&amp;"RH"</f>
@@ -2300,7 +2302,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="3"/>
       <c r="I9" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="84"/>
       <c r="K9" s="84"/>
@@ -2329,7 +2331,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6" t="b">
         <v>1</v>
@@ -2366,7 +2368,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="4"/>
@@ -2375,10 +2377,10 @@
       <c r="H11" s="3"/>
       <c r="I11" s="33"/>
       <c r="J11" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="3"/>
@@ -2405,7 +2407,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="22" t="b">
         <v>1</v>
@@ -2416,10 +2418,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="33"/>
       <c r="J12" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="3"/>
@@ -2453,10 +2455,10 @@
       <c r="H13" s="3"/>
       <c r="I13" s="33"/>
       <c r="J13" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="3"/>
@@ -2483,11 +2485,11 @@
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="21" t="e">
-        <f ca="1">_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>#NAME?</v>
+        <v>48</v>
+      </c>
+      <c r="D14" s="21" t="str">
+        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
+        <v>_SEKYCSTD#0020</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2495,10 +2497,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="58"/>
       <c r="J14" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="57"/>
       <c r="M14" s="3"/>
@@ -2527,12 +2529,12 @@
       <c r="C15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="20" t="e">
-        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve)</f>
-        <v>#NAME?</v>
+      <c r="D15" s="20" t="str">
+        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
+        <v/>
       </c>
       <c r="E15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="27"/>
@@ -2565,14 +2567,14 @@
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="18" t="str">
         <f>"_"&amp;Currency&amp;$E$16</f>
         <v>_SEKYCSTD</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="27"/>
@@ -2605,10 +2607,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2642,10 +2644,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2679,7 +2681,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="15" t="e">
         <f>NA()</f>
@@ -2717,10 +2719,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2754,10 +2756,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2823,13 +2825,13 @@
     <row r="23" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="9" t="e">
-        <f ca="1">_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D23" s="8" t="e">
-        <f ca="1">MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>#NAME?</v>
+      <c r="C23" s="9">
+        <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
+        <v>42017</v>
+      </c>
+      <c r="D23" s="8">
+        <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
+        <v>1.7764620170327691E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2862,13 +2864,13 @@
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="7" t="e">
-        <f ca="1">MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D24" s="6" t="e">
-        <f ca="1">MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>#NAME?</v>
+      <c r="C24" s="7">
+        <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
+        <v>52975</v>
+      </c>
+      <c r="D24" s="6">
+        <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
+        <v>7.1986040128283867E-4</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2904,9 +2906,9 @@
       <c r="C25" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="60" t="e">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!J1)</f>
-        <v>#NAME?</v>
+      <c r="D25" s="60" t="str">
+        <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
+        <v/>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2941,11 +2943,11 @@
       <c r="B26" s="5"/>
       <c r="C26" s="7" t="str">
         <f>[1]Stibor!$J$11</f>
-        <v>SEKSTD#0057</v>
-      </c>
-      <c r="D26" s="6" t="e">
-        <f ca="1">_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
-        <v>#NAME?</v>
+        <v>SEKSTD#0000</v>
+      </c>
+      <c r="D26" s="6" t="b">
+        <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
+        <v>1</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4259,7 +4261,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="188" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>30</v>
@@ -4284,17 +4286,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="186" t="e">
-        <f ca="1">Deposits!J3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B2" s="96" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A2),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+      <c r="A2" s="186" t="str">
+        <f>Deposits!J3</f>
+        <v>obj_00141#0006</v>
+      </c>
+      <c r="B2" s="96" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A2),"LastFixing","D"),"Libor","")</f>
+        <v>SEKOND_Quote</v>
       </c>
       <c r="C2" s="97" t="e">
-        <f ca="1">_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D2" s="97"/>
       <c r="E2" s="54" t="b">
@@ -4306,13 +4308,13 @@
       <c r="G2" s="54">
         <v>1</v>
       </c>
-      <c r="H2" s="98" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="99" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="H2" s="98">
+        <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
+        <v>42016</v>
+      </c>
+      <c r="I2" s="99">
+        <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
+        <v>42017</v>
       </c>
       <c r="J2" s="52">
         <v>10</v>
@@ -4322,17 +4324,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="186" t="e">
-        <f ca="1">Deposits!J4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B3" s="96" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A3),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C3" s="97" t="e">
-        <f ca="1">_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="A3" s="186" t="str">
+        <f>Deposits!J4</f>
+        <v>obj_00143#0006</v>
+      </c>
+      <c r="B3" s="96" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A3),"LastFixing","D"),"Libor","")</f>
+        <v>SEKTND_Quote</v>
+      </c>
+      <c r="C3" s="97">
+        <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="D3" s="97"/>
       <c r="E3" s="54" t="b">
@@ -4344,19 +4346,19 @@
       <c r="G3" s="54">
         <v>1</v>
       </c>
-      <c r="H3" s="98" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I3" s="99" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="H3" s="98">
+        <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
+        <v>42017</v>
+      </c>
+      <c r="I3" s="99">
+        <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
+        <v>42018</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="186" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00180#0004</v>
+        <v>obj_0016b#0005</v>
       </c>
       <c r="B4" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A4),"LastFixing","D"),"Libor","")</f>
@@ -4378,17 +4380,17 @@
       </c>
       <c r="H4" s="98">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I4" s="99">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>42003</v>
+        <v>42020</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="186" t="str">
         <f>Deposits!J6</f>
-        <v>obj_00189#0004</v>
+        <v>obj_0017b#0005</v>
       </c>
       <c r="B5" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A5),"LastFixing","D"),"Libor","")</f>
@@ -4396,7 +4398,7 @@
       </c>
       <c r="C5" s="97">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
-        <v>1.0200000000000001E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="D5" s="97"/>
       <c r="E5" s="54" t="b">
@@ -4410,11 +4412,11 @@
       </c>
       <c r="H5" s="98">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I5" s="99">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
-        <v>42003</v>
+        <v>42025</v>
       </c>
       <c r="J5" s="52">
         <v>60</v>
@@ -4426,7 +4428,7 @@
     <row r="6" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="186" t="str">
         <f>Deposits!J7</f>
-        <v>obj_00197#0004</v>
+        <v>obj_00180#0005</v>
       </c>
       <c r="B6" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A6),"LastFixing","D"),"Libor","")</f>
@@ -4448,17 +4450,17 @@
       </c>
       <c r="H6" s="98">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I6" s="99">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
-        <v>42011</v>
+        <v>42032</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="186" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00192#0004</v>
+        <v>obj_00184#0005</v>
       </c>
       <c r="B7" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A7),"LastFixing","D"),"Libor","")</f>
@@ -4480,17 +4482,17 @@
       </c>
       <c r="H7" s="98">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I7" s="99">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>42017</v>
+        <v>42039</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="186" t="str">
         <f>Deposits!J9</f>
-        <v>obj_0019e#0004</v>
+        <v>obj_00186#0005</v>
       </c>
       <c r="B8" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A8),"LastFixing","D"),"Libor","")</f>
@@ -4498,7 +4500,7 @@
       </c>
       <c r="C8" s="97">
         <f>_xll.qlRateHelperQuoteValue($A8,Trigger)</f>
-        <v>1.6899999999999999E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="D8" s="97"/>
       <c r="E8" s="54" t="b">
@@ -4512,17 +4514,17 @@
       </c>
       <c r="H8" s="98">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I8" s="99">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>42027</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="186" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00198#0004</v>
+        <v>obj_00185#0005</v>
       </c>
       <c r="B9" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A9),"LastFixing","D"),"Libor","")</f>
@@ -4530,7 +4532,7 @@
       </c>
       <c r="C9" s="97">
         <f>_xll.qlRateHelperQuoteValue($A9,Trigger)</f>
-        <v>2.1000000000000003E-3</v>
+        <v>1.91E-3</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="54" t="b">
@@ -4544,17 +4546,17 @@
       </c>
       <c r="H9" s="98">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I9" s="99">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
-        <v>42058</v>
+        <v>42079</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="186" t="str">
         <f>Deposits!J11</f>
-        <v>obj_00195#0004</v>
+        <v>obj_0017c#0005</v>
       </c>
       <c r="B10" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A10),"LastFixing","D"),"Libor","")</f>
@@ -4562,7 +4564,7 @@
       </c>
       <c r="C10" s="97">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
-        <v>2.5900000000000003E-3</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="D10" s="97"/>
       <c r="E10" s="54" t="b">
@@ -4576,17 +4578,17 @@
       </c>
       <c r="H10" s="98">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I10" s="99">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
-        <v>42086</v>
+        <v>42108</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="186" t="str">
         <f>Deposits!J12</f>
-        <v>obj_00199#0004</v>
+        <v>obj_00188#0005</v>
       </c>
       <c r="B11" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A11),"LastFixing","D"),"Libor","")</f>
@@ -4608,17 +4610,17 @@
       </c>
       <c r="H11" s="98">
         <f>_xll.qlRateHelperEarliestDate($A11,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I11" s="99">
         <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
-        <v>42117</v>
+        <v>42139</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="186" t="str">
         <f>Deposits!J13</f>
-        <v>obj_0019c#0004</v>
+        <v>obj_00181#0005</v>
       </c>
       <c r="B12" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A12),"LastFixing","D"),"Libor","")</f>
@@ -4640,17 +4642,17 @@
       </c>
       <c r="H12" s="98">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I12" s="99">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
-        <v>42150</v>
+        <v>42170</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="186" t="str">
         <f>Deposits!J14</f>
-        <v>obj_0019b#0004</v>
+        <v>obj_0017f#0005</v>
       </c>
       <c r="B13" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A13),"LastFixing","D"),"Libor","")</f>
@@ -4658,7 +4660,7 @@
       </c>
       <c r="C13" s="97">
         <f>_xll.qlRateHelperQuoteValue($A13,Trigger)</f>
-        <v>3.4599999999999995E-3</v>
+        <v>3.3799999999999998E-3</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="54" t="b">
@@ -4672,17 +4674,17 @@
       </c>
       <c r="H13" s="98">
         <f>_xll.qlRateHelperEarliestDate($A13,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I13" s="99">
         <f>_xll.qlRateHelperLatestDate($A13,Trigger)</f>
-        <v>42178</v>
+        <v>42199</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="186" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00191#0004</v>
+        <v>obj_00182#0005</v>
       </c>
       <c r="B14" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A14),"LastFixing","D"),"Libor","")</f>
@@ -4704,17 +4706,17 @@
       </c>
       <c r="H14" s="98">
         <f>_xll.qlRateHelperEarliestDate($A14,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I14" s="99">
         <f>_xll.qlRateHelperLatestDate($A14,Trigger)</f>
-        <v>42208</v>
+        <v>42230</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="186" t="str">
         <f>Deposits!J16</f>
-        <v>obj_0019d#0004</v>
+        <v>obj_00183#0005</v>
       </c>
       <c r="B15" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A15),"LastFixing","D"),"Libor","")</f>
@@ -4736,17 +4738,17 @@
       </c>
       <c r="H15" s="98">
         <f>_xll.qlRateHelperEarliestDate($A15,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I15" s="99">
         <f>_xll.qlRateHelperLatestDate($A15,Trigger)</f>
-        <v>42240</v>
+        <v>42261</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="186" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0019a#0004</v>
+        <v>obj_0017d#0005</v>
       </c>
       <c r="B16" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A16),"LastFixing","D"),"Libor","")</f>
@@ -4768,17 +4770,17 @@
       </c>
       <c r="H16" s="98">
         <f>_xll.qlRateHelperEarliestDate($A16,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I16" s="99">
         <f>_xll.qlRateHelperLatestDate($A16,Trigger)</f>
-        <v>42270</v>
+        <v>42291</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="186" t="str">
         <f>Deposits!J18</f>
-        <v>obj_00196#0004</v>
+        <v>obj_0017e#0005</v>
       </c>
       <c r="B17" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A17),"LastFixing","D"),"Libor","")</f>
@@ -4800,17 +4802,17 @@
       </c>
       <c r="H17" s="98">
         <f>_xll.qlRateHelperEarliestDate($A17,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I17" s="99">
         <f>_xll.qlRateHelperLatestDate($A17,Trigger)</f>
-        <v>42300</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="186" t="str">
         <f>Deposits!J19</f>
-        <v>obj_00193#0004</v>
+        <v>obj_00187#0005</v>
       </c>
       <c r="B18" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A18),"LastFixing","D"),"Libor","")</f>
@@ -4832,17 +4834,17 @@
       </c>
       <c r="H18" s="98">
         <f>_xll.qlRateHelperEarliestDate($A18,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I18" s="99">
         <f>_xll.qlRateHelperLatestDate($A18,Trigger)</f>
-        <v>42331</v>
+        <v>42352</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="186" t="str">
         <f>Deposits!J20</f>
-        <v>obj_00194#0004</v>
+        <v>obj_00189#0005</v>
       </c>
       <c r="B19" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A19),"LastFixing","D"),"Libor","")</f>
@@ -4864,17 +4866,17 @@
       </c>
       <c r="H19" s="98">
         <f>_xll.qlRateHelperEarliestDate($A19,Trigger)</f>
-        <v>41996</v>
+        <v>42018</v>
       </c>
       <c r="I19" s="99">
         <f>_xll.qlRateHelperLatestDate($A19,Trigger)</f>
-        <v>42361</v>
+        <v>42383</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="185" t="str">
         <f>'IMM FRA'!H3</f>
-        <v>obj_00171#0004</v>
+        <v>obj_0015b#0005</v>
       </c>
       <c r="B20" s="106" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A20),"LastFixing","D"),"Libor","")</f>
@@ -4882,7 +4884,7 @@
       </c>
       <c r="C20" s="132">
         <f>_xll.qlRateHelperQuoteValue(A20,Trigger)</f>
-        <v>99.765000000000001</v>
+        <v>99.777500000000003</v>
       </c>
       <c r="D20" s="107">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A20,Trigger)</f>
@@ -4909,7 +4911,7 @@
     <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="186" t="str">
         <f>'IMM FRA'!H4</f>
-        <v>obj_00176#0004</v>
+        <v>obj_00167#0005</v>
       </c>
       <c r="B21" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A21),"LastFixing","D"),"Libor","")</f>
@@ -4917,7 +4919,7 @@
       </c>
       <c r="C21" s="105">
         <f>_xll.qlRateHelperQuoteValue(A21,Trigger)</f>
-        <v>99.77000000000001</v>
+        <v>99.805000000000007</v>
       </c>
       <c r="D21" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A21,Trigger)</f>
@@ -4944,7 +4946,7 @@
     <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="186" t="str">
         <f>'IMM FRA'!H5</f>
-        <v>obj_00178#0004</v>
+        <v>obj_00163#0005</v>
       </c>
       <c r="B22" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A22),"LastFixing","D"),"Libor","")</f>
@@ -4952,7 +4954,7 @@
       </c>
       <c r="C22" s="105">
         <f>_xll.qlRateHelperQuoteValue(A22,Trigger)</f>
-        <v>99.77000000000001</v>
+        <v>99.814999999999998</v>
       </c>
       <c r="D22" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A22,Trigger)</f>
@@ -4979,7 +4981,7 @@
     <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="186" t="str">
         <f>'IMM FRA'!H6</f>
-        <v>obj_00172#0004</v>
+        <v>obj_0015c#0005</v>
       </c>
       <c r="B23" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A23),"LastFixing","D"),"Libor","")</f>
@@ -4987,7 +4989,7 @@
       </c>
       <c r="C23" s="105">
         <f>_xll.qlRateHelperQuoteValue(A23,Trigger)</f>
-        <v>99.75500000000001</v>
+        <v>99.81</v>
       </c>
       <c r="D23" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A23,Trigger)</f>
@@ -5014,7 +5016,7 @@
     <row r="24" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="186" t="str">
         <f>'IMM FRA'!H7</f>
-        <v>obj_00175#0004</v>
+        <v>obj_00169#0005</v>
       </c>
       <c r="B24" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A24),"LastFixing","D"),"Libor","")</f>
@@ -5022,7 +5024,7 @@
       </c>
       <c r="C24" s="105">
         <f>_xll.qlRateHelperQuoteValue(A24,Trigger)</f>
-        <v>99.72</v>
+        <v>99.787499999999994</v>
       </c>
       <c r="D24" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A24,Trigger)</f>
@@ -5049,7 +5051,7 @@
     <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="186" t="str">
         <f>'IMM FRA'!H8</f>
-        <v>obj_00173#0004</v>
+        <v>obj_00160#0005</v>
       </c>
       <c r="B25" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A25),"LastFixing","D"),"Libor","")</f>
@@ -5057,7 +5059,7 @@
       </c>
       <c r="C25" s="105">
         <f>_xll.qlRateHelperQuoteValue(A25,Trigger)</f>
-        <v>99.674999999999997</v>
+        <v>99.752499999999998</v>
       </c>
       <c r="D25" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A25,Trigger)</f>
@@ -5084,7 +5086,7 @@
     <row r="26" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="186" t="str">
         <f>'IMM FRA'!H9</f>
-        <v>obj_0017b#0004</v>
+        <v>obj_00165#0005</v>
       </c>
       <c r="B26" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A26),"LastFixing","D"),"Libor","")</f>
@@ -5092,7 +5094,7 @@
       </c>
       <c r="C26" s="105">
         <f>_xll.qlRateHelperQuoteValue(A26,Trigger)</f>
-        <v>99.625</v>
+        <v>99.704999999999998</v>
       </c>
       <c r="D26" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A26,Trigger)</f>
@@ -5119,7 +5121,7 @@
     <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="186" t="str">
         <f>'IMM FRA'!H10</f>
-        <v>obj_00179#0004</v>
+        <v>obj_0015e#0005</v>
       </c>
       <c r="B27" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A27),"LastFixing","D"),"Libor","")</f>
@@ -5127,7 +5129,7 @@
       </c>
       <c r="C27" s="105">
         <f>_xll.qlRateHelperQuoteValue(A27,Trigger)</f>
-        <v>99.555000000000007</v>
+        <v>99.644999999999996</v>
       </c>
       <c r="D27" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A27,Trigger)</f>
@@ -5154,7 +5156,7 @@
     <row r="28" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="186" t="str">
         <f>'IMM FRA'!H11</f>
-        <v>obj_00174#0004</v>
+        <v>obj_0015d#0005</v>
       </c>
       <c r="B28" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A28),"LastFixing","D"),"Libor","")</f>
@@ -5162,7 +5164,7 @@
       </c>
       <c r="C28" s="105">
         <f>_xll.qlRateHelperQuoteValue(A28,Trigger)</f>
-        <v>99.475999999999999</v>
+        <v>99.577500000000001</v>
       </c>
       <c r="D28" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A28,Trigger)</f>
@@ -5189,7 +5191,7 @@
     <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="186" t="str">
         <f>'IMM FRA'!H12</f>
-        <v>obj_0016f#0004</v>
+        <v>obj_00162#0005</v>
       </c>
       <c r="B29" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A29),"LastFixing","D"),"Libor","")</f>
@@ -5197,7 +5199,7 @@
       </c>
       <c r="C29" s="105">
         <f>_xll.qlRateHelperQuoteValue(A29,Trigger)</f>
-        <v>99.397000000000006</v>
+        <v>99.504999999999995</v>
       </c>
       <c r="D29" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A29,Trigger)</f>
@@ -5224,7 +5226,7 @@
     <row r="30" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="186" t="str">
         <f>'IMM FRA'!H13</f>
-        <v>obj_00177#0004</v>
+        <v>obj_00161#0005</v>
       </c>
       <c r="B30" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A30),"LastFixing","D"),"Libor","")</f>
@@ -5232,7 +5234,7 @@
       </c>
       <c r="C30" s="105">
         <f>_xll.qlRateHelperQuoteValue(A30,Trigger)</f>
-        <v>99.316999999999993</v>
+        <v>99.427499999999995</v>
       </c>
       <c r="D30" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A30,Trigger)</f>
@@ -5259,7 +5261,7 @@
     <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="186" t="str">
         <f>'IMM FRA'!H14</f>
-        <v>obj_0017c#0004</v>
+        <v>obj_00166#0005</v>
       </c>
       <c r="B31" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A31),"LastFixing","D"),"Libor","")</f>
@@ -5267,7 +5269,7 @@
       </c>
       <c r="C31" s="105">
         <f>_xll.qlRateHelperQuoteValue(A31,Trigger)</f>
-        <v>99.231999999999999</v>
+        <v>99.35</v>
       </c>
       <c r="D31" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A31,Trigger)</f>
@@ -5294,7 +5296,7 @@
     <row r="32" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="186" t="str">
         <f>'IMM FRA'!H15</f>
-        <v>obj_0016e#0004</v>
+        <v>obj_0015f#0005</v>
       </c>
       <c r="B32" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A32),"LastFixing","D"),"Libor","")</f>
@@ -5329,7 +5331,7 @@
     <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="186" t="str">
         <f>'IMM FRA'!H16</f>
-        <v>obj_0017a#0004</v>
+        <v>obj_00168#0005</v>
       </c>
       <c r="B33" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A33),"LastFixing","D"),"Libor","")</f>
@@ -5364,7 +5366,7 @@
     <row r="34" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="186" t="str">
         <f>'IMM FRA'!H17</f>
-        <v>obj_00170#0004</v>
+        <v>obj_00164#0005</v>
       </c>
       <c r="B34" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A34),"LastFixing","D"),"Libor","")</f>
@@ -5574,7 +5576,7 @@
     <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="185" t="str">
         <f>Swaps!K5</f>
-        <v>obj_0015b#0011</v>
+        <v>obj_00152#0007</v>
       </c>
       <c r="B40" s="106" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A40),"LastFixing","D"),"Libor","")</f>
@@ -5582,14 +5584,14 @@
       </c>
       <c r="C40" s="107">
         <f>_xll.qlRateHelperQuoteValue($A40,Trigger)</f>
-        <v>2.4749999999999998E-3</v>
+        <v>2.15E-3</v>
       </c>
       <c r="D40" s="107">
         <f>_xll.qlSwapRateHelperSpread($A40,Trigger)</f>
         <v>0</v>
       </c>
       <c r="E40" s="108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="108">
         <v>50</v>
@@ -5599,18 +5601,18 @@
       </c>
       <c r="H40" s="109">
         <f>_xll.qlRateHelperEarliestDate($A40,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I40" s="110">
         <f>_xll.qlRateHelperLatestDate($A40,Trigger)</f>
-        <v>42361</v>
+        <v>42382</v>
       </c>
       <c r="K40" s="111"/>
     </row>
     <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="186" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00164#0011</v>
+        <v>obj_00159#0007</v>
       </c>
       <c r="B41" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A41),"LastFixing","D"),"Libor","")</f>
@@ -5635,18 +5637,18 @@
       </c>
       <c r="H41" s="98">
         <f>_xll.qlRateHelperEarliestDate($A41,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I41" s="99">
         <f>_xll.qlRateHelperLatestDate($A41,Trigger)</f>
-        <v>42452</v>
+        <v>42473</v>
       </c>
       <c r="K41" s="111"/>
     </row>
     <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="186" t="str">
         <f>Swaps!K7</f>
-        <v>obj_0015a#0011</v>
+        <v>obj_0014f#0007</v>
       </c>
       <c r="B42" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A42),"LastFixing","D"),"Libor","")</f>
@@ -5671,18 +5673,18 @@
       </c>
       <c r="H42" s="98">
         <f>_xll.qlRateHelperEarliestDate($A42,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I42" s="99">
         <f>_xll.qlRateHelperLatestDate($A42,Trigger)</f>
-        <v>42544</v>
+        <v>42564</v>
       </c>
       <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="186" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00160#0011</v>
+        <v>obj_0014b#0007</v>
       </c>
       <c r="B43" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A43),"LastFixing","D"),"Libor","")</f>
@@ -5707,18 +5709,18 @@
       </c>
       <c r="H43" s="98">
         <f>_xll.qlRateHelperEarliestDate($A43,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I43" s="99">
         <f>_xll.qlRateHelperLatestDate($A43,Trigger)</f>
-        <v>42636</v>
+        <v>42656</v>
       </c>
       <c r="K43" s="111"/>
     </row>
     <row r="44" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="186" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00158#0011</v>
+        <v>obj_00148#0007</v>
       </c>
       <c r="B44" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A44),"LastFixing","D"),"Libor","")</f>
@@ -5726,7 +5728,7 @@
       </c>
       <c r="C44" s="97">
         <f>_xll.qlRateHelperQuoteValue($A44,Trigger)</f>
-        <v>2.8500000000000001E-3</v>
+        <v>2.3749999999999999E-3</v>
       </c>
       <c r="D44" s="97">
         <f>_xll.qlSwapRateHelperSpread($A44,Trigger)</f>
@@ -5743,18 +5745,18 @@
       </c>
       <c r="H44" s="98">
         <f>_xll.qlRateHelperEarliestDate($A44,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I44" s="99">
         <f>_xll.qlRateHelperLatestDate($A44,Trigger)</f>
-        <v>42727</v>
+        <v>42748</v>
       </c>
       <c r="K44" s="111"/>
     </row>
     <row r="45" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="186" t="str">
         <f>Swaps!K10</f>
-        <v>obj_0015c#0011</v>
+        <v>obj_00155#0007</v>
       </c>
       <c r="B45" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A45),"LastFixing","D"),"Libor","")</f>
@@ -5762,7 +5764,7 @@
       </c>
       <c r="C45" s="97">
         <f>_xll.qlRateHelperQuoteValue($A45,Trigger)</f>
-        <v>3.9000000000000003E-3</v>
+        <v>3.2499999999999994E-3</v>
       </c>
       <c r="D45" s="97">
         <f>_xll.qlSwapRateHelperSpread($A45,Trigger)</f>
@@ -5779,18 +5781,18 @@
       </c>
       <c r="H45" s="98">
         <f>_xll.qlRateHelperEarliestDate($A45,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I45" s="99">
         <f>_xll.qlRateHelperLatestDate($A45,Trigger)</f>
-        <v>43096</v>
+        <v>43115</v>
       </c>
       <c r="K45" s="111"/>
     </row>
     <row r="46" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="186" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00166#0011</v>
+        <v>obj_0014a#0007</v>
       </c>
       <c r="B46" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A46),"LastFixing","D"),"Libor","")</f>
@@ -5798,7 +5800,7 @@
       </c>
       <c r="C46" s="97">
         <f>_xll.qlRateHelperQuoteValue($A46,Trigger)</f>
-        <v>5.2500000000000003E-3</v>
+        <v>4.4749999999999998E-3</v>
       </c>
       <c r="D46" s="97">
         <f>_xll.qlSwapRateHelperSpread($A46,Trigger)</f>
@@ -5815,18 +5817,18 @@
       </c>
       <c r="H46" s="98">
         <f>_xll.qlRateHelperEarliestDate($A46,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I46" s="99">
         <f>_xll.qlRateHelperLatestDate($A46,Trigger)</f>
-        <v>43461</v>
+        <v>43479</v>
       </c>
       <c r="K46" s="111"/>
     </row>
     <row r="47" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="186" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0016b#0011</v>
+        <v>obj_00157#0007</v>
       </c>
       <c r="B47" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A47),"LastFixing","D"),"Libor","")</f>
@@ -5834,7 +5836,7 @@
       </c>
       <c r="C47" s="97">
         <f>_xll.qlRateHelperQuoteValue($A47,Trigger)</f>
-        <v>6.7999999999999996E-3</v>
+        <v>5.8250000000000003E-3</v>
       </c>
       <c r="D47" s="97">
         <f>_xll.qlSwapRateHelperSpread($A47,Trigger)</f>
@@ -5851,18 +5853,18 @@
       </c>
       <c r="H47" s="98">
         <f>_xll.qlRateHelperEarliestDate($A47,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I47" s="99">
         <f>_xll.qlRateHelperLatestDate($A47,Trigger)</f>
-        <v>43822</v>
+        <v>43843</v>
       </c>
       <c r="K47" s="111"/>
     </row>
     <row r="48" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="186" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00162#0011</v>
+        <v>obj_00153#0007</v>
       </c>
       <c r="B48" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A48),"LastFixing","D"),"Libor","")</f>
@@ -5870,7 +5872,7 @@
       </c>
       <c r="C48" s="97">
         <f>_xll.qlRateHelperQuoteValue($A48,Trigger)</f>
-        <v>8.3499999999999998E-3</v>
+        <v>7.150000000000001E-3</v>
       </c>
       <c r="D48" s="97">
         <f>_xll.qlSwapRateHelperSpread($A48,Trigger)</f>
@@ -5887,18 +5889,18 @@
       </c>
       <c r="H48" s="98">
         <f>_xll.qlRateHelperEarliestDate($A48,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I48" s="99">
         <f>_xll.qlRateHelperLatestDate($A48,Trigger)</f>
-        <v>44188</v>
+        <v>44209</v>
       </c>
       <c r="K48" s="111"/>
     </row>
     <row r="49" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="186" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00161#0011</v>
+        <v>obj_00150#0007</v>
       </c>
       <c r="B49" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A49),"LastFixing","D"),"Libor","")</f>
@@ -5906,7 +5908,7 @@
       </c>
       <c r="C49" s="97">
         <f>_xll.qlRateHelperQuoteValue($A49,Trigger)</f>
-        <v>9.7999999999999997E-3</v>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="D49" s="97">
         <f>_xll.qlSwapRateHelperSpread($A49,Trigger)</f>
@@ -5923,18 +5925,18 @@
       </c>
       <c r="H49" s="98">
         <f>_xll.qlRateHelperEarliestDate($A49,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I49" s="99">
         <f>_xll.qlRateHelperLatestDate($A49,Trigger)</f>
-        <v>44553</v>
+        <v>44574</v>
       </c>
       <c r="K49" s="111"/>
     </row>
     <row r="50" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="186" t="str">
         <f>Swaps!K15</f>
-        <v>obj_0016c#0011</v>
+        <v>obj_0015a#0007</v>
       </c>
       <c r="B50" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A50),"LastFixing","D"),"Libor","")</f>
@@ -5942,7 +5944,7 @@
       </c>
       <c r="C50" s="97">
         <f>_xll.qlRateHelperQuoteValue($A50,Trigger)</f>
-        <v>1.1099999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="D50" s="97">
         <f>_xll.qlSwapRateHelperSpread($A50,Trigger)</f>
@@ -5959,18 +5961,18 @@
       </c>
       <c r="H50" s="98">
         <f>_xll.qlRateHelperEarliestDate($A50,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I50" s="99">
         <f>_xll.qlRateHelperLatestDate($A50,Trigger)</f>
-        <v>44918</v>
+        <v>44939</v>
       </c>
       <c r="K50" s="111"/>
     </row>
     <row r="51" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="186" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0015f#0011</v>
+        <v>obj_00149#0007</v>
       </c>
       <c r="B51" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A51),"LastFixing","D"),"Libor","")</f>
@@ -5978,7 +5980,7 @@
       </c>
       <c r="C51" s="97">
         <f>_xll.qlRateHelperQuoteValue($A51,Trigger)</f>
-        <v>1.2200000000000003E-2</v>
+        <v>1.0449999999999999E-2</v>
       </c>
       <c r="D51" s="97">
         <f>_xll.qlSwapRateHelperSpread($A51,Trigger)</f>
@@ -5995,17 +5997,17 @@
       </c>
       <c r="H51" s="98">
         <f>_xll.qlRateHelperEarliestDate($A51,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I51" s="99">
         <f>_xll.qlRateHelperLatestDate($A51,Trigger)</f>
-        <v>45287</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="186" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00163#0011</v>
+        <v>obj_00156#0007</v>
       </c>
       <c r="B52" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A52),"LastFixing","D"),"Libor","")</f>
@@ -6013,7 +6015,7 @@
       </c>
       <c r="C52" s="97">
         <f>_xll.qlRateHelperQuoteValue($A52,Trigger)</f>
-        <v>1.3199999999999998E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D52" s="97">
         <f>_xll.qlSwapRateHelperSpread($A52,Trigger)</f>
@@ -6030,17 +6032,17 @@
       </c>
       <c r="H52" s="98">
         <f>_xll.qlRateHelperEarliestDate($A52,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I52" s="99">
         <f>_xll.qlRateHelperLatestDate($A52,Trigger)</f>
-        <v>45649</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="186" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00168#0011</v>
+        <v>obj_0014e#0007</v>
       </c>
       <c r="B53" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A53),"LastFixing","D"),"Libor","")</f>
@@ -6048,7 +6050,7 @@
       </c>
       <c r="C53" s="97">
         <f>_xll.qlRateHelperQuoteValue($A53,Trigger)</f>
-        <v>1.49E-2</v>
+        <v>1.2825E-2</v>
       </c>
       <c r="D53" s="97">
         <f>_xll.qlSwapRateHelperSpread($A53,Trigger)</f>
@@ -6065,17 +6067,17 @@
       </c>
       <c r="H53" s="98">
         <f>_xll.qlRateHelperEarliestDate($A53,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I53" s="99">
         <f>_xll.qlRateHelperLatestDate($A53,Trigger)</f>
-        <v>46379</v>
+        <v>46400</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="186" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00169#0011</v>
+        <v>obj_00151#0007</v>
       </c>
       <c r="B54" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A54),"LastFixing","D"),"Libor","")</f>
@@ -6083,7 +6085,7 @@
       </c>
       <c r="C54" s="97">
         <f>_xll.qlRateHelperQuoteValue($A54,Trigger)</f>
-        <v>1.6799999999999999E-2</v>
+        <v>1.455E-2</v>
       </c>
       <c r="D54" s="97">
         <f>_xll.qlSwapRateHelperSpread($A54,Trigger)</f>
@@ -6100,17 +6102,17 @@
       </c>
       <c r="H54" s="98">
         <f>_xll.qlRateHelperEarliestDate($A54,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I54" s="99">
         <f>_xll.qlRateHelperLatestDate($A54,Trigger)</f>
-        <v>47479</v>
+        <v>47497</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="186" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0016a#0011</v>
+        <v>obj_00154#0007</v>
       </c>
       <c r="B55" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A55),"LastFixing","D"),"Libor","")</f>
@@ -6118,7 +6120,7 @@
       </c>
       <c r="C55" s="97">
         <f>_xll.qlRateHelperQuoteValue($A55,Trigger)</f>
-        <v>1.8700000000000001E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="D55" s="97">
         <f>_xll.qlSwapRateHelperSpread($A55,Trigger)</f>
@@ -6135,17 +6137,17 @@
       </c>
       <c r="H55" s="98">
         <f>_xll.qlRateHelperEarliestDate($A55,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I55" s="99">
         <f>_xll.qlRateHelperLatestDate($A55,Trigger)</f>
-        <v>49305</v>
+        <v>49324</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="186" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00159#0011</v>
+        <v>obj_0014d#0007</v>
       </c>
       <c r="B56" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A56),"LastFixing","D"),"Libor","")</f>
@@ -6153,7 +6155,7 @@
       </c>
       <c r="C56" s="97">
         <f>_xll.qlRateHelperQuoteValue($A56,Trigger)</f>
-        <v>1.9349999999999999E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="D56" s="97">
         <f>_xll.qlSwapRateHelperSpread($A56,Trigger)</f>
@@ -6170,17 +6172,17 @@
       </c>
       <c r="H56" s="98">
         <f>_xll.qlRateHelperEarliestDate($A56,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I56" s="99">
         <f>_xll.qlRateHelperLatestDate($A56,Trigger)</f>
-        <v>51127</v>
+        <v>51148</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="186" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00165#0011</v>
+        <v>obj_00146#0007</v>
       </c>
       <c r="B57" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A57),"LastFixing","D"),"Libor","")</f>
@@ -6205,17 +6207,17 @@
       </c>
       <c r="H57" s="98">
         <f>_xll.qlRateHelperEarliestDate($A57,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I57" s="99">
         <f>_xll.qlRateHelperLatestDate($A57,Trigger)</f>
-        <v>51858</v>
+        <v>51879</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="186" t="str">
         <f>Swaps!K23</f>
-        <v>obj_0015e#0011</v>
+        <v>obj_00145#0007</v>
       </c>
       <c r="B58" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A58),"LastFixing","D"),"Libor","")</f>
@@ -6223,7 +6225,7 @@
       </c>
       <c r="C58" s="97">
         <f>_xll.qlRateHelperQuoteValue($A58,Trigger)</f>
-        <v>1.9550000000000001E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="D58" s="97">
         <f>_xll.qlSwapRateHelperSpread($A58,Trigger)</f>
@@ -6240,17 +6242,17 @@
       </c>
       <c r="H58" s="98">
         <f>_xll.qlRateHelperEarliestDate($A58,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I58" s="99">
         <f>_xll.qlRateHelperLatestDate($A58,Trigger)</f>
-        <v>52954</v>
+        <v>52975</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="186" t="str">
         <f>Swaps!K24</f>
-        <v>obj_0015d#0011</v>
+        <v>obj_00158#0007</v>
       </c>
       <c r="B59" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A59),"LastFixing","D"),"Libor","")</f>
@@ -6275,17 +6277,17 @@
       </c>
       <c r="H59" s="98">
         <f>_xll.qlRateHelperEarliestDate($A59,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I59" s="99">
         <f>_xll.qlRateHelperLatestDate($A59,Trigger)</f>
-        <v>54780</v>
+        <v>54801</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="186" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00167#0011</v>
+        <v>obj_0014c#0007</v>
       </c>
       <c r="B60" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A60),"LastFixing","D"),"Libor","")</f>
@@ -6310,17 +6312,17 @@
       </c>
       <c r="H60" s="98">
         <f>_xll.qlRateHelperEarliestDate($A60,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I60" s="99">
         <f>_xll.qlRateHelperLatestDate($A60,Trigger)</f>
-        <v>56606</v>
+        <v>56627</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="187" t="str">
         <f>Swaps!K26</f>
-        <v>obj_0016d#0011</v>
+        <v>obj_00147#0007</v>
       </c>
       <c r="B61" s="100" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A61),"LastFixing","D"),"Libor","")</f>
@@ -6345,11 +6347,11 @@
       </c>
       <c r="H61" s="103">
         <f>_xll.qlRateHelperEarliestDate($A61,Trigger)</f>
-        <v>41996</v>
+        <v>42017</v>
       </c>
       <c r="I61" s="104">
         <f>_xll.qlRateHelperLatestDate($A61,Trigger)</f>
-        <v>60259</v>
+        <v>60280</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6374,7 +6376,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -6389,19 +6391,20 @@
     <col min="8" max="9" width="17.28515625" style="73" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="52" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="52"/>
+    <col min="12" max="12" width="23.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="135"/>
       <c r="D1" s="128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="62" t="s">
         <v>30</v>
@@ -6413,3809 +6416,3535 @@
       <c r="I1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="111" t="e">
-        <f t="array" aca="1" ref="J1:J126" ca="1">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#NAME?</v>
+      <c r="J1" s="111">
+        <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
+        <v>7.1986040128283867E-4</v>
       </c>
       <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="66">
         <v>6</v>
       </c>
-      <c r="D2" s="67" t="e">
-        <f t="array" aca="1" ref="D2:D126" ca="1">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E2" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F2" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D2)</f>
-        <v>#NAME?</v>
+      <c r="D2" s="67" t="str">
+        <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
+        <v>obj_00143</v>
+      </c>
+      <c r="E2" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
+        <v>SEKTND_Quote</v>
+      </c>
+      <c r="F2" s="68">
+        <f>_xll.qlRateHelperRate($D2)</f>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="G2" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K2" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D2)</f>
+        <v>42017</v>
+      </c>
+      <c r="I2" s="75">
+        <f>_xll.qlRateHelperLatestDate($D2)</f>
+        <v>42018</v>
+      </c>
+      <c r="J2" s="111">
+        <v>7.1986040128283867E-4</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="70">
         <v>0</v>
       </c>
-      <c r="D3" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E3" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F3" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D3)</f>
-        <v>#NAME?</v>
+      <c r="D3" s="67" t="str">
+        <v>obj_0017b</v>
+      </c>
+      <c r="E3" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
+        <v>SEKSWD_Quote</v>
+      </c>
+      <c r="F3" s="68">
+        <f>_xll.qlRateHelperRate($D3)</f>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="G3" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I3" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J3" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K3" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D3)</f>
+        <v>42018</v>
+      </c>
+      <c r="I3" s="75">
+        <f>_xll.qlRateHelperLatestDate($D3)</f>
+        <v>42025</v>
+      </c>
+      <c r="J3" s="111">
+        <v>9.593839890437067E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="70">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F4" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D4)</f>
-        <v>#NAME?</v>
+      <c r="D4" s="67" t="str">
+        <v>obj_00186</v>
+      </c>
+      <c r="E4" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
+        <v>SEK1MD_Quote</v>
+      </c>
+      <c r="F4" s="68">
+        <f>_xll.qlRateHelperRate($D4)</f>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="G4" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I4" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J4" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K4" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D4)</f>
+        <v>42018</v>
+      </c>
+      <c r="I4" s="75">
+        <f>_xll.qlRateHelperLatestDate($D4)</f>
+        <v>42051</v>
+      </c>
+      <c r="J4" s="111">
+        <v>1.5070131620022788E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F5" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D5)</f>
-        <v>#NAME?</v>
+        <v>119</v>
+      </c>
+      <c r="D5" s="67" t="str">
+        <v>obj_00185</v>
+      </c>
+      <c r="E5" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
+        <v>SEK2MD_Quote</v>
+      </c>
+      <c r="F5" s="68">
+        <f>_xll.qlRateHelperRate($D5)</f>
+        <v>1.91E-3</v>
       </c>
       <c r="G5" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D5)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D5)</f>
+        <v>42018</v>
+      </c>
+      <c r="I5" s="75">
+        <f>_xll.qlRateHelperLatestDate($D5)</f>
+        <v>42079</v>
+      </c>
+      <c r="J5" s="111">
+        <v>1.9165958633913015E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D6)</f>
-        <v>#NAME?</v>
+      <c r="D6" s="67" t="str">
+        <v>obj_0015b</v>
+      </c>
+      <c r="E6" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
+        <v>FUTSEK3F1_Quote</v>
+      </c>
+      <c r="F6" s="68">
+        <f>_xll.qlRateHelperRate($D6)</f>
+        <v>2.2249999999999215E-3</v>
       </c>
       <c r="G6" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I6" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K6" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D6)</f>
+        <v>42081</v>
+      </c>
+      <c r="I6" s="75">
+        <f>_xll.qlRateHelperLatestDate($D6)</f>
+        <v>42173</v>
+      </c>
+      <c r="J6" s="111">
+        <v>2.118080574919242E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D7)</f>
-        <v>#NAME?</v>
+      <c r="D7" s="67" t="str">
+        <v>obj_00167</v>
+      </c>
+      <c r="E7" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
+        <v>FUTSEK3F2_Quote</v>
+      </c>
+      <c r="F7" s="68">
+        <f>_xll.qlRateHelperRate($D7)</f>
+        <v>1.9499999999998963E-3</v>
       </c>
       <c r="G7" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D7)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D7)</f>
+        <v>42172</v>
+      </c>
+      <c r="I7" s="75">
+        <f>_xll.qlRateHelperLatestDate($D7)</f>
+        <v>42264</v>
+      </c>
+      <c r="J7" s="111">
+        <v>2.0640348747425633E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D8)</f>
-        <v>#NAME?</v>
+      <c r="D8" s="67" t="str">
+        <v>obj_00163</v>
+      </c>
+      <c r="E8" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
+        <v>FUTSEK3F3_Quote</v>
+      </c>
+      <c r="F8" s="68">
+        <f>_xll.qlRateHelperRate($D8)</f>
+        <v>1.8500000000000183E-3</v>
       </c>
       <c r="G8" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D8)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K8" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D8)</f>
+        <v>42263</v>
+      </c>
+      <c r="I8" s="75">
+        <f>_xll.qlRateHelperLatestDate($D8)</f>
+        <v>42354</v>
+      </c>
+      <c r="J8" s="111">
+        <v>2.0134925145798639E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E9" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F9" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D9)</f>
-        <v>#NAME?</v>
+      <c r="D9" s="67" t="str">
+        <v>obj_0015c</v>
+      </c>
+      <c r="E9" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
+        <v>FUTSEK3F4_Quote</v>
+      </c>
+      <c r="F9" s="68">
+        <f>_xll.qlRateHelperRate($D9)</f>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="G9" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I9" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D9)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J9" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K9" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D9)</f>
+        <v>42354</v>
+      </c>
+      <c r="I9" s="75">
+        <f>_xll.qlRateHelperLatestDate($D9)</f>
+        <v>42445</v>
+      </c>
+      <c r="J9" s="111">
+        <v>1.9948744932121393E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F10" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D10)</f>
-        <v>#NAME?</v>
+      <c r="D10" s="67" t="str">
+        <v>obj_00169</v>
+      </c>
+      <c r="E10" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
+        <v>FUTSEK3F5_Quote</v>
+      </c>
+      <c r="F10" s="68">
+        <f>_xll.qlRateHelperRate($D10)</f>
+        <v>2.1250000000000435E-3</v>
       </c>
       <c r="G10" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I10" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D10)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K10" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D10)</f>
+        <v>42445</v>
+      </c>
+      <c r="I10" s="75">
+        <f>_xll.qlRateHelperLatestDate($D10)</f>
+        <v>42537</v>
+      </c>
+      <c r="J10" s="111">
+        <v>2.0230149219049838E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F11" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D11)</f>
-        <v>#NAME?</v>
+      <c r="D11" s="67" t="str">
+        <v>obj_00160</v>
+      </c>
+      <c r="E11" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
+        <v>FUTSEK3F6_Quote</v>
+      </c>
+      <c r="F11" s="68">
+        <f>_xll.qlRateHelperRate($D11)</f>
+        <v>2.475000000000005E-3</v>
       </c>
       <c r="G11" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I11" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D11)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K11" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D11)</f>
+        <v>42536</v>
+      </c>
+      <c r="I11" s="75">
+        <f>_xll.qlRateHelperLatestDate($D11)</f>
+        <v>42628</v>
+      </c>
+      <c r="J11" s="111">
+        <v>2.0958682753538737E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F12" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D12)</f>
-        <v>#NAME?</v>
+      <c r="D12" s="67" t="str">
+        <v>obj_00148</v>
+      </c>
+      <c r="E12" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S2Y_Quote</v>
+      </c>
+      <c r="F12" s="68">
+        <f>_xll.qlRateHelperRate($D12)</f>
+        <v>2.3749999999999999E-3</v>
       </c>
       <c r="G12" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D12)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K12" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D12)</f>
+        <v>42017</v>
+      </c>
+      <c r="I12" s="75">
+        <f>_xll.qlRateHelperLatestDate($D12)</f>
+        <v>42748</v>
+      </c>
+      <c r="J12" s="111">
+        <v>2.3693712591000078E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E13" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F13" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D13)</f>
-        <v>#NAME?</v>
+      <c r="D13" s="67" t="str">
+        <v>obj_00155</v>
+      </c>
+      <c r="E13" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S3Y_Quote</v>
+      </c>
+      <c r="F13" s="68">
+        <f>_xll.qlRateHelperRate($D13)</f>
+        <v>3.2499999999999994E-3</v>
       </c>
       <c r="G13" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I13" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D13)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K13" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D13)</f>
+        <v>42017</v>
+      </c>
+      <c r="I13" s="75">
+        <f>_xll.qlRateHelperLatestDate($D13)</f>
+        <v>43115</v>
+      </c>
+      <c r="J13" s="111">
+        <v>3.2450749931623446E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E14" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F14" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D14)</f>
-        <v>#NAME?</v>
+      <c r="D14" s="67" t="str">
+        <v>obj_0014a</v>
+      </c>
+      <c r="E14" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S4Y_Quote</v>
+      </c>
+      <c r="F14" s="68">
+        <f>_xll.qlRateHelperRate($D14)</f>
+        <v>4.4749999999999998E-3</v>
       </c>
       <c r="G14" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I14" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D14)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K14" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D14)</f>
+        <v>42017</v>
+      </c>
+      <c r="I14" s="75">
+        <f>_xll.qlRateHelperLatestDate($D14)</f>
+        <v>43479</v>
+      </c>
+      <c r="J14" s="111">
+        <v>4.4735951216524983E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E15" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F15" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D15)</f>
-        <v>#NAME?</v>
+      <c r="D15" s="67" t="str">
+        <v>obj_00157</v>
+      </c>
+      <c r="E15" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S5Y_Quote</v>
+      </c>
+      <c r="F15" s="68">
+        <f>_xll.qlRateHelperRate($D15)</f>
+        <v>5.8250000000000003E-3</v>
       </c>
       <c r="G15" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I15" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D15)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J15" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K15" s="64"/>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D15)</f>
+        <v>42017</v>
+      </c>
+      <c r="I15" s="75">
+        <f>_xll.qlRateHelperLatestDate($D15)</f>
+        <v>43843</v>
+      </c>
+      <c r="J15" s="111">
+        <v>5.8328556432203976E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E16" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F16" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D16)</f>
-        <v>#NAME?</v>
+      <c r="D16" s="67" t="str">
+        <v>obj_00153</v>
+      </c>
+      <c r="E16" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S6Y_Quote</v>
+      </c>
+      <c r="F16" s="68">
+        <f>_xll.qlRateHelperRate($D16)</f>
+        <v>7.150000000000001E-3</v>
       </c>
       <c r="G16" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I16" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D16)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J16" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K16" s="64"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D17" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E17" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F17" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D17)</f>
-        <v>#NAME?</v>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D16)</f>
+        <v>42017</v>
+      </c>
+      <c r="I16" s="75">
+        <f>_xll.qlRateHelperLatestDate($D16)</f>
+        <v>44209</v>
+      </c>
+      <c r="J16" s="111">
+        <v>7.1706123188923854E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="67" t="str">
+        <v>obj_00150</v>
+      </c>
+      <c r="E17" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S7Y_Quote</v>
+      </c>
+      <c r="F17" s="68">
+        <f>_xll.qlRateHelperRate($D17)</f>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="G17" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I17" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D17)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J17" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K17" s="64"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D18" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E18" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F18" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D18)</f>
-        <v>#NAME?</v>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D17)</f>
+        <v>42017</v>
+      </c>
+      <c r="I17" s="75">
+        <f>_xll.qlRateHelperLatestDate($D17)</f>
+        <v>44574</v>
+      </c>
+      <c r="J17" s="111">
+        <v>8.4434715745733604E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="67" t="str">
+        <v>obj_0015a</v>
+      </c>
+      <c r="E18" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S8Y_Quote</v>
+      </c>
+      <c r="F18" s="68">
+        <f>_xll.qlRateHelperRate($D18)</f>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G18" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I18" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D18)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J18" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K18" s="64"/>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D19" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E19" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F19" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D19)</f>
-        <v>#NAME?</v>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D18)</f>
+        <v>42017</v>
+      </c>
+      <c r="I18" s="75">
+        <f>_xll.qlRateHelperLatestDate($D18)</f>
+        <v>44939</v>
+      </c>
+      <c r="J18" s="111">
+        <v>9.5706087930609047E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="67" t="str">
+        <v>obj_00149</v>
+      </c>
+      <c r="E19" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S9Y_Quote</v>
+      </c>
+      <c r="F19" s="68">
+        <f>_xll.qlRateHelperRate($D19)</f>
+        <v>1.0449999999999999E-2</v>
       </c>
       <c r="G19" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I19" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D19)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J19" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K19" s="64"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D20" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F20" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D20)</f>
-        <v>#NAME?</v>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D19)</f>
+        <v>42017</v>
+      </c>
+      <c r="I19" s="75">
+        <f>_xll.qlRateHelperLatestDate($D19)</f>
+        <v>45306</v>
+      </c>
+      <c r="J19" s="111">
+        <v>1.0549964708272753E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="67" t="str">
+        <v>obj_00156</v>
+      </c>
+      <c r="E20" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S10Y_Quote</v>
+      </c>
+      <c r="F20" s="68">
+        <f>_xll.qlRateHelperRate($D20)</f>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="G20" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I20" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D20)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K20" s="64"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D21" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D21)</f>
-        <v>#NAME?</v>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D20)</f>
+        <v>42017</v>
+      </c>
+      <c r="I20" s="75">
+        <f>_xll.qlRateHelperLatestDate($D20)</f>
+        <v>45670</v>
+      </c>
+      <c r="J20" s="111">
+        <v>1.1429105960436142E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="67" t="str">
+        <v>obj_0014e</v>
+      </c>
+      <c r="E21" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S12Y_Quote</v>
+      </c>
+      <c r="F21" s="68">
+        <f>_xll.qlRateHelperRate($D21)</f>
+        <v>1.2825E-2</v>
       </c>
       <c r="G21" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D21)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K21" s="64"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D22" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E22" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F22" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D22)</f>
-        <v>#NAME?</v>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D21)</f>
+        <v>42017</v>
+      </c>
+      <c r="I21" s="75">
+        <f>_xll.qlRateHelperLatestDate($D21)</f>
+        <v>46400</v>
+      </c>
+      <c r="J21" s="111">
+        <v>1.303085402762656E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="67" t="str">
+        <v>obj_00151</v>
+      </c>
+      <c r="E22" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S15Y_Quote</v>
+      </c>
+      <c r="F22" s="68">
+        <f>_xll.qlRateHelperRate($D22)</f>
+        <v>1.455E-2</v>
       </c>
       <c r="G22" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I22" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D22)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K22" s="64"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D23" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E23" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F23" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D23)</f>
-        <v>#NAME?</v>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D22)</f>
+        <v>42017</v>
+      </c>
+      <c r="I22" s="75">
+        <f>_xll.qlRateHelperLatestDate($D22)</f>
+        <v>47497</v>
+      </c>
+      <c r="J22" s="111">
+        <v>1.4871155402097469E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D23" s="67" t="str">
+        <v>obj_00154</v>
+      </c>
+      <c r="E23" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S20Y_Quote</v>
+      </c>
+      <c r="F23" s="68">
+        <f>_xll.qlRateHelperRate($D23)</f>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="G23" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I23" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D23)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J23" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K23" s="64"/>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D24" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E24" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F24" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D24)</f>
-        <v>#NAME?</v>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D23)</f>
+        <v>42017</v>
+      </c>
+      <c r="I23" s="75">
+        <f>_xll.qlRateHelperLatestDate($D23)</f>
+        <v>49324</v>
+      </c>
+      <c r="J23" s="111">
+        <v>1.6892796168223104E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="67" t="str">
+        <v>obj_0014d</v>
+      </c>
+      <c r="E24" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S25Y_Quote</v>
+      </c>
+      <c r="F24" s="68">
+        <f>_xll.qlRateHelperRate($D24)</f>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="G24" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I24" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D24)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J24" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K24" s="64"/>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D25" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E25" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F25" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D25)</f>
-        <v>#NAME?</v>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D24)</f>
+        <v>42017</v>
+      </c>
+      <c r="I24" s="75">
+        <f>_xll.qlRateHelperLatestDate($D24)</f>
+        <v>51148</v>
+      </c>
+      <c r="J24" s="111">
+        <v>1.7621689291301045E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="67" t="str">
+        <v>obj_00145</v>
+      </c>
+      <c r="E25" s="67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
+        <v>SEKAB3S30Y_Quote</v>
+      </c>
+      <c r="F25" s="68">
+        <f>_xll.qlRateHelperRate($D25)</f>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="G25" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I25" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D25)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J25" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K25" s="64"/>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="74">
+        <f>_xll.qlRateHelperEarliestDate($D25)</f>
+        <v>42017</v>
+      </c>
+      <c r="I25" s="75">
+        <f>_xll.qlRateHelperLatestDate($D25)</f>
+        <v>52975</v>
+      </c>
+      <c r="J25" s="111">
+        <v>1.7764620170327691E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D26" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E26" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D26),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D26),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F26" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D26)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D26)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G26" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
         <v>0</v>
       </c>
       <c r="H26" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D26)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D26)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D26)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J26" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="K26" s="64"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D27" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E27" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D27),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D27),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F27" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D27)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D27)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G27" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
         <v>0</v>
       </c>
       <c r="H27" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D27)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D27)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D27)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J27" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E28" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D28),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D28),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F28" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D28)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D28)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G28" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
         <v>0</v>
       </c>
       <c r="H28" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D28)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D28)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D28)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J28" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E29" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D29),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D29),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F29" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D29)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D29)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G29" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
         <v>0</v>
       </c>
       <c r="H29" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D29)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D29)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D29)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J29" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E30" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D30),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D30),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F30" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D30)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D30)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G30" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
         <v>0</v>
       </c>
       <c r="H30" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D30)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I30" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D30)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D30)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J30" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D31" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E31" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D31),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D31),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F31" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D31)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D31)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G31" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
         <v>0</v>
       </c>
       <c r="H31" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D31)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I31" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D31)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D31)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J31" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D32" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E32" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D32),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D32),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F32" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D32)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G32" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
         <v>0</v>
       </c>
       <c r="H32" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D32)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D32)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J32" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E33" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D33),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D33),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F33" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D33)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D33)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G33" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
         <v>0</v>
       </c>
       <c r="H33" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D33)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I33" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D33)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D33)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J33" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E34" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D34),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D34),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F34" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D34)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D34)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G34" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
         <v>0</v>
       </c>
       <c r="H34" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D34)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D34)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D34)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J34" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E35" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D35),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D35),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F35" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D35)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D35)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G35" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
         <v>0</v>
       </c>
       <c r="H35" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D35)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I35" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D35)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D35)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J35" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D36),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D36),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F36" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D36)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D36)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G36" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
         <v>0</v>
       </c>
       <c r="H36" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D36)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I36" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D36)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D36)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J36" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E37" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D37),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D37),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F37" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D37)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D37)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G37" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
         <v>0</v>
       </c>
       <c r="H37" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D37)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I37" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D37)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D37)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J37" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E38" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D38),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D38),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F38" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D38)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D38)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G38" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
         <v>0</v>
       </c>
       <c r="H38" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D38)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I38" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D38)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D38)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J38" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E39" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D39),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D39),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F39" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D39)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D39)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G39" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
         <v>0</v>
       </c>
       <c r="H39" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D39)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I39" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D39)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D39)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J39" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E40" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D40),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D40),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F40" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D40)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D40)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G40" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
         <v>0</v>
       </c>
       <c r="H40" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D40)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I40" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D40)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D40)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J40" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E41" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D41),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D41),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F41" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D41)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D41)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G41" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
         <v>0</v>
       </c>
       <c r="H41" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D41)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I41" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D41)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D41)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J41" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E42" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D42),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D42),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F42" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D42)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D42)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G42" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
         <v>0</v>
       </c>
       <c r="H42" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D42)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I42" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D42)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D42)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J42" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E43" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D43),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D43),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F43" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D43)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D43)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G43" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
         <v>0</v>
       </c>
       <c r="H43" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D43)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I43" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D43)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D43)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J43" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E44" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D44),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D44),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F44" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D44)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D44)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G44" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
         <v>0</v>
       </c>
       <c r="H44" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D44)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I44" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D44)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D44)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J44" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D45" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E45" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D45),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D45),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F45" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D45)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D45)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G45" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
         <v>0</v>
       </c>
       <c r="H45" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D45)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I45" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D45)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D45)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J45" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E46" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D46),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D46),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F46" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D46)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D46)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G46" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
         <v>0</v>
       </c>
       <c r="H46" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D46)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I46" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D46)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D46)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J46" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E47" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D47),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D47),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F47" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D47)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D47)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G47" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
         <v>0</v>
       </c>
       <c r="H47" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D47)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I47" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D47)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D47)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J47" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D48" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D48),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D48),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F48" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D48)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D48)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G48" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
         <v>0</v>
       </c>
       <c r="H48" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D48)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I48" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D48)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D48)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J48" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E49" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D49),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D49),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F49" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D49)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D49)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G49" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
         <v>0</v>
       </c>
       <c r="H49" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D49)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I49" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D49)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D49)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J49" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E50" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D50),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D50),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F50" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D50)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D50)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G50" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
         <v>0</v>
       </c>
       <c r="H50" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D50)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I50" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D50)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D50)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J50" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D51" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E51" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D51),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D51),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F51" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D51)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D51)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G51" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
         <v>0</v>
       </c>
       <c r="H51" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D51)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I51" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D51)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D51)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J51" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D52" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E52" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D52),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D52),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F52" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D52)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D52)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G52" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
         <v>0</v>
       </c>
       <c r="H52" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D52)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I52" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D52)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D52)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J52" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D53" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E53" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D53),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D53),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F53" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D53)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D53)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G53" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
         <v>0</v>
       </c>
       <c r="H53" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D53)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I53" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D53)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D53)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J53" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D54" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E54" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D54),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D54),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F54" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D54)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D54)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G54" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
         <v>0</v>
       </c>
       <c r="H54" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D54)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I54" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D54)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D54)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J54" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D55" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E55" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D55),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D55),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F55" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D55)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D55)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G55" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
         <v>0</v>
       </c>
       <c r="H55" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D55)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D55)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I55" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D55)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D55)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J55" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D56" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E56" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D56),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D56),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F56" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D56)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D56)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G56" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
         <v>0</v>
       </c>
       <c r="H56" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D56)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D56)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I56" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D56)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D56)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J56" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D57" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E57" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D57),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D57),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F57" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D57)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D57)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G57" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
         <v>0</v>
       </c>
       <c r="H57" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D57)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D57)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I57" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D57)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D57)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J57" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D58" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E58" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D58),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D58),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F58" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D58)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D58)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G58" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
         <v>0</v>
       </c>
       <c r="H58" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D58)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D58)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I58" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D58)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D58)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J58" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E59" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D59),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D59),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F59" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D59)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D59)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G59" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
         <v>0</v>
       </c>
       <c r="H59" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D59)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D59)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I59" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D59)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D59)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J59" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E60" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D60),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D60),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F60" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D60)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D60)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G60" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
         <v>0</v>
       </c>
       <c r="H60" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D60)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D60)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I60" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D60)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D60)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J60" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E61" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D61),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D61),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F61" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D61)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D61)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G61" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
         <v>0</v>
       </c>
       <c r="H61" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D61)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D61)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I61" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D61)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D61)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J61" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D62" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E62" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D62),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D62),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F62" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D62)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D62)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G62" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
         <v>0</v>
       </c>
       <c r="H62" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D62)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D62)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I62" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D62)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D62)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J62" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E63" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D63),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D63),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F63" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D63)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D63)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G63" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
         <v>0</v>
       </c>
       <c r="H63" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D63)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D63)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I63" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D63)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D63)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J63" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E64" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D64),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D64),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F64" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D64)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D64)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G64" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
         <v>0</v>
       </c>
       <c r="H64" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D64)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D64)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I64" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D64)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D64)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J64" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E65" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D65),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D65),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F65" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D65)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D65)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G65" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
         <v>0</v>
       </c>
       <c r="H65" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D65)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D65)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I65" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D65)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D65)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J65" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D66" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E66" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D66),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D66),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F66" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D66)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D66)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G66" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
         <v>0</v>
       </c>
       <c r="H66" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D66)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D66)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I66" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D66)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D66)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J66" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D67" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E67" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D67),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D67),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F67" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D67)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D67)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G67" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
         <v>0</v>
       </c>
       <c r="H67" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D67)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D67)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I67" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D67)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D67)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J67" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D68" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E68" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D68),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D68),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F68" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D68)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D68)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G68" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
         <v>0</v>
       </c>
       <c r="H68" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D68)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D68)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I68" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D68)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D68)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J68" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D69" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E69" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D69),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D69),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F69" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D69)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D69)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G69" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
         <v>0</v>
       </c>
       <c r="H69" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D69)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D69)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I69" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D69)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D69)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J69" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D70" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E70" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D70),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D70),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F70" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D70)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D70)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G70" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
         <v>0</v>
       </c>
       <c r="H70" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D70)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D70)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I70" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D70)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D70)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J70" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E71" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D71),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D71),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F71" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D71)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D71)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G71" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
         <v>0</v>
       </c>
       <c r="H71" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D71)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D71)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I71" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D71)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D71)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J71" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D72" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E72" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D72),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D72),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F72" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D72)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D72)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G72" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
         <v>0</v>
       </c>
       <c r="H72" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D72)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D72)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I72" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D72)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D72)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J72" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D73" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E73" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D73),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D73),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F73" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D73)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D73)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G73" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
         <v>0</v>
       </c>
       <c r="H73" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D73)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D73)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I73" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D73)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D73)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J73" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D74" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E74" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D74),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D74),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F74" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D74)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D74)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G74" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
         <v>0</v>
       </c>
       <c r="H74" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D74)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D74)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I74" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D74)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D74)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J74" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D75" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E75" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D75),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D75),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F75" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D75)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D75)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G75" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
         <v>0</v>
       </c>
       <c r="H75" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D75)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D75)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I75" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D75)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D75)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J75" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D76" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E76" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D76),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D76),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F76" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D76)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D76)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G76" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
         <v>0</v>
       </c>
       <c r="H76" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D76)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D76)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I76" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D76)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D76)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J76" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D77" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E77" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D77),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D77),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F77" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D77)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D77)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G77" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
         <v>0</v>
       </c>
       <c r="H77" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D77)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D77)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I77" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D77)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D77)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J77" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D78" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E78" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D78),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D78),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F78" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D78)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D78)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G78" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
         <v>0</v>
       </c>
       <c r="H78" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D78)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D78)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I78" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D78)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D78)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J78" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D79" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E79" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D79),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D79),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F79" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D79)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D79)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G79" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
         <v>0</v>
       </c>
       <c r="H79" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D79)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D79)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I79" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D79)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D79)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J79" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D80" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E80" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D80),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D80),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F80" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D80)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D80)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G80" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
         <v>0</v>
       </c>
       <c r="H80" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D80)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D80)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I80" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D80)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D80)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J80" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E81" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D81),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D81),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F81" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D81)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D81)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G81" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
         <v>0</v>
       </c>
       <c r="H81" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D81)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D81)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I81" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D81)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D81)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J81" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D82" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E82" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D82),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D82),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F82" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D82)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D82)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G82" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
         <v>0</v>
       </c>
       <c r="H82" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D82)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D82)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I82" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D82)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D82)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J82" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D83" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E83" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D83),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D83),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F83" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D83)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D83)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G83" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
         <v>0</v>
       </c>
       <c r="H83" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D83)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D83)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I83" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D83)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D83)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J83" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D84" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E84" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D84),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D84),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F84" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D84)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D84)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G84" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
         <v>0</v>
       </c>
       <c r="H84" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D84)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D84)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I84" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D84)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D84)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J84" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D85" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E85" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D85),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D85),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F85" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D85)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D85)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G85" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
         <v>0</v>
       </c>
       <c r="H85" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D85)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D85)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I85" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D85)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D85)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J85" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D86" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E86" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D86),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D86),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F86" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D86)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D86)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G86" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
         <v>0</v>
       </c>
       <c r="H86" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D86)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D86)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I86" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D86)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D86)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J86" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D87" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E87" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D87),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D87),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F87" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D87)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D87)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G87" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
         <v>0</v>
       </c>
       <c r="H87" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D87)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D87)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I87" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D87)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D87)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J87" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D88" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E88" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D88),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D88),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F88" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D88)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D88)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G88" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
         <v>0</v>
       </c>
       <c r="H88" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D88)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D88)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I88" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D88)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D88)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J88" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D89" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E89" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D89),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D89),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F89" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D89)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D89)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G89" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
         <v>0</v>
       </c>
       <c r="H89" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D89)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D89)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I89" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D89)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D89)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J89" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D90" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E90" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D90),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D90),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F90" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D90)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D90)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G90" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
         <v>0</v>
       </c>
       <c r="H90" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D90)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D90)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I90" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D90)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D90)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J90" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D91" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E91" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D91),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D91),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F91" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D91)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D91)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G91" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
         <v>0</v>
       </c>
       <c r="H91" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D91)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D91)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I91" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D91)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D91)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J91" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D92" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E92" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D92),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D92),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F92" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D92)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D92)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G92" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
         <v>0</v>
       </c>
       <c r="H92" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D92)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D92)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I92" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D92)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D92)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J92" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D93" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E93" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D93),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D93),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F93" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D93)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D93)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G93" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
         <v>0</v>
       </c>
       <c r="H93" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D93)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D93)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I93" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D93)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D93)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J93" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D94" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E94" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D94),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D94),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F94" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D94)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D94)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G94" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
         <v>0</v>
       </c>
       <c r="H94" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D94)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D94)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I94" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D94)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D94)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J94" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D95" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E95" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D95),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D95),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F95" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D95)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D95)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G95" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
         <v>0</v>
       </c>
       <c r="H95" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D95)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D95)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I95" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D95)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D95)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J95" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D96" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E96" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D96),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D96),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F96" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D96)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D96)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G96" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
         <v>0</v>
       </c>
       <c r="H96" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D96)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D96)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I96" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D96)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D96)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J96" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D97" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E97" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D97),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D97),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F97" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D97)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D97)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G97" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
         <v>0</v>
       </c>
       <c r="H97" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D97)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D97)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I97" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D97)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D97)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J97" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D98" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E98" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D98),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D98),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F98" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D98)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D98)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G98" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
         <v>0</v>
       </c>
       <c r="H98" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D98)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D98)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I98" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D98)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D98)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J98" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D99" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E99" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D99),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D99),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F99" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D99)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D99)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G99" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
         <v>0</v>
       </c>
       <c r="H99" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D99)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D99)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I99" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D99)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D99)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J99" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D100" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E100" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D100),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D100),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F100" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D100)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D100)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G100" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
         <v>0</v>
       </c>
       <c r="H100" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D100)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D100)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I100" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D100)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D100)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J100" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D101" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E101" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D101),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D101),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F101" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D101)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D101)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G101" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
         <v>0</v>
       </c>
       <c r="H101" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D101)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D101)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I101" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D101)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D101)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J101" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D102" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E102" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D102),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D102),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F102" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D102)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D102)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G102" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
         <v>0</v>
       </c>
       <c r="H102" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D102)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D102)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I102" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D102)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D102)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J102" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D103" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E103" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D103),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D103),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F103" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D103)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D103)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G103" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
         <v>0</v>
       </c>
       <c r="H103" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D103)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D103)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I103" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D103)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D103)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J103" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D104" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E104" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D104),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D104),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F104" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D104)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D104)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G104" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
         <v>0</v>
       </c>
       <c r="H104" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D104)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D104)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I104" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D104)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D104)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J104" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D105" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E105" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D105),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D105),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F105" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D105)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D105)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G105" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
         <v>0</v>
       </c>
       <c r="H105" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D105)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D105)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I105" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D105)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D105)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J105" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D106" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E106" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D106),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D106),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F106" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D106)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D106)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G106" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
         <v>0</v>
       </c>
       <c r="H106" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D106)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D106)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I106" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D106)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D106)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J106" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D107" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E107" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D107),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D107),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F107" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D107)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D107)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G107" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
         <v>0</v>
       </c>
       <c r="H107" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D107)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D107)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I107" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D107)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D107)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J107" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D108" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E108" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D108),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D108),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F108" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D108)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D108)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G108" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
         <v>0</v>
       </c>
       <c r="H108" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D108)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D108)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I108" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D108)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D108)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J108" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D109" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E109" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D109),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D109),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F109" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D109)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D109)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G109" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
         <v>0</v>
       </c>
       <c r="H109" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D109)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D109)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I109" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D109)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D109)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J109" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D110" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E110" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D110),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D110),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F110" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D110)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D110)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G110" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
         <v>0</v>
       </c>
       <c r="H110" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D110)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D110)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I110" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D110)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D110)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J110" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D111" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E111" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D111),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D111),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F111" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D111)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D111)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G111" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
         <v>0</v>
       </c>
       <c r="H111" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D111)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D111)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I111" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D111)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D111)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J111" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D112" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E112" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D112),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D112),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F112" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D112)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D112)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G112" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
         <v>0</v>
       </c>
       <c r="H112" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D112)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D112)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I112" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D112)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D112)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J112" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D113" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E113" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D113),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D113),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F113" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D113)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D113)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G113" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
         <v>0</v>
       </c>
       <c r="H113" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D113)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D113)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I113" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D113)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D113)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J113" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D114" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E114" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D114),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D114),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F114" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D114)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D114)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G114" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
         <v>0</v>
       </c>
       <c r="H114" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D114)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D114)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I114" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D114)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D114)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J114" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D115" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E115" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D115),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D115),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F115" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D115)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D115)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G115" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
         <v>0</v>
       </c>
       <c r="H115" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D115)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D115)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I115" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D115)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D115)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J115" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D116" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E116" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D116),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D116),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F116" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D116)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D116)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G116" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
         <v>0</v>
       </c>
       <c r="H116" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D116)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D116)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I116" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D116)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D116)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J116" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D117" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E117" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D117),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D117),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F117" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D117)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D117)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G117" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
         <v>0</v>
       </c>
       <c r="H117" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D117)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D117)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I117" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D117)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D117)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J117" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D118" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E118" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D118),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D118),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F118" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D118)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D118)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G118" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
         <v>0</v>
       </c>
       <c r="H118" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D118)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D118)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I118" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D118)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D118)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J118" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D119" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E119" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D119),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D119),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F119" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D119)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D119)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G119" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
         <v>0</v>
       </c>
       <c r="H119" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D119)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D119)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I119" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D119)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D119)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J119" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D120" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E120" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D120),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D120),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F120" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D120)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D120)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G120" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
         <v>0</v>
       </c>
       <c r="H120" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D120)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D120)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I120" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D120)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D120)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J120" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D121" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E121" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D121),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D121),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F121" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D121)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D121)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G121" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
         <v>0</v>
       </c>
       <c r="H121" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D121)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D121)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I121" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D121)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D121)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J121" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D122" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E122" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D122),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D122),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F122" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D122)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D122)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G122" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
         <v>0</v>
       </c>
       <c r="H122" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D122)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D122)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I122" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D122)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D122)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J122" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D123" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E123" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D123),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D123),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F123" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D123)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D123)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G123" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
         <v>0</v>
       </c>
       <c r="H123" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D123)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D123)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I123" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D123)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D123)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J123" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D124" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E124" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D124),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D124),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F124" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D124)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D124)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G124" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
         <v>0</v>
       </c>
       <c r="H124" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D124)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D124)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I124" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D124)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D124)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J124" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D125" s="67" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E125" s="67" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D125),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D125),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F125" s="68" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D125)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D125)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G125" s="68">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
         <v>0</v>
       </c>
       <c r="H125" s="74" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D125)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D125)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I125" s="75" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D125)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D125)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J125" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D126" s="71" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="E126" s="71" t="e">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D126),"LastFixing","D"),"Libor","")</f>
-        <v>#NAME?</v>
+        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D126),"LastFixing","D"),"Libor","")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F126" s="72" t="e">
-        <f ca="1">_xll.qlRateHelperRate($D126)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperRate($D126)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G126" s="72">
-        <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
+        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
         <v>0</v>
       </c>
       <c r="H126" s="76" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($D126)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate($D126)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I126" s="77" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($D126)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate($D126)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J126" s="111" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -10266,7 +9995,7 @@
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
       <c r="H1" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="53" t="str">
         <f>Currency&amp;"_YC"&amp;$H$1&amp;"RH"</f>
@@ -10282,70 +10011,70 @@
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>105</v>
-      </c>
       <c r="F2" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>108</v>
-      </c>
       <c r="H2" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="49" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(J3:J15,SerializationPath&amp;J1,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="K2" s="48" t="e">
-        <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
-        <v>#NAME?</v>
+      <c r="K2" s="48" t="str">
+        <f>_xll.ohRangeRetrieveError(J2)</f>
+        <v/>
       </c>
       <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="163">
         <v>0</v>
       </c>
       <c r="D3" s="163" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="163" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="163" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="163" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="179" t="e">
-        <f ca="1">_xll.qlIborIndex(,,"1D",C3,Currency,D3,E3,F3,G3,,,Trigger,ObjectOverwrite)</f>
-        <v>#NAME?</v>
+        <v>86</v>
+      </c>
+      <c r="H3" s="179" t="str">
+        <f>_xll.qlIborIndex(,,"1D",C3,Currency,D3,E3,F3,G3,,,Trigger,ObjectOverwrite)</f>
+        <v>obj_00140#0006</v>
       </c>
       <c r="I3" s="180" t="str">
         <f t="shared" ref="I3:I20" si="0">Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
         <v>SEKOND_Quote</v>
       </c>
-      <c r="J3" s="181" t="e">
-        <f ca="1">_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NAME?</v>
+      <c r="J3" s="181" t="str">
+        <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00141#0006</v>
       </c>
       <c r="K3" s="169"/>
       <c r="L3" s="45"/>
@@ -10353,34 +10082,34 @@
     <row r="4" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="170" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="170">
         <v>1</v>
       </c>
       <c r="D4" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="170" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="182" t="e">
-        <f ca="1">_xll.qlIborIndex(,,"1D",C4,Currency,D4,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>#NAME?</v>
+        <v>86</v>
+      </c>
+      <c r="H4" s="182" t="str">
+        <f>_xll.qlIborIndex(,,"1D",C4,Currency,D4,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
+        <v>obj_00142#0006</v>
       </c>
       <c r="I4" s="182" t="str">
         <f t="shared" si="0"/>
         <v>SEKTND_Quote</v>
       </c>
-      <c r="J4" s="183" t="e">
-        <f ca="1">_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NAME?</v>
+      <c r="J4" s="183" t="str">
+        <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00143#0006</v>
       </c>
       <c r="K4" s="174"/>
       <c r="L4" s="45"/>
@@ -10388,26 +10117,26 @@
     <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="170" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="170">
         <v>2</v>
       </c>
       <c r="D5" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="182" t="str">
         <f>_xll.qlIborIndex(,,"2D",C5,Currency,D5,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017d#0004</v>
+        <v>obj_0016a#0005</v>
       </c>
       <c r="I5" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10415,7 +10144,7 @@
       </c>
       <c r="J5" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00180#0004</v>
+        <v>obj_0016b#0005</v>
       </c>
       <c r="K5" s="174"/>
       <c r="L5" s="45"/>
@@ -10423,26 +10152,26 @@
     <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="170" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="170">
         <v>2</v>
       </c>
       <c r="D6" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="182" t="str">
         <f>_xll.qlIborIndex(,,"1W",C6,Currency,D6,E6,F6,G6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00188#0004</v>
+        <v>obj_0017a#0005</v>
       </c>
       <c r="I6" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10450,7 +10179,7 @@
       </c>
       <c r="J6" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00189#0004</v>
+        <v>obj_0017b#0005</v>
       </c>
       <c r="K6" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10461,26 +10190,26 @@
     <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="170" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="170">
         <v>2</v>
       </c>
       <c r="D7" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="182" t="str">
         <f>_xll.qlIborIndex(,,B7,C7,Currency,D7,E7,F7,G7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00187#0004</v>
+        <v>obj_00178#0005</v>
       </c>
       <c r="I7" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10488,7 +10217,7 @@
       </c>
       <c r="J7" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00197#0004</v>
+        <v>obj_00180#0005</v>
       </c>
       <c r="K7" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10499,26 +10228,26 @@
     <row r="8" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="170" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="170">
         <v>2</v>
       </c>
       <c r="D8" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="182" t="str">
         <f>_xll.qlIborIndex(,,B8,C8,Currency,D8,E8,F8,G8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00184#0004</v>
+        <v>obj_00172#0005</v>
       </c>
       <c r="I8" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10526,7 +10255,7 @@
       </c>
       <c r="J8" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00192#0004</v>
+        <v>obj_00184#0005</v>
       </c>
       <c r="K8" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10537,26 +10266,26 @@
     <row r="9" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="170" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="170">
         <v>2</v>
       </c>
       <c r="D9" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="182" t="str">
         <f>_xll.qlIborIndex(,,B9,C9,Currency,D9,E9,F9,G9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0018b#0004</v>
+        <v>obj_0016f#0005</v>
       </c>
       <c r="I9" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10564,7 +10293,7 @@
       </c>
       <c r="J9" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0019e#0004</v>
+        <v>obj_00186#0005</v>
       </c>
       <c r="K9" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10575,26 +10304,26 @@
     <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="170">
         <v>2</v>
       </c>
       <c r="D10" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="182" t="str">
         <f>_xll.qlIborIndex(,,B10,C10,Currency,D10,E10,F10,G10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0018e#0004</v>
+        <v>obj_00175#0005</v>
       </c>
       <c r="I10" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10602,7 +10331,7 @@
       </c>
       <c r="J10" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00198#0004</v>
+        <v>obj_00185#0005</v>
       </c>
       <c r="K10" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10613,26 +10342,26 @@
     <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="170">
         <v>2</v>
       </c>
       <c r="D11" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="182" t="str">
         <f>_xll.qlIborIndex(,,B11,C11,Currency,D11,E11,F11,G11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0018f#0004</v>
+        <v>obj_00177#0005</v>
       </c>
       <c r="I11" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10640,7 +10369,7 @@
       </c>
       <c r="J11" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00195#0004</v>
+        <v>obj_0017c#0005</v>
       </c>
       <c r="K11" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10651,26 +10380,26 @@
     <row r="12" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="170" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="170">
         <v>2</v>
       </c>
       <c r="D12" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="182" t="str">
         <f>_xll.qlIborIndex(,,B12,C12,Currency,D12,E12,F12,G12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0018d#0004</v>
+        <v>obj_00173#0005</v>
       </c>
       <c r="I12" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10678,7 +10407,7 @@
       </c>
       <c r="J12" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00199#0004</v>
+        <v>obj_00188#0005</v>
       </c>
       <c r="K12" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10689,26 +10418,26 @@
     <row r="13" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="170" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="170">
         <v>2</v>
       </c>
       <c r="D13" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="182" t="str">
         <f>_xll.qlIborIndex(,,B13,C13,Currency,D13,E13,F13,G13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00182#0004</v>
+        <v>obj_0016e#0005</v>
       </c>
       <c r="I13" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10716,7 +10445,7 @@
       </c>
       <c r="J13" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0019c#0004</v>
+        <v>obj_00181#0005</v>
       </c>
       <c r="K13" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10727,26 +10456,26 @@
     <row r="14" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="170" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="170">
         <v>2</v>
       </c>
       <c r="D14" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G14" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="182" t="str">
         <f>_xll.qlIborIndex(,,B14,C14,Currency,D14,E14,F14,G14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00186#0004</v>
+        <v>obj_00176#0005</v>
       </c>
       <c r="I14" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10754,7 +10483,7 @@
       </c>
       <c r="J14" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0019b#0004</v>
+        <v>obj_0017f#0005</v>
       </c>
       <c r="K14" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10765,26 +10494,26 @@
     <row r="15" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="170" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="170">
         <v>2</v>
       </c>
       <c r="D15" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G15" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" s="182" t="str">
         <f>_xll.qlIborIndex(,,B15,C15,Currency,D15,E15,F15,G15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00185#0004</v>
+        <v>obj_00174#0005</v>
       </c>
       <c r="I15" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10792,7 +10521,7 @@
       </c>
       <c r="J15" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00191#0004</v>
+        <v>obj_00182#0005</v>
       </c>
       <c r="K15" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10803,26 +10532,26 @@
     <row r="16" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="170">
         <v>2</v>
       </c>
       <c r="D16" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="182" t="str">
         <f>_xll.qlIborIndex(,,B16,C16,Currency,D16,E16,F16,G16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00181#0004</v>
+        <v>obj_0016c#0005</v>
       </c>
       <c r="I16" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10830,7 +10559,7 @@
       </c>
       <c r="J16" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0019d#0004</v>
+        <v>obj_00183#0005</v>
       </c>
       <c r="K16" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10841,26 +10570,26 @@
     <row r="17" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="170">
         <v>2</v>
       </c>
       <c r="D17" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G17" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="182" t="str">
         <f>_xll.qlIborIndex(,,B17,C17,Currency,D17,E17,F17,G17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00190#0004</v>
+        <v>obj_00179#0005</v>
       </c>
       <c r="I17" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10868,7 +10597,7 @@
       </c>
       <c r="J17" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0019a#0004</v>
+        <v>obj_0017d#0005</v>
       </c>
       <c r="K17" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10879,26 +10608,26 @@
     <row r="18" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="170">
         <v>2</v>
       </c>
       <c r="D18" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G18" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="182" t="str">
         <f>_xll.qlIborIndex(,,B18,C18,Currency,D18,E18,F18,G18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0018a#0004</v>
+        <v>obj_0016d#0005</v>
       </c>
       <c r="I18" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10906,7 +10635,7 @@
       </c>
       <c r="J18" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00196#0004</v>
+        <v>obj_0017e#0005</v>
       </c>
       <c r="K18" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10917,26 +10646,26 @@
     <row r="19" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="170">
         <v>2</v>
       </c>
       <c r="D19" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="170" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" s="182" t="str">
         <f>_xll.qlIborIndex(,,B19,C19,Currency,D19,E19,F19,G19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0018c#0004</v>
+        <v>obj_00171#0005</v>
       </c>
       <c r="I19" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10944,7 +10673,7 @@
       </c>
       <c r="J19" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00193#0004</v>
+        <v>obj_00187#0005</v>
       </c>
       <c r="K19" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10961,20 +10690,20 @@
         <v>2</v>
       </c>
       <c r="D20" s="175" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="175" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="175" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="46" t="str">
         <f>_xll.qlIborIndex(,,B20,C20,Currency,D20,E20,F20,G20,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00183#0004</v>
+        <v>obj_00170#0005</v>
       </c>
       <c r="I20" s="46" t="str">
         <f t="shared" si="0"/>
@@ -10982,7 +10711,7 @@
       </c>
       <c r="J20" s="184" t="str">
         <f>_xll.qlDepositRateHelper(,I20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00194#0004</v>
+        <v>obj_00189#0005</v>
       </c>
       <c r="K20" s="178"/>
       <c r="L20" s="45"/>
@@ -11070,22 +10799,22 @@
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
       <c r="B2" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="49" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H22,SerializationPath&amp;H1,FileOverwrite,Serialize),"---")</f>
@@ -11122,14 +10851,14 @@
       </c>
       <c r="H3" s="168" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00171#0004</v>
+        <v>obj_0015b#0005</v>
       </c>
       <c r="I3" s="169" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
         <v/>
       </c>
       <c r="J3" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" s="121"/>
     </row>
@@ -11157,14 +10886,14 @@
       </c>
       <c r="H4" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00176#0004</v>
+        <v>obj_00167#0005</v>
       </c>
       <c r="I4" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
         <v/>
       </c>
       <c r="J4" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" s="121"/>
     </row>
@@ -11192,14 +10921,14 @@
       </c>
       <c r="H5" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00178#0004</v>
+        <v>obj_00163#0005</v>
       </c>
       <c r="I5" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
         <v/>
       </c>
       <c r="J5" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="121"/>
     </row>
@@ -11227,14 +10956,14 @@
       </c>
       <c r="H6" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00172#0004</v>
+        <v>obj_0015c#0005</v>
       </c>
       <c r="I6" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
         <v/>
       </c>
       <c r="J6" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="121"/>
     </row>
@@ -11262,14 +10991,14 @@
       </c>
       <c r="H7" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00175#0004</v>
+        <v>obj_00169#0005</v>
       </c>
       <c r="I7" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
         <v/>
       </c>
       <c r="J7" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="121"/>
     </row>
@@ -11297,14 +11026,14 @@
       </c>
       <c r="H8" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00173#0004</v>
+        <v>obj_00160#0005</v>
       </c>
       <c r="I8" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
         <v/>
       </c>
       <c r="J8" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="121"/>
     </row>
@@ -11332,14 +11061,14 @@
       </c>
       <c r="H9" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017b#0004</v>
+        <v>obj_00165#0005</v>
       </c>
       <c r="I9" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
         <v/>
       </c>
       <c r="J9" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="121"/>
     </row>
@@ -11367,14 +11096,14 @@
       </c>
       <c r="H10" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00179#0004</v>
+        <v>obj_0015e#0005</v>
       </c>
       <c r="I10" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
         <v/>
       </c>
       <c r="J10" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="121"/>
     </row>
@@ -11402,14 +11131,14 @@
       </c>
       <c r="H11" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00174#0004</v>
+        <v>obj_0015d#0005</v>
       </c>
       <c r="I11" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
         <v/>
       </c>
       <c r="J11" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="121"/>
     </row>
@@ -11437,14 +11166,14 @@
       </c>
       <c r="H12" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016f#0004</v>
+        <v>obj_00162#0005</v>
       </c>
       <c r="I12" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
         <v/>
       </c>
       <c r="J12" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" s="121"/>
     </row>
@@ -11472,14 +11201,14 @@
       </c>
       <c r="H13" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00177#0004</v>
+        <v>obj_00161#0005</v>
       </c>
       <c r="I13" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
         <v/>
       </c>
       <c r="J13" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" s="121"/>
     </row>
@@ -11507,14 +11236,14 @@
       </c>
       <c r="H14" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017c#0004</v>
+        <v>obj_00166#0005</v>
       </c>
       <c r="I14" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
         <v/>
       </c>
       <c r="J14" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="121"/>
     </row>
@@ -11542,14 +11271,14 @@
       </c>
       <c r="H15" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016e#0004</v>
+        <v>obj_0015f#0005</v>
       </c>
       <c r="I15" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
         <v/>
       </c>
       <c r="J15" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="121"/>
     </row>
@@ -11577,14 +11306,14 @@
       </c>
       <c r="H16" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017a#0004</v>
+        <v>obj_00168#0005</v>
       </c>
       <c r="I16" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
         <v/>
       </c>
       <c r="J16" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="121"/>
     </row>
@@ -11612,14 +11341,14 @@
       </c>
       <c r="H17" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00170#0004</v>
+        <v>obj_00164#0005</v>
       </c>
       <c r="I17" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
         <v/>
       </c>
       <c r="J17" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="121"/>
     </row>
@@ -11649,12 +11378,12 @@
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I18" s="174" t="e">
+      <c r="I18" s="174" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H18)</f>
-        <v>#NAME?</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F16_Quote'</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="121"/>
     </row>
@@ -11684,12 +11413,12 @@
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I19" s="174" t="e">
+      <c r="I19" s="174" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H19)</f>
-        <v>#NAME?</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F17_Quote'</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="121"/>
     </row>
@@ -11719,12 +11448,12 @@
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I20" s="174" t="e">
+      <c r="I20" s="174" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H20)</f>
-        <v>#NAME?</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F18_Quote'</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="121"/>
     </row>
@@ -11754,12 +11483,12 @@
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I21" s="174" t="e">
+      <c r="I21" s="174" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H21)</f>
-        <v>#NAME?</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F19_Quote'</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="121"/>
     </row>
@@ -11789,12 +11518,12 @@
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I22" s="178" t="e">
+      <c r="I22" s="178" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H22)</f>
-        <v>#NAME?</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'FUTSEK3F20_Quote'</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" s="121"/>
     </row>
@@ -11809,7 +11538,7 @@
       <c r="H23" s="123"/>
       <c r="I23" s="123"/>
       <c r="J23" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -11874,25 +11603,25 @@
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
       <c r="B2" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="113" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(K3:K27,SerializationPath&amp;K1,FileOverwrite,Serialize),"---")</f>
@@ -11917,7 +11646,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="138" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IndexTenor,NDays,Currency,Calendar,"mf",TRUE,"Actual/360",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00157#0011</v>
+        <v>obj_00144#0019</v>
       </c>
       <c r="L3" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -11943,25 +11672,25 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="140" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="F5" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="G5" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="142" t="s">
         <v>116</v>
-      </c>
-      <c r="G5" s="141" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="142" t="s">
-        <v>117</v>
       </c>
       <c r="I5" s="142">
         <v>0</v>
@@ -11972,7 +11701,7 @@
       </c>
       <c r="K5" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015b#0011</v>
+        <v>obj_00152#0007</v>
       </c>
       <c r="L5" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -11983,25 +11712,25 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="147" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="F6" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="146" t="s">
+      <c r="G6" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G6" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I6" s="149">
         <v>0</v>
@@ -12012,7 +11741,7 @@
       </c>
       <c r="K6" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00164#0011</v>
+        <v>obj_00159#0007</v>
       </c>
       <c r="L6" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12023,25 +11752,25 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="147" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="146" t="s">
+      <c r="F7" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="G7" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G7" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I7" s="149">
         <v>0</v>
@@ -12052,7 +11781,7 @@
       </c>
       <c r="K7" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015a#0011</v>
+        <v>obj_0014f#0007</v>
       </c>
       <c r="L7" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12063,25 +11792,25 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="147" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="F8" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="146" t="s">
+      <c r="G8" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I8" s="149">
         <v>0</v>
@@ -12092,7 +11821,7 @@
       </c>
       <c r="K8" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00160#0011</v>
+        <v>obj_0014b#0007</v>
       </c>
       <c r="L8" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12103,25 +11832,25 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="47"/>
       <c r="B9" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="147" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="146" t="s">
+      <c r="F9" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="146" t="s">
+      <c r="G9" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G9" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I9" s="149">
         <v>0</v>
@@ -12132,7 +11861,7 @@
       </c>
       <c r="K9" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00158#0011</v>
+        <v>obj_00148#0007</v>
       </c>
       <c r="L9" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12143,25 +11872,25 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="147" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="F10" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="146" t="s">
+      <c r="G10" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G10" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I10" s="149">
         <v>0</v>
@@ -12172,7 +11901,7 @@
       </c>
       <c r="K10" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015c#0011</v>
+        <v>obj_00155#0007</v>
       </c>
       <c r="L10" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12183,25 +11912,25 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="147" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="F11" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="146" t="s">
+      <c r="G11" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G11" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I11" s="149">
         <v>0</v>
@@ -12212,7 +11941,7 @@
       </c>
       <c r="K11" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00166#0011</v>
+        <v>obj_0014a#0007</v>
       </c>
       <c r="L11" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12223,25 +11952,25 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="147" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="F12" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="G12" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G12" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I12" s="149">
         <v>0</v>
@@ -12252,7 +11981,7 @@
       </c>
       <c r="K12" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0016b#0011</v>
+        <v>obj_00157#0007</v>
       </c>
       <c r="L12" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12263,25 +11992,25 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="147" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="146" t="s">
+      <c r="F13" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="146" t="s">
+      <c r="G13" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G13" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I13" s="149">
         <v>0</v>
@@ -12292,7 +12021,7 @@
       </c>
       <c r="K13" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00162#0011</v>
+        <v>obj_00153#0007</v>
       </c>
       <c r="L13" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -12303,25 +12032,25 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="147" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="146" t="s">
+      <c r="F14" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="146" t="s">
+      <c r="G14" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G14" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I14" s="149">
         <v>0</v>
@@ -12332,7 +12061,7 @@
       </c>
       <c r="K14" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00161#0011</v>
+        <v>obj_00150#0007</v>
       </c>
       <c r="L14" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -12343,25 +12072,25 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="147" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="146" t="s">
+      <c r="F15" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="146" t="s">
+      <c r="G15" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G15" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I15" s="149">
         <v>0</v>
@@ -12372,7 +12101,7 @@
       </c>
       <c r="K15" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0016c#0011</v>
+        <v>obj_0015a#0007</v>
       </c>
       <c r="L15" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -12383,25 +12112,25 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="47"/>
       <c r="B16" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="147" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="F16" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="146" t="s">
+      <c r="G16" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G16" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I16" s="149">
         <v>0</v>
@@ -12412,7 +12141,7 @@
       </c>
       <c r="K16" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015f#0011</v>
+        <v>obj_00149#0007</v>
       </c>
       <c r="L16" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -12423,25 +12152,25 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="147" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="F17" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="146" t="s">
+      <c r="G17" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I17" s="149">
         <v>0</v>
@@ -12452,7 +12181,7 @@
       </c>
       <c r="K17" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00163#0011</v>
+        <v>obj_00156#0007</v>
       </c>
       <c r="L17" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -12463,25 +12192,25 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="147" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="F18" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="146" t="s">
+      <c r="G18" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I18" s="149">
         <v>0</v>
@@ -12492,7 +12221,7 @@
       </c>
       <c r="K18" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00168#0011</v>
+        <v>obj_0014e#0007</v>
       </c>
       <c r="L18" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -12503,25 +12232,25 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="147" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="F19" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="G19" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I19" s="149">
         <v>0</v>
@@ -12532,7 +12261,7 @@
       </c>
       <c r="K19" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00169#0011</v>
+        <v>obj_00151#0007</v>
       </c>
       <c r="L19" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -12543,25 +12272,25 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="147" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="F20" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="146" t="s">
+      <c r="G20" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I20" s="149">
         <v>0</v>
@@ -12572,7 +12301,7 @@
       </c>
       <c r="K20" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0016a#0011</v>
+        <v>obj_00154#0007</v>
       </c>
       <c r="L20" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -12583,25 +12312,25 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="147" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="F21" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="146" t="s">
+      <c r="G21" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I21" s="149">
         <v>0</v>
@@ -12612,7 +12341,7 @@
       </c>
       <c r="K21" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00159#0011</v>
+        <v>obj_0014d#0007</v>
       </c>
       <c r="L21" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -12623,25 +12352,25 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="47"/>
       <c r="B22" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="147" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="146" t="s">
+      <c r="F22" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="146" t="s">
+      <c r="G22" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G22" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I22" s="149">
         <v>0</v>
@@ -12652,7 +12381,7 @@
       </c>
       <c r="K22" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00165#0011</v>
+        <v>obj_00146#0007</v>
       </c>
       <c r="L22" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -12663,25 +12392,25 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="47"/>
       <c r="B23" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="147" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="146" t="s">
+      <c r="F23" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="146" t="s">
+      <c r="G23" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I23" s="149">
         <v>0</v>
@@ -12692,7 +12421,7 @@
       </c>
       <c r="K23" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015e#0011</v>
+        <v>obj_00145#0007</v>
       </c>
       <c r="L23" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -12703,25 +12432,25 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="47"/>
       <c r="B24" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="147" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="146" t="s">
+      <c r="F24" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="146" t="s">
+      <c r="G24" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G24" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I24" s="149">
         <v>0</v>
@@ -12732,7 +12461,7 @@
       </c>
       <c r="K24" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0015d#0011</v>
+        <v>obj_00158#0007</v>
       </c>
       <c r="L24" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -12743,25 +12472,25 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="47"/>
       <c r="B25" s="146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="147" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="146" t="s">
+      <c r="F25" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="146" t="s">
+      <c r="G25" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="149" t="s">
         <v>116</v>
-      </c>
-      <c r="G25" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="149" t="s">
-        <v>117</v>
       </c>
       <c r="I25" s="149">
         <v>0</v>
@@ -12772,7 +12501,7 @@
       </c>
       <c r="K25" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00167#0011</v>
+        <v>obj_0014c#0007</v>
       </c>
       <c r="L25" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -12783,25 +12512,25 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
       <c r="B26" s="153" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="154" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="153" t="s">
+      <c r="F26" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="153" t="s">
+      <c r="G26" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="156" t="s">
         <v>116</v>
-      </c>
-      <c r="G26" s="155" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="156" t="s">
-        <v>117</v>
       </c>
       <c r="I26" s="156">
         <v>0</v>
@@ -12812,7 +12541,7 @@
       </c>
       <c r="K26" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0016d#0011</v>
+        <v>obj_00147#0007</v>
       </c>
       <c r="L26" s="159" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
